--- a/Public_data/Exports_FW_part1/Export_LMA_compositions.xlsx
+++ b/Public_data/Exports_FW_part1/Export_LMA_compositions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="424">
   <si>
     <t>EuralCode</t>
   </si>
@@ -22,1057 +22,1270 @@
     <t>BenamingAfval</t>
   </si>
   <si>
-    <t>spijsolie en -vetten uit vetvanger</t>
-  </si>
-  <si>
-    <t>spijsolie en -vetten</t>
-  </si>
-  <si>
-    <t>vetafval</t>
-  </si>
-  <si>
-    <t>frituurvet (havi)</t>
-  </si>
-  <si>
-    <t>dierlijke en plantaardige oliën en vetten, gemengd</t>
-  </si>
-  <si>
-    <t>olie,vet en wasemulsie(plantaardige/dierlijke vetproducten</t>
-  </si>
-  <si>
-    <t>frituurvet, route</t>
-  </si>
-  <si>
-    <t>olie- vet en wasemulsies</t>
+    <t>niet onder 03 01 04 vallend zaagsel, schaafsel, spaanders, hout, spaanplaat en fineer</t>
+  </si>
+  <si>
+    <t>zaagsel</t>
+  </si>
+  <si>
+    <t>houtmot/eps</t>
+  </si>
+  <si>
+    <t>houtmot, niet route</t>
+  </si>
+  <si>
+    <t>houtmot</t>
+  </si>
+  <si>
+    <t>houtvezel</t>
+  </si>
+  <si>
+    <t>houtafval</t>
+  </si>
+  <si>
+    <t>hout</t>
+  </si>
+  <si>
+    <t>houtveel</t>
+  </si>
+  <si>
+    <t>houtafval a-kwaliteit</t>
+  </si>
+  <si>
+    <t>houtstof</t>
+  </si>
+  <si>
+    <t>niet onder 03 01 04 vallend zaagsel, schaafsel, spaanders,hout, spaanplaat en fineer</t>
+  </si>
+  <si>
+    <t>houtsnippers</t>
+  </si>
+  <si>
+    <t>niet onder 03 03 10 vallend slib van afvalwaterbehandeling ter plaatse</t>
+  </si>
+  <si>
+    <t>slib van papier- en kartonindustrie</t>
+  </si>
+  <si>
+    <t>slib v/d afvalwaterbehandeling bij papierfabricage</t>
+  </si>
+  <si>
+    <t>slib afk.uit papier awzi</t>
+  </si>
+  <si>
+    <t>rejects papierindustrie</t>
+  </si>
+  <si>
+    <t>rejects</t>
+  </si>
+  <si>
+    <t>afvalwater</t>
+  </si>
+  <si>
+    <t>onbruikbare vezels en door mechanische afscheiding verkregen vezel-, ilstof- en coatinslib</t>
+  </si>
+  <si>
+    <t>papierslib</t>
+  </si>
+  <si>
+    <t>restmateriaal</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>spoelwater / kymene</t>
+  </si>
+  <si>
+    <t>kymene 217lx</t>
+  </si>
+  <si>
+    <t>harskorrels</t>
+  </si>
+  <si>
+    <t>groenafval</t>
+  </si>
+  <si>
+    <t>snippers</t>
+  </si>
+  <si>
+    <t>niet elders genoemd afval</t>
+  </si>
+  <si>
+    <t>niet verbrandbaar tuinbouw afval</t>
+  </si>
+  <si>
+    <t>afval van voedingsbereiding en verwerking n.e.g</t>
+  </si>
+  <si>
+    <t>oncourant stamhout</t>
+  </si>
+  <si>
+    <t>vgw/wellantcol. mest/groenafva</t>
+  </si>
+  <si>
+    <t>warmtewiss. filters (vp)</t>
+  </si>
+  <si>
+    <t>warmtewiss.filters, pbm's (mp)</t>
+  </si>
+  <si>
+    <t>snoeihout</t>
+  </si>
+  <si>
+    <t>tuinafval</t>
+  </si>
+  <si>
+    <t>biologisch afbreekbaar slib</t>
+  </si>
+  <si>
+    <t>bedrijfsafvalwater</t>
+  </si>
+  <si>
+    <t>1600 jute</t>
+  </si>
+  <si>
+    <t>swill</t>
+  </si>
+  <si>
+    <t>voedings en genotmiddelen ongeschikt voor consumptie</t>
+  </si>
+  <si>
+    <t>bleekaarde</t>
+  </si>
+  <si>
+    <t>tankbodems</t>
+  </si>
+  <si>
+    <t>gebruikte actieve kool</t>
+  </si>
+  <si>
+    <t>plantaardig vet</t>
+  </si>
+  <si>
+    <t>absorbtie filters/korrels verzadigd</t>
+  </si>
+  <si>
+    <t>palmolie spoelwater</t>
+  </si>
+  <si>
+    <t>slib uit de voedingsindustrie</t>
+  </si>
+  <si>
+    <t>spoelwater met gestolde palmolie</t>
+  </si>
+  <si>
+    <t>voor consumptie ongeschikt materiaal</t>
+  </si>
+  <si>
+    <t>n.e.g.a. van spijsoliebereiding</t>
+  </si>
+  <si>
+    <t>nega van spijsolie bereiding</t>
+  </si>
+  <si>
+    <t>bleekaarde (max 5%)</t>
+  </si>
+  <si>
+    <t>afvalvet</t>
+  </si>
+  <si>
+    <t>soapstock (dikke zeep)</t>
+  </si>
+  <si>
+    <t>gebruikt dewaxing filtermateriaal</t>
+  </si>
+  <si>
+    <t>gebruikte bleekaarde met gebruikte actieve kool</t>
+  </si>
+  <si>
+    <t>vetresidu</t>
+  </si>
+  <si>
+    <t>bleekaarde me plantaardige olieresten</t>
+  </si>
+  <si>
+    <t>bleekaarde met plantaardige olieresten</t>
+  </si>
+  <si>
+    <t>"afval van de bereiding en verwerking van fruit, groente, granen, spijsolie, cacao, koffie, thee en tabak, de productie van conserven, de productie van gist en gistextract en de bereiding en fermentat</t>
+  </si>
+  <si>
+    <t>bleekaarde met max 5% norit</t>
+  </si>
+  <si>
+    <t>daf-slib met bleekaarde en norit</t>
+  </si>
+  <si>
+    <t>bentoniet</t>
+  </si>
+  <si>
+    <t>afvoer en verwerking afvalvet</t>
+  </si>
+  <si>
+    <t>plantaardige afvalvetten</t>
+  </si>
+  <si>
+    <t>afvoer en verwerking van putve</t>
+  </si>
+  <si>
+    <t>afvoer en verwerking bleekaard</t>
+  </si>
+  <si>
+    <t>afvoer en verwerking van bleek</t>
+  </si>
+  <si>
+    <t>afvoer bleekaarde</t>
+  </si>
+  <si>
+    <t>afvoer en verwerking soapstock</t>
+  </si>
+  <si>
+    <t>afvoer en verwerking van loogwater</t>
+  </si>
+  <si>
+    <t>afvoer en verwerking bleekaarde</t>
+  </si>
+  <si>
+    <t>inname actieve kool kokosfiltratie</t>
+  </si>
+  <si>
+    <t>putvet</t>
+  </si>
+  <si>
+    <t>afvoer en verwerking van vet/w</t>
+  </si>
+  <si>
+    <t>filterdoek met olie</t>
+  </si>
+  <si>
+    <t>slib uit voedingsindustrie</t>
+  </si>
+  <si>
+    <t>afgewerkte bleekaarde</t>
+  </si>
+  <si>
+    <t>emulsie</t>
+  </si>
+  <si>
+    <t>spend dicalite</t>
+  </si>
+  <si>
+    <t>gebr.bleekaarde/gebr.act.kool</t>
+  </si>
+  <si>
+    <t>waswater plantaardige olie</t>
+  </si>
+  <si>
+    <t>waswater plantaarfige olie</t>
+  </si>
+  <si>
+    <t>sojadroes</t>
+  </si>
+  <si>
+    <t>zonnebloemdroes</t>
+  </si>
+  <si>
+    <t>raapdroes</t>
+  </si>
+  <si>
+    <t>soap/stock</t>
+  </si>
+  <si>
+    <t>kleibak\bleekaarde</t>
+  </si>
+  <si>
+    <t>proceswater cip</t>
+  </si>
+  <si>
+    <t>plantaardige reststromen</t>
+  </si>
+  <si>
+    <t>proceswater</t>
+  </si>
+  <si>
+    <t>soapstock technisch</t>
+  </si>
+  <si>
+    <t>niet elders in de lijst genoemd afval, zijnde glycerine/glycol van biodieselproductie</t>
+  </si>
+  <si>
+    <t>witte bleekaarde</t>
+  </si>
+  <si>
+    <t>vetresidu avi</t>
+  </si>
+  <si>
+    <t>niet elder genoemd afval</t>
+  </si>
+  <si>
+    <t>bleekaarde/actief kool</t>
+  </si>
+  <si>
+    <t>bleekaarde overflow</t>
+  </si>
+  <si>
+    <t>plantaardige olie emulsie</t>
+  </si>
+  <si>
+    <t>bleekaarde voor vergister</t>
+  </si>
+  <si>
+    <t>slib van afvalwaterbehandeling ter plaatse</t>
+  </si>
+  <si>
+    <t>slib</t>
+  </si>
+  <si>
+    <t>slib van afwaterbehandeling ter plaatse</t>
+  </si>
+  <si>
+    <t>vet van dierlijke oorsprong</t>
+  </si>
+  <si>
+    <t>flotatieslib</t>
+  </si>
+  <si>
+    <t>slib van afvalwaterzuivering ter plaatse</t>
+  </si>
+  <si>
+    <t>flotatieslib van afvalwaterzuivering ter plaatse</t>
+  </si>
+  <si>
+    <t>voedingsmiddelen flotatieslib</t>
+  </si>
+  <si>
+    <t>slib van afvalwaterbehandling ter plaatse</t>
+  </si>
+  <si>
+    <t>slib van afvalwaterbehandeling ter plaatse.</t>
   </si>
   <si>
     <t>voor consumptie of verwerking ongeschikt materiaal</t>
   </si>
   <si>
-    <t>spijsolie en - vetten</t>
-  </si>
-  <si>
-    <t>e25 dierlijke/plantaardige olien/vetten</t>
-  </si>
-  <si>
-    <t>biodieselresidu</t>
-  </si>
-  <si>
-    <t>spijsolien en vetten</t>
-  </si>
-  <si>
-    <t>spijs olie en vetten</t>
-  </si>
-  <si>
-    <t>gebruikt frituurvet uit vetputtem</t>
-  </si>
-  <si>
-    <t>drijflaag</t>
-  </si>
-  <si>
-    <t>vet drijflaag</t>
-  </si>
-  <si>
-    <t>spijsolie en vetten</t>
-  </si>
-  <si>
-    <t>spijsolie- en vetten</t>
-  </si>
-  <si>
-    <t>vet uit vetput</t>
-  </si>
-  <si>
-    <t>onbewerkt frituurvet</t>
-  </si>
-  <si>
-    <t>spijsolie &amp; vetten</t>
-  </si>
-  <si>
-    <t>frituurolie uit vetvanger</t>
-  </si>
-  <si>
-    <t>vetafval/water</t>
-  </si>
-  <si>
-    <t>restant vet uit tankauto na reiniging</t>
-  </si>
-  <si>
-    <t>spoelwater slib en vet</t>
-  </si>
-  <si>
-    <t>vet/put afval</t>
-  </si>
-  <si>
-    <t>spoelwater vet mengsel</t>
-  </si>
-  <si>
-    <t>frituurvet</t>
-  </si>
-  <si>
-    <t>putvetten</t>
-  </si>
-  <si>
-    <t>oud frituurvet</t>
-  </si>
-  <si>
-    <t>spijsolie en vet</t>
-  </si>
-  <si>
-    <t>rioolslib/kolkenvuil</t>
-  </si>
-  <si>
-    <t>used cooking oil</t>
-  </si>
-  <si>
-    <t>gebruikt frituurvet</t>
-  </si>
-  <si>
-    <t>spijsolie / vetten</t>
-  </si>
-  <si>
-    <t>frituurvet de</t>
+    <t>slib uit zuivelindustrie</t>
   </si>
   <si>
     <t>afgekeurde levensmiddelen</t>
   </si>
   <si>
-    <t>organisch ba vast vet zeefbandpers</t>
-  </si>
-  <si>
-    <t>organisch ba vast vet harkcontainer</t>
-  </si>
-  <si>
-    <t>spijsolie en -vetten (gescheiden ingezamelde fract</t>
-  </si>
-  <si>
-    <t>spijsolie en -vetten (gescheiden ingezamelde fracties (exclusief 1</t>
+    <t>gft voedingindustrie (vloeibaar)</t>
+  </si>
+  <si>
+    <t>gft voedingindustrie (vast)</t>
+  </si>
+  <si>
+    <t>odp, route</t>
+  </si>
+  <si>
+    <t>soya</t>
+  </si>
+  <si>
+    <t>voedings-en genotmiddelen ovc</t>
+  </si>
+  <si>
+    <t>voedings- en genotmiddelen ovc</t>
+  </si>
+  <si>
+    <t>cacaoresten</t>
+  </si>
+  <si>
+    <t>vegetable oil redcert- de materiaal</t>
+  </si>
+  <si>
+    <t>fruitresten</t>
+  </si>
+  <si>
+    <t>gft vloeibare reststromen voedingsindustrie</t>
+  </si>
+  <si>
+    <t>gft vloeibare reststrome</t>
+  </si>
+  <si>
+    <t>gum and fatty acids</t>
+  </si>
+  <si>
+    <t>consumptie of verwerking ongeschikt materiaal</t>
+  </si>
+  <si>
+    <t>consumptie ongeschikt mat. uit productieprocessen</t>
+  </si>
+  <si>
+    <t>consumptie ongeschikt mat. (snacks, plantaardig)</t>
+  </si>
+  <si>
+    <t>consumptie ongeschikt mat. (marinades, sauzen)</t>
+  </si>
+  <si>
+    <t>consumptie ongeschikt mat. (palmvetzuren)</t>
+  </si>
+  <si>
+    <t>consumptie ongeschikt mat. (plantaardig vet)</t>
+  </si>
+  <si>
+    <t>sediment uit plantaardige olie &amp; bijprod.</t>
+  </si>
+  <si>
+    <t>consumptie ongeschikt mat. uit dc/handel</t>
+  </si>
+  <si>
+    <t>overig brandbaar afval (stort)</t>
+  </si>
+  <si>
+    <t>cacao massa /slib</t>
+  </si>
+  <si>
+    <t>cacaopoeder</t>
+  </si>
+  <si>
+    <t>cacao poeder/brokjes resten</t>
+  </si>
+  <si>
+    <t>cacao poeder (nip)</t>
+  </si>
+  <si>
+    <t>procesafval amberlite</t>
+  </si>
+  <si>
+    <t>vot sigarett/jti c/jan de rijk</t>
+  </si>
+  <si>
+    <t>meng tech</t>
+  </si>
+  <si>
+    <t>slib van cacao resten</t>
+  </si>
+  <si>
+    <t>vet-water-cacao mengsels</t>
+  </si>
+  <si>
+    <t>voordeeg voor oliebollen</t>
+  </si>
+  <si>
+    <t>skimpit vet</t>
+  </si>
+  <si>
+    <t>filterdoek</t>
+  </si>
+  <si>
+    <t>voor consumptie ongeschikt materiaal sauzen/kruiden</t>
+  </si>
+  <si>
+    <t>aardappelzetmeel</t>
+  </si>
+  <si>
+    <t>consumptie ongeschikt materiaal</t>
+  </si>
+  <si>
+    <t>fruitafval</t>
+  </si>
+  <si>
+    <t>zaden/renewi-takii europe</t>
+  </si>
+  <si>
+    <t>gft</t>
+  </si>
+  <si>
+    <t>technische mengvetzuren</t>
+  </si>
+  <si>
+    <t>pro.vern. niet v menselyke consumptie//soft verpak</t>
+  </si>
+  <si>
+    <t>pro.vern. niet v menselyke consumptie//glas</t>
+  </si>
+  <si>
+    <t>voor verwerking of consumptie ongeschikt</t>
+  </si>
+  <si>
+    <t>uvm</t>
+  </si>
+  <si>
+    <t>voor consumptie of verwerking ongeschikt</t>
+  </si>
+  <si>
+    <t>voor consumptie en verwerking ongeschikt</t>
+  </si>
+  <si>
+    <t>cacaodoppen</t>
+  </si>
+  <si>
+    <t>voor verwerking of consumptie ongeschikt materiaal</t>
+  </si>
+  <si>
+    <t>levensmiddelen divers</t>
+  </si>
+  <si>
+    <t>specerijen</t>
+  </si>
+  <si>
+    <t>niet voor consumptie geschikt</t>
+  </si>
+  <si>
+    <t>voor verwerking en consumptie ongeschikt</t>
+  </si>
+  <si>
+    <t>voedings- en genotmiddelen ongeschikt voor cons.,</t>
+  </si>
+  <si>
+    <t>afval van de voedingsindustrie, extern</t>
+  </si>
+  <si>
+    <t>odp voedingsmiddelen cat 3</t>
+  </si>
+  <si>
+    <t>000 brood</t>
+  </si>
+  <si>
+    <t>000 zacht verpakte levensmiddelen</t>
+  </si>
+  <si>
+    <t>000 suikerwater</t>
+  </si>
+  <si>
+    <t>verpakte levensmiddelen</t>
+  </si>
+  <si>
+    <t>afvoer en verwerking putvet</t>
+  </si>
+  <si>
+    <t>gum &amp; fatty acids (waste)</t>
+  </si>
+  <si>
+    <t>afvoer en verwerking van vet/watermengsel</t>
+  </si>
+  <si>
+    <t>cacao</t>
+  </si>
+  <si>
+    <t>zetmeelvlokken</t>
+  </si>
+  <si>
+    <t>cacoadoppen</t>
+  </si>
+  <si>
+    <t>vergistingsvetten</t>
+  </si>
+  <si>
+    <t>soja meel</t>
+  </si>
+  <si>
+    <t>sojadroes technisch</t>
+  </si>
+  <si>
+    <t>zonnebloemdroes technisch</t>
+  </si>
+  <si>
+    <t>plantaardige afvalolie/vetzuren</t>
+  </si>
+  <si>
+    <t>meel-bonen-zaad spills</t>
+  </si>
+  <si>
+    <t>cacoamassa</t>
+  </si>
+  <si>
+    <t>olieopslagresidu</t>
+  </si>
+  <si>
+    <t>skimpit vet reinigingsresidu</t>
+  </si>
+  <si>
+    <t>niet geschikt voor consumptie non-food/non feed</t>
+  </si>
+  <si>
+    <t>olieopslagresidu (droes)</t>
+  </si>
+  <si>
+    <t>voor consumtie of verwerking ongeschikt materiaal</t>
+  </si>
+  <si>
+    <t>niet geschikt voor consumptie</t>
+  </si>
+  <si>
+    <t>melasse</t>
+  </si>
+  <si>
+    <t>raapdroes technisch</t>
+  </si>
+  <si>
+    <t>vetafval non feed/non food</t>
+  </si>
+  <si>
+    <t>voor consumptie of verwerking</t>
+  </si>
+  <si>
+    <t>neit geschikt voor consumptie</t>
+  </si>
+  <si>
+    <t>mengvetzuren technisch</t>
+  </si>
+  <si>
+    <t>maiskiemen</t>
+  </si>
+  <si>
+    <t>zetmeel</t>
+  </si>
+  <si>
+    <t>cacoa doppen</t>
+  </si>
+  <si>
+    <t>cacao doppen</t>
+  </si>
+  <si>
+    <t>gemalen cacaodoppen</t>
+  </si>
+  <si>
+    <t>sojabonen</t>
+  </si>
+  <si>
+    <t>wei</t>
+  </si>
+  <si>
+    <t>plantaardig vetafscheider</t>
+  </si>
+  <si>
+    <t>tafelzuren</t>
+  </si>
+  <si>
+    <t>wijnen</t>
+  </si>
+  <si>
+    <t>plantaardig paardevoer tht</t>
+  </si>
+  <si>
+    <t>afgekeurd groente en fruit (levensmiddelen)</t>
   </si>
   <si>
     <t>recovered vegetable oil for technical purposes</t>
   </si>
   <si>
-    <t>used cooking oil for technical purposes</t>
-  </si>
-  <si>
-    <t>olie/water/slib</t>
-  </si>
-  <si>
-    <t>eetbare olien en vetten, niet route</t>
-  </si>
-  <si>
-    <t>eetbare olien en vetten</t>
-  </si>
-  <si>
-    <t>plantaardige oliën en vetten</t>
-  </si>
-  <si>
-    <t>afgewerkte olie cat ii</t>
-  </si>
-  <si>
-    <t>eetbare oliën en vetten</t>
-  </si>
-  <si>
-    <t>plantaardige en dierlijke vetten/olie</t>
-  </si>
-  <si>
-    <t>uco</t>
+    <t>gtv tabakswaar</t>
+  </si>
+  <si>
+    <t>maisrestproducten</t>
+  </si>
+  <si>
+    <t>cacao restanten/ voedselrestanten</t>
+  </si>
+  <si>
+    <t>restanten cacao</t>
+  </si>
+  <si>
+    <t>(restanten) koffiebonen ed</t>
+  </si>
+  <si>
+    <t>organisch restmateriaal (soja) ongeschikt voor food/feed</t>
+  </si>
+  <si>
+    <t>restanten veevoer</t>
+  </si>
+  <si>
+    <t>pulp/compost</t>
+  </si>
+  <si>
+    <t>citruspulp</t>
+  </si>
+  <si>
+    <t>restanten levensmiddelen niet voor consumptie geschikt</t>
+  </si>
+  <si>
+    <t>restanten/afval</t>
+  </si>
+  <si>
+    <t>voedingsmiddelen voor consumptie ongeschikt</t>
+  </si>
+  <si>
+    <t>restanten veevoeder(middelen)</t>
+  </si>
+  <si>
+    <t>afval voedingsmiddelen vor consumptie ongeschikt materiaal</t>
+  </si>
+  <si>
+    <t>restanten veevoeder</t>
+  </si>
+  <si>
+    <t>voedingsmiddelen ongeschikt voor consumptie (nootjes afvallen )</t>
+  </si>
+  <si>
+    <t>restanten rijst - voor consumptie ongeschikt</t>
+  </si>
+  <si>
+    <t>zetmeel tbv bio energie</t>
+  </si>
+  <si>
+    <t>restanten voedingsmiddelen voor consumptie ongeschikt ( macaroni)</t>
+  </si>
+  <si>
+    <t>granen/zaden restanten /afvallen</t>
+  </si>
+  <si>
+    <t>cacao restanten/-afval</t>
+  </si>
+  <si>
+    <t>suiker</t>
+  </si>
+  <si>
+    <t>technisch meel (sun meal)</t>
+  </si>
+  <si>
+    <t>bentoniet-mineraal</t>
+  </si>
+  <si>
+    <t>voor consumptie of verwerking ongeschikt materiaal (putvet)</t>
+  </si>
+  <si>
+    <t>voor consumptie of verwerking ongeschikte materiaal</t>
+  </si>
+  <si>
+    <t>overige restst.vgi nta 509</t>
+  </si>
+  <si>
+    <t>vergistingsvet</t>
+  </si>
+  <si>
+    <t>organisch bedrijfsafval</t>
+  </si>
+  <si>
+    <t>voor consumptie ongeschikt materiaal cat.3</t>
+  </si>
+  <si>
+    <t>aardappelsnippers</t>
+  </si>
+  <si>
+    <t>cacaomassa / water</t>
   </si>
   <si>
     <t>plantaardige oliën/vetten - frituurvetten</t>
   </si>
   <si>
-    <t>vetafval van afvalverwerker</t>
-  </si>
-  <si>
-    <t>spijolie en -vetten</t>
-  </si>
-  <si>
-    <t>plantaardige afvalvetten</t>
-  </si>
-  <si>
-    <t>345 in vaten vet (techniek)</t>
-  </si>
-  <si>
-    <t>frituurvet, niet route</t>
-  </si>
-  <si>
-    <t>frituurvet iscc-de, niet route</t>
-  </si>
-  <si>
-    <t>001 vaten vet non iscc</t>
-  </si>
-  <si>
-    <t>003 vaten vet iscc eu</t>
-  </si>
-  <si>
-    <t>vet- en oliemengsel</t>
-  </si>
-  <si>
-    <t>plantaardige olien en vetten</t>
-  </si>
-  <si>
-    <t>frituurolie</t>
-  </si>
-  <si>
-    <t>spijolieen en vetten</t>
-  </si>
-  <si>
-    <t>friuurolie</t>
-  </si>
-  <si>
-    <t>olieen en vetten</t>
-  </si>
-  <si>
-    <t>groenafval</t>
-  </si>
-  <si>
-    <t>tuinafval / takken / struiken</t>
-  </si>
-  <si>
-    <t>stamhout / stobben</t>
-  </si>
-  <si>
-    <t>stobben</t>
-  </si>
-  <si>
-    <t>iepen hout (ongeschild)</t>
-  </si>
-  <si>
-    <t>gras</t>
-  </si>
-  <si>
-    <t>groenafval met invasieve exoot</t>
-  </si>
-  <si>
-    <t>gft duobakken amstelveen</t>
-  </si>
-  <si>
-    <t>gft / groenafval</t>
-  </si>
-  <si>
-    <t>gft/groenafval</t>
-  </si>
-  <si>
-    <t>biologisch afbreekbaar afval</t>
-  </si>
-  <si>
-    <t>gft (vergisten)</t>
-  </si>
-  <si>
-    <t>groen- en plantsoenhout</t>
-  </si>
-  <si>
-    <t>groenafval ingaand</t>
-  </si>
-  <si>
-    <t>stobben ingaand</t>
-  </si>
-  <si>
-    <t>bladafval</t>
-  </si>
-  <si>
-    <t>indicatief industrie uitgaand</t>
-  </si>
-  <si>
-    <t>bedrijfsafval</t>
-  </si>
-  <si>
-    <t>zand/grond storten</t>
-  </si>
-  <si>
-    <t>tuingrond</t>
-  </si>
-  <si>
-    <t>groenafval/riet</t>
-  </si>
-  <si>
-    <t>plantsoen afval</t>
-  </si>
-  <si>
-    <t>groen/tuinafval</t>
+    <t>vruchtenconcentraat</t>
+  </si>
+  <si>
+    <t>plantaardig proceswater</t>
+  </si>
+  <si>
+    <t>supermarktmix</t>
+  </si>
+  <si>
+    <t>afval van de voedingsindustrie</t>
+  </si>
+  <si>
+    <t>flesjes bier, ongeschikt voor consumptie</t>
+  </si>
+  <si>
+    <t>geraffineerde sojaolie</t>
+  </si>
+  <si>
+    <t>cacao restanten</t>
+  </si>
+  <si>
+    <t>afgekeurde plantaardige produkten</t>
+  </si>
+  <si>
+    <t>afval v.d. voedingsindustrie</t>
+  </si>
+  <si>
+    <t>paneermeel</t>
+  </si>
+  <si>
+    <t>soja zeefsel resten</t>
+  </si>
+  <si>
+    <t>soja resten</t>
+  </si>
+  <si>
+    <t>raapzaad</t>
+  </si>
+  <si>
+    <t>zwarte soja bonen in container</t>
+  </si>
+  <si>
+    <t>soja zeefsel resten (crust)</t>
+  </si>
+  <si>
+    <t>technisch opstartmeel</t>
+  </si>
+  <si>
+    <t>afval van plantaardige weefsels</t>
+  </si>
+  <si>
+    <t>4311 bedrijfsafval niet herbruikbaar</t>
+  </si>
+  <si>
+    <t>afval uit voedingsindustrie</t>
+  </si>
+  <si>
+    <t>tuinbouwafval</t>
+  </si>
+  <si>
+    <t>veilingafval</t>
   </si>
   <si>
     <t>composteerbaar groenafval</t>
   </si>
   <si>
-    <t>tuin- en plantsoenafval</t>
-  </si>
-  <si>
-    <t>zwaar tuinafval</t>
-  </si>
-  <si>
-    <t>dakafval</t>
-  </si>
-  <si>
-    <t>5220 tuinvuil</t>
-  </si>
-  <si>
-    <t>5200 boomstobben</t>
-  </si>
-  <si>
-    <t>5220 tuin- en plantsoen</t>
-  </si>
-  <si>
-    <t>organisch afval</t>
-  </si>
-  <si>
-    <t>tuinafval</t>
-  </si>
-  <si>
-    <t>verpakte en onverpakte levensmiddelen</t>
-  </si>
-  <si>
-    <t>groenafval (gebr. van der veekens b.v.)</t>
-  </si>
-  <si>
-    <t>groenafval (break down sloopsupport)</t>
-  </si>
-  <si>
-    <t>kerstbomen(aeb exploitatie)</t>
-  </si>
-  <si>
-    <t>swill (mcdonalds)</t>
-  </si>
-  <si>
-    <t>groenafval p</t>
-  </si>
-  <si>
-    <t>grond</t>
-  </si>
-  <si>
-    <t>organisch slootvuil (gedroogd)</t>
-  </si>
-  <si>
-    <t>tuinvuil</t>
-  </si>
-  <si>
-    <t>slootvuil</t>
+    <t>groen afval</t>
+  </si>
+  <si>
+    <t>gft plantaardig</t>
+  </si>
+  <si>
+    <t>niet onder 170503 vallende grond en stenen</t>
+  </si>
+  <si>
+    <t>groenafval vervuild met invasieve exoot</t>
+  </si>
+  <si>
+    <t>groenafval met japanse duizendknoop</t>
+  </si>
+  <si>
+    <t>gras vervuild met japanse duizendknoop</t>
+  </si>
+  <si>
+    <t>aardappelafval</t>
+  </si>
+  <si>
+    <t>bloembollen</t>
+  </si>
+  <si>
+    <t>boomstronken (stobben)</t>
+  </si>
+  <si>
+    <t>431 organisch afval vervuild</t>
+  </si>
+  <si>
+    <t>5432 agrarisch afval niet verv</t>
+  </si>
+  <si>
+    <t>5432 agrarisch afval licht ver</t>
+  </si>
+  <si>
+    <t>5430 organisch afval ongehakse</t>
+  </si>
+  <si>
+    <t>slootmaaisel p/ton</t>
+  </si>
+  <si>
+    <t>5430 perliet / organisch afval</t>
+  </si>
+  <si>
+    <t>aanvoer c.t.a.</t>
+  </si>
+  <si>
+    <t>verdovende middelen</t>
+  </si>
+  <si>
+    <t>groen</t>
+  </si>
+  <si>
+    <t>takken</t>
+  </si>
+  <si>
+    <t>aanvoer gemengd groenafval (ge</t>
+  </si>
+  <si>
+    <t>aanvoer groenafval</t>
+  </si>
+  <si>
+    <t>i organisch gf</t>
+  </si>
+  <si>
+    <t>meloenen in netjes</t>
+  </si>
+  <si>
+    <t>sinaasappels/otc holland</t>
+  </si>
+  <si>
+    <t>vot/fresh freight/chilipepers</t>
+  </si>
+  <si>
+    <t>vot/vgw-monsanto/zaden</t>
+  </si>
+  <si>
+    <t>vot/zaden/mil.expr.-monsanto</t>
+  </si>
+  <si>
+    <t>agrarisch plantaardig afval</t>
   </si>
   <si>
     <t>bermgras</t>
   </si>
   <si>
-    <t>stammen</t>
-  </si>
-  <si>
-    <t>stobben / stronken</t>
-  </si>
-  <si>
-    <t>schone takken</t>
-  </si>
-  <si>
-    <t>schone takken / snoeihout</t>
-  </si>
-  <si>
-    <t>tuinturf</t>
-  </si>
-  <si>
-    <t>schone takken/snoeihout geen blad)</t>
-  </si>
-  <si>
-    <t>schone takken/ snoeihout</t>
-  </si>
-  <si>
-    <t>plantsoen- en tuinvuil</t>
-  </si>
-  <si>
-    <t>verkleinde takken / snoeihout</t>
-  </si>
-  <si>
-    <t>bermgras ingaand</t>
-  </si>
-  <si>
-    <t>schone takken /snoeihout</t>
-  </si>
-  <si>
-    <t>schone takken/snoeihout</t>
-  </si>
-  <si>
-    <t>boomschors</t>
-  </si>
-  <si>
-    <t>snipperhout</t>
-  </si>
-  <si>
-    <t>boomstammen</t>
-  </si>
-  <si>
-    <t>takken-snoeihout</t>
-  </si>
-  <si>
-    <t>takken</t>
+    <t>bedrijfsafval cat. a</t>
+  </si>
+  <si>
+    <t>groen / snoeihout</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>oude potgrond</t>
+  </si>
+  <si>
+    <t>groen tbv zeefgrond</t>
+  </si>
+  <si>
+    <t>landbouwafval</t>
+  </si>
+  <si>
+    <t>digestaat plantaardig</t>
+  </si>
+  <si>
+    <t>200 boomstobben</t>
+  </si>
+  <si>
+    <t>veegblad schoon</t>
+  </si>
+  <si>
+    <t>blauwmaanzaad ter vernietiging</t>
+  </si>
+  <si>
+    <t>rozenafval verontreinigd met steenwol</t>
+  </si>
+  <si>
+    <t>kunststofafval (exclusief verpakkingen)</t>
+  </si>
+  <si>
+    <t>pvc - buizen/profielen</t>
+  </si>
+  <si>
+    <t>landbouwfolie</t>
+  </si>
+  <si>
+    <t>tuinbouwplastic gemend</t>
+  </si>
+  <si>
+    <t>1407 tuinbouwfolie / landbouwfolie</t>
+  </si>
+  <si>
+    <t>kunststoffen van landbouw</t>
+  </si>
+  <si>
+    <t>tyleen/kunstof</t>
+  </si>
+  <si>
+    <t>dierlijke feces, urine en mest (inclusief gebruikt stro), afvalwater, gescheiden ingezameld en elders verwerkt</t>
+  </si>
+  <si>
+    <t>beddingmateriaal</t>
+  </si>
+  <si>
+    <t>bedding afval</t>
+  </si>
+  <si>
+    <t>afvalwater met dierlijke meststoffen</t>
+  </si>
+  <si>
+    <t>kippenmest met fipronil</t>
+  </si>
+  <si>
+    <t>groenafval matig compost.</t>
+  </si>
+  <si>
+    <t>voedings-en genotmiddelen ongeschikt voor consumptie</t>
+  </si>
+  <si>
+    <t>afval van voedings- en genotmiddelen, neg</t>
+  </si>
+  <si>
+    <t>restafval</t>
+  </si>
+  <si>
+    <t>bedrijfsafval categorie iii</t>
+  </si>
+  <si>
+    <t>voor consumptie en verwerking ongeschikt materiaal</t>
+  </si>
+  <si>
+    <t>resten van eieren cat iii mat.</t>
+  </si>
+  <si>
+    <t>vet-water-slib mengsels uit vetafscheiders</t>
+  </si>
+  <si>
+    <t>voor consumpie en verwerking ongeschikt materiaal</t>
+  </si>
+  <si>
+    <t>vis</t>
+  </si>
+  <si>
+    <t>c3 over datum produkt</t>
+  </si>
+  <si>
+    <t>afvoer residu opslag dierlijke olien en vetten</t>
+  </si>
+  <si>
+    <t>uitgepakte voedingsmiddelen supermarktmix</t>
+  </si>
+  <si>
+    <t>voor consumptie of verwerking ongeschkt materiaal</t>
+  </si>
+  <si>
+    <t>categorie 3 materiaal</t>
+  </si>
+  <si>
+    <t>zuiveringsslib</t>
+  </si>
+  <si>
+    <t>slib van afvalwaterbehandeling zuivelindustrie</t>
+  </si>
+  <si>
+    <t>vet van zuivelindustrie</t>
+  </si>
+  <si>
+    <t>zuiveringslib</t>
+  </si>
+  <si>
+    <t>zout(pekel)water-kaasslib</t>
+  </si>
+  <si>
+    <t>vet van plantaardige oorsprong en voedselbereiding</t>
+  </si>
+  <si>
+    <t>spinazieslib</t>
+  </si>
+  <si>
+    <t>slib van afvalbehandeling ter plaatse</t>
+  </si>
+  <si>
+    <t>zuiveringsslib en compost</t>
+  </si>
+  <si>
+    <t>mbtf-slib</t>
+  </si>
+  <si>
+    <t>daf-slib</t>
+  </si>
+  <si>
+    <t>afvoer en verwerking waterzuiveringsslib</t>
+  </si>
+  <si>
+    <t>slib van afvalwater behandeling</t>
+  </si>
+  <si>
+    <t>02.03.05 - afvalwaterslib plantaardige oorsprong</t>
+  </si>
+  <si>
+    <t>spoelwater-vinasse verontreinigd</t>
+  </si>
+  <si>
+    <t>suikerwater</t>
+  </si>
+  <si>
+    <t>slib van wassen, schoonmaken, pellen, centrifugeren en scheiden</t>
+  </si>
+  <si>
+    <t>plantaardig mengsel organic/water</t>
+  </si>
+  <si>
+    <t>water/vet/slib afval</t>
+  </si>
+  <si>
+    <t>water/vet/olie afval</t>
+  </si>
+  <si>
+    <t>spoelwater met cacao massa/vet/chocola</t>
+  </si>
+  <si>
+    <t>goms</t>
+  </si>
+  <si>
+    <t>afvoer vet/watermengsel</t>
+  </si>
+  <si>
+    <t>emulsie van plantaardig vet en</t>
+  </si>
+  <si>
+    <t>soapstock non feed/non food</t>
+  </si>
+  <si>
+    <t>gums non feed/non food</t>
+  </si>
+  <si>
+    <t>soapstock non food/non feed</t>
+  </si>
+  <si>
+    <t>emulsie non food/non feed</t>
+  </si>
+  <si>
+    <t>slib van wassen, pellen, ect.</t>
+  </si>
+  <si>
+    <t>soapstock</t>
+  </si>
+  <si>
+    <t>ppr organisch slib/exter</t>
+  </si>
+  <si>
+    <t>slib uit waterzuivering</t>
+  </si>
+  <si>
+    <t>consumptie ongeschikt mat. (sappen/dranken)</t>
+  </si>
+  <si>
+    <t>drank</t>
+  </si>
+  <si>
+    <t>wijn</t>
+  </si>
+  <si>
+    <t>niet voor verwerking of consumptie geschikt</t>
+  </si>
+  <si>
+    <t>voor humane consumptie en verwerking ongeschikt</t>
+  </si>
+  <si>
+    <t>bier</t>
+  </si>
+  <si>
+    <t>niet voor consumptie of verwerking geschikt</t>
+  </si>
+  <si>
+    <t>drank in plastic flesje</t>
+  </si>
+  <si>
+    <t>000 rum ongeschikt voor consumptie</t>
+  </si>
+  <si>
+    <t>siroop</t>
+  </si>
+  <si>
+    <t>alcoholische dranken</t>
+  </si>
+  <si>
+    <t>afval van de voeding industrie</t>
+  </si>
+  <si>
+    <t>gft brood</t>
+  </si>
+  <si>
+    <t>deegwaren (nta</t>
+  </si>
+  <si>
+    <t>afval van dierlijke weefsels</t>
+  </si>
+  <si>
+    <t>afval van de bosbouw</t>
   </si>
   <si>
     <t>boomstobben</t>
   </si>
   <si>
-    <t>groenafval, extern</t>
-  </si>
-  <si>
-    <t>groen/snoeiafval, inzamelaarsreg brand 27-5-17</t>
-  </si>
-  <si>
-    <t>gft, niet route</t>
-  </si>
-  <si>
-    <t>snoeihout, niet route</t>
-  </si>
-  <si>
-    <t>groenafval, niet route</t>
-  </si>
-  <si>
-    <t>groenafval stobben</t>
-  </si>
-  <si>
-    <t>grof groenafval/stobben</t>
-  </si>
-  <si>
-    <t>riet (schoon)</t>
-  </si>
-  <si>
-    <t>organisch afval - composteerbaar</t>
-  </si>
-  <si>
-    <t>grof groenafval / stobben</t>
-  </si>
-  <si>
-    <t>stronken met stamhout</t>
-  </si>
-  <si>
-    <t>stronken</t>
-  </si>
-  <si>
-    <t>snoeihout</t>
-  </si>
-  <si>
-    <t>berm- en slootmaaisel</t>
-  </si>
-  <si>
-    <t>groenafval algemeen</t>
-  </si>
-  <si>
-    <t>houtchips opslag</t>
-  </si>
-  <si>
-    <t>groenafval/snoeihout inzameling</t>
-  </si>
-  <si>
-    <t>groenafval (milieuplein)</t>
-  </si>
-  <si>
-    <t>groenvuil</t>
-  </si>
-  <si>
-    <t>takken,stronken,stamhout</t>
-  </si>
-  <si>
-    <t>kerstbomen</t>
-  </si>
-  <si>
-    <t>takken-groenafval</t>
-  </si>
-  <si>
-    <t>groen</t>
-  </si>
-  <si>
-    <t>slootmaaisel</t>
-  </si>
-  <si>
-    <t>gemengd groen</t>
-  </si>
-  <si>
-    <t>gemend groen</t>
-  </si>
-  <si>
-    <t>niet onder 170503 vallende grond en stenen</t>
-  </si>
-  <si>
-    <t>iologisch afbreekbaar afval</t>
-  </si>
-  <si>
-    <t>groenafval gestort p/ton</t>
-  </si>
-  <si>
-    <t>groen afval</t>
-  </si>
-  <si>
-    <t>groenafval uit bedrijven</t>
-  </si>
-  <si>
-    <t>snoeihout van bedrijven</t>
-  </si>
-  <si>
-    <t>bomen takken</t>
-  </si>
-  <si>
-    <t>gras-en bermafval</t>
-  </si>
-  <si>
-    <t>groencompost</t>
-  </si>
-  <si>
-    <t>arseenhouden plantenresten</t>
-  </si>
-  <si>
-    <t>groen en tuinafval</t>
-  </si>
-  <si>
-    <t>1470 gft</t>
-  </si>
-  <si>
-    <t>tuin- en plantsoen</t>
-  </si>
-  <si>
-    <t>bermgrassen</t>
-  </si>
-  <si>
-    <t>5430 organisch afval</t>
-  </si>
-  <si>
-    <t>stobben/stronken</t>
-  </si>
-  <si>
-    <t>5202 boomstammen (schoon)</t>
-  </si>
-  <si>
-    <t>5221 takken / snoeihout schoon</t>
-  </si>
-  <si>
-    <t>5225 bladafval</t>
-  </si>
-  <si>
-    <t>5261 slootvuil</t>
-  </si>
-  <si>
-    <t>biomassa</t>
-  </si>
-  <si>
-    <t>boomstobben/ wortelhout</t>
-  </si>
-  <si>
-    <t>compost</t>
-  </si>
-  <si>
-    <t>snoeihout, extern</t>
-  </si>
-  <si>
-    <t>gft, extern</t>
-  </si>
-  <si>
-    <t>tuinvuil ingaand</t>
-  </si>
-  <si>
-    <t>gft</t>
-  </si>
-  <si>
-    <t>gft-afval</t>
-  </si>
-  <si>
-    <t>groenafval (cruquiusweg)</t>
-  </si>
-  <si>
-    <t>groenafval (papaverweg)</t>
-  </si>
-  <si>
-    <t>groenafval (meerkerkdreef)</t>
-  </si>
-  <si>
-    <t>groenafval (rozenburglaan)</t>
-  </si>
-  <si>
-    <t>groenafval (seineweg)</t>
-  </si>
-  <si>
-    <t>groenafval (henk sneevlietweg)</t>
-  </si>
-  <si>
-    <t>groenafval (stadsdeel nieuw west)</t>
-  </si>
-  <si>
-    <t>groenafval (stadsdeel centrum)</t>
-  </si>
-  <si>
-    <t>groenafval (stadsdeel oost)</t>
-  </si>
-  <si>
-    <t>groenafval (stadsdeel noord)</t>
-  </si>
-  <si>
-    <t>groenafval (stadsdeel west)</t>
-  </si>
-  <si>
-    <t>groenafval (afvalservice west)</t>
-  </si>
-  <si>
-    <t>disposables composteerbaar</t>
-  </si>
-  <si>
-    <t>boomstronken (stobben)</t>
-  </si>
-  <si>
-    <t>plantaardig afval</t>
-  </si>
-  <si>
-    <t>greoenafval</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>kerstbomen aeb</t>
-  </si>
-  <si>
-    <t>groenafval (fogostraat)</t>
-  </si>
-  <si>
-    <t>riet, composteerbaar</t>
-  </si>
-  <si>
-    <t>groen afval / gras / hooi</t>
-  </si>
-  <si>
-    <t>zeefoverloop groenafval</t>
-  </si>
-  <si>
-    <t>voorgebroken materiaal hout</t>
-  </si>
-  <si>
-    <t>gft-afval (nta 610)</t>
-  </si>
-  <si>
-    <t>zeefoverloop</t>
-  </si>
-  <si>
-    <t>biomassa uit nabewerking compo</t>
-  </si>
-  <si>
-    <t>groenafval veegblad</t>
-  </si>
-  <si>
-    <t>groenafval /bermen /slootvuil</t>
-  </si>
-  <si>
-    <t>takken sg 0.5</t>
-  </si>
-  <si>
-    <t>bermgras maaisel los s.g = 0,6</t>
-  </si>
-  <si>
-    <t>blad</t>
-  </si>
-  <si>
-    <t>slootmaaisel/vuil</t>
-  </si>
-  <si>
-    <t>stammen en stronken</t>
-  </si>
-  <si>
-    <t>schoffelvuil sg 0.8</t>
-  </si>
-  <si>
-    <t>groenafval (rechtstreeks)</t>
-  </si>
-  <si>
-    <t>verkleinde takken/snoeihout</t>
-  </si>
-  <si>
-    <t>zaden (uit de tuinbouw)</t>
-  </si>
-  <si>
-    <t>groenafval (takken en struiken)</t>
-  </si>
-  <si>
-    <t>gras/stro</t>
-  </si>
-  <si>
-    <t>groenafval met japanse duizendknoop</t>
-  </si>
-  <si>
-    <t>gras/hooi</t>
-  </si>
-  <si>
-    <t>slootvegetatie</t>
-  </si>
-  <si>
-    <t>bloembollen</t>
-  </si>
-  <si>
-    <t>groenafval aeroob composteren</t>
-  </si>
-  <si>
-    <t>groenafval earoob composteren</t>
-  </si>
-  <si>
-    <t>greonafval</t>
-  </si>
-  <si>
-    <t>stamhout/stobben met japanse duizendknoop</t>
-  </si>
-  <si>
-    <t>freespulp</t>
-  </si>
-  <si>
-    <t>groenafval met invasieve exoten</t>
-  </si>
-  <si>
-    <t>plantsoenafval</t>
-  </si>
-  <si>
-    <t>plantsoenafvala</t>
-  </si>
-  <si>
-    <t>verontreinigde boomstobben/grond</t>
-  </si>
-  <si>
-    <t>groenafval/stobben</t>
+    <t>slib van wassen en schoonmaken</t>
+  </si>
+  <si>
+    <t>agrochemisch afval dat gevaarlijke stoffen bevat</t>
+  </si>
+  <si>
+    <t>plantaardig afval, n.e.g.</t>
+  </si>
+  <si>
+    <t>gft koffievliezen</t>
+  </si>
+  <si>
+    <t>bestrijdingsmiddelen (kvp)</t>
+  </si>
+  <si>
+    <t>pesticiden, vast</t>
+  </si>
+  <si>
+    <t>pesticiden, vast toxisch</t>
+  </si>
+  <si>
+    <t>pesticiden, vloeibaar schadelijk/milieug</t>
+  </si>
+  <si>
+    <t>pesticiden vloeibaar, kvp</t>
+  </si>
+  <si>
+    <t>bestrijdingsmiddelen</t>
+  </si>
+  <si>
+    <t>slib ex slibvang met formaldehyde</t>
+  </si>
+  <si>
+    <t>agrochemisch afval dat gevaarlijke stoffen bevat (</t>
+  </si>
+  <si>
+    <t>bestrijdingsmiddelen, halogeenhoudend</t>
+  </si>
+  <si>
+    <t>bestrijdingsmiddelen in klein verpakking</t>
+  </si>
+  <si>
+    <t>ontsmet zaad</t>
+  </si>
+  <si>
+    <t>afval van bewerking en afwerking</t>
+  </si>
+  <si>
+    <t>melamine-ureum/formaline co polymeer</t>
+  </si>
+  <si>
+    <t>scrap</t>
+  </si>
+  <si>
+    <t>afval van composietmaterialen (ge?mpregneerde textiel, elastomeren, plastomeren)</t>
+  </si>
+  <si>
+    <t>afval van composietmaterialen (geimpregneerde textiel, elastomeren, plastomeren)</t>
+  </si>
+  <si>
+    <t>linoleum met pvc</t>
   </si>
   <si>
     <t>gft afgekeurd</t>
   </si>
   <si>
-    <t>takken &amp; snoeiafval</t>
-  </si>
-  <si>
-    <t>gft (composteren)</t>
-  </si>
-  <si>
-    <t>houtsnippers (van bomen)</t>
-  </si>
-  <si>
-    <t>takken&amp;snoeiafval</t>
-  </si>
-  <si>
-    <t>takken en snoeiafval</t>
-  </si>
-  <si>
-    <t>gft houtsnippers</t>
-  </si>
-  <si>
-    <t>gft koffiebonen</t>
-  </si>
-  <si>
-    <t>gft cacao poeder</t>
-  </si>
-  <si>
-    <t>integraal groen (blad/gras/tak</t>
-  </si>
-  <si>
-    <t>groenafval/takken/blad</t>
-  </si>
-  <si>
-    <t>tuin- ne plantsoenafval</t>
-  </si>
-  <si>
-    <t>snoeihout / groenafval</t>
-  </si>
-  <si>
-    <t>houtchips</t>
-  </si>
-  <si>
-    <t>tuinbouwafval</t>
-  </si>
-  <si>
-    <t>tak- en snoeihout/loof</t>
-  </si>
-  <si>
-    <t>snoeihout/groenafval</t>
-  </si>
-  <si>
-    <t>groenafval bedrijven</t>
-  </si>
-  <si>
-    <t>groenafval/vgg overslag a'dam</t>
-  </si>
-  <si>
-    <t>shreds</t>
-  </si>
-  <si>
-    <t>snoeihout/stobben</t>
-  </si>
-  <si>
-    <t>hout shrip t.b.v. biobrandstof</t>
-  </si>
-  <si>
-    <t>houtchips /ton + m3</t>
-  </si>
-  <si>
-    <t>gft/vgw rn inzamel.reg.=&gt;ossu</t>
-  </si>
-  <si>
-    <t>gemengd groenafval</t>
-  </si>
-  <si>
-    <t>groenafval / takken</t>
-  </si>
-  <si>
-    <t>gemengd groen afval</t>
-  </si>
-  <si>
-    <t>gemengd groen  eural 200201</t>
-  </si>
-  <si>
-    <t>groen afbreekbaar</t>
-  </si>
-  <si>
-    <t>groen afval takken/stobbe</t>
-  </si>
-  <si>
-    <t>431 organisch afval vervuild</t>
-  </si>
-  <si>
-    <t>5230 verkleinde takken / snoeihout (snipper)</t>
-  </si>
-  <si>
-    <t>5431 organisch afval vervuild</t>
-  </si>
-  <si>
-    <t>220 tuinvuil</t>
-  </si>
-  <si>
-    <t>5260 bermgrassen</t>
-  </si>
-  <si>
-    <t>5230 verkleinde takken / snoei</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>knipscheer, groen</t>
-  </si>
-  <si>
-    <t>afbreekbaar tuin- en plantsoenafval</t>
-  </si>
-  <si>
-    <t>takken/tuinafval</t>
-  </si>
-  <si>
-    <t>bollenvuil/slootvuil/gras</t>
-  </si>
-  <si>
-    <t>biologisch afbreekbaar afval (tuin- en plantsoenafval (inclusief a</t>
-  </si>
-  <si>
-    <t>inname gemengd groenafval</t>
-  </si>
-  <si>
-    <t>inname gemengd groen</t>
-  </si>
-  <si>
-    <t>biologisch afbreekbaar</t>
-  </si>
-  <si>
-    <t>biologisch afbreekbaar afval van plantsoenen</t>
-  </si>
-  <si>
-    <t>snoeiafval</t>
-  </si>
-  <si>
-    <t>stronken (rechtstreeks)</t>
-  </si>
-  <si>
-    <t>los (berm)gras (rechtstreeks)</t>
-  </si>
-  <si>
-    <t>bermgrasrollen (rechtstreeks)</t>
-  </si>
-  <si>
-    <t>5270 bermgras vergistbaar</t>
-  </si>
-  <si>
-    <t>5230 tuinvuil gehakseld</t>
-  </si>
-  <si>
-    <t>5201 ziek iepenhout</t>
-  </si>
-  <si>
-    <t>plantsoenafval / stamhout</t>
-  </si>
-  <si>
-    <t>plantsoenafval/ stamhout</t>
-  </si>
-  <si>
-    <t>plantsoenafv al</t>
-  </si>
-  <si>
-    <t>plantsoenafval stamhout</t>
-  </si>
-  <si>
-    <t>plantsoenafval /stamhout</t>
-  </si>
-  <si>
-    <t>plantsoenafval/stamhout</t>
-  </si>
-  <si>
-    <t>bermgras / slootriet</t>
-  </si>
-  <si>
-    <t>ziek iepenhout</t>
-  </si>
-  <si>
-    <t>gehakseld tuinafval</t>
-  </si>
-  <si>
-    <t>daak</t>
-  </si>
-  <si>
-    <t>grasvegetatie</t>
-  </si>
-  <si>
-    <t>grof tuinafval</t>
-  </si>
-  <si>
-    <t>groensnippers</t>
-  </si>
-  <si>
-    <t>groen snippers</t>
-  </si>
-  <si>
-    <t>biologisch afbreekbaar afval (tuin- en plantsoenaf</t>
-  </si>
-  <si>
-    <t>organisch materiaal</t>
-  </si>
-  <si>
-    <t>groen vervuild</t>
-  </si>
-  <si>
-    <t>groenafval verontr. met grond</t>
-  </si>
-  <si>
-    <t>plantsoen/tuinafval</t>
-  </si>
-  <si>
-    <t>biologisch afbreekbaar compost</t>
-  </si>
-  <si>
-    <t>stort groenafval</t>
-  </si>
-  <si>
-    <t>groenafval - plantsoenafval</t>
-  </si>
-  <si>
-    <t>groenafval (schoon)</t>
-  </si>
-  <si>
-    <t>puin</t>
-  </si>
-  <si>
-    <t>snoeihout/takken</t>
-  </si>
-  <si>
-    <t>drijf/slootvuil</t>
-  </si>
-  <si>
-    <t>bermgras/hooi</t>
-  </si>
-  <si>
-    <t>boomstammen/stronken</t>
-  </si>
-  <si>
-    <t>boomblad</t>
-  </si>
-  <si>
-    <t>snippers</t>
-  </si>
-  <si>
-    <t>schors- kurkafval</t>
-  </si>
-  <si>
-    <t>takken/groenafval</t>
-  </si>
-  <si>
-    <t>takken/ groenafval/ boomstobben</t>
-  </si>
-  <si>
-    <t>groenafva</t>
-  </si>
-  <si>
-    <t>grond vrij van stenen/puin</t>
-  </si>
-  <si>
-    <t>200 boomstobben</t>
-  </si>
-  <si>
-    <t>5222 tuinvuil met invasieve exoten</t>
-  </si>
-  <si>
-    <t>5202 boomstammen schoon</t>
-  </si>
-  <si>
-    <t>5200 bopomstobben</t>
-  </si>
-  <si>
-    <t>5230 verkleinde takken/snoeiho</t>
-  </si>
-  <si>
-    <t>230 tuinvuil gehakseld</t>
-  </si>
-  <si>
-    <t>430 organisch afval</t>
-  </si>
-  <si>
-    <t>260 bermgrassen</t>
-  </si>
-  <si>
-    <t>tuin/snoeiafval</t>
-  </si>
-  <si>
-    <t>snoeihout voor biomassa</t>
-  </si>
-  <si>
-    <t>slootvegetatie riet</t>
-  </si>
-  <si>
-    <t>agrarisch, schoon</t>
-  </si>
-  <si>
-    <t>bollenvuil/slootvuil/gras/blad</t>
-  </si>
-  <si>
-    <t>slootvuil/gras/blad</t>
-  </si>
-  <si>
-    <t>groenafval diverse</t>
-  </si>
-  <si>
-    <t>tuin en plantsoenafval zwaar</t>
-  </si>
-  <si>
-    <t>afbreekbaar tuin- en plantsoenafval zwaar</t>
-  </si>
-  <si>
-    <t>nollen / stobben</t>
-  </si>
-  <si>
-    <t>plantsoen zwaar / snippers</t>
-  </si>
-  <si>
-    <t>5433 organisch afval vergistbaar</t>
-  </si>
-  <si>
-    <t>los hooi</t>
-  </si>
-  <si>
-    <t>schoffelvuil</t>
-  </si>
-  <si>
-    <t>blad, schoffelvuil</t>
-  </si>
-  <si>
-    <t>laco</t>
-  </si>
-  <si>
-    <t>zeefoverloop uit groenstroom</t>
-  </si>
-  <si>
-    <t>bedrijfsafval composteerbaar</t>
-  </si>
-  <si>
-    <t>japanse duizendknoop</t>
-  </si>
-  <si>
-    <t>groenafval op- en overslag</t>
+    <t>gft categorie 3</t>
+  </si>
+  <si>
+    <t>afvoer en verwerking afvalvet gebracht</t>
+  </si>
+  <si>
+    <t>soapstock visolie</t>
+  </si>
+  <si>
+    <t>gekleurd zaadstof</t>
+  </si>
+  <si>
+    <t>niet onder 02 01 08 vallend agrochemisch afval</t>
+  </si>
+  <si>
+    <t>vet van bakkerijen</t>
+  </si>
+  <si>
+    <t>achtergebleven restant sediment in auto</t>
+  </si>
+  <si>
+    <t>slib van productie van polyprop</t>
+  </si>
+  <si>
+    <t>industrieel slib (ba)</t>
+  </si>
+  <si>
+    <t>zuiveringslib van tapijtindustrie</t>
+  </si>
+  <si>
+    <t>loogafval</t>
+  </si>
+  <si>
+    <t>ijzer</t>
+  </si>
+  <si>
+    <t>kleurstoffen en pigmenten die gevaarlijke stoffen bevatten</t>
+  </si>
+  <si>
+    <t>slib van afvalwaterbehandeling ter plaatse dat gevaarlijke stoffen bevat</t>
+  </si>
+  <si>
+    <t>afval van afwerking dat organische oplosmiddelen bevat</t>
+  </si>
+  <si>
+    <t>destillatieresidu</t>
   </si>
 </sst>
 </file>
@@ -1430,7 +1643,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C352"/>
+  <dimension ref="A1:C476"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1449,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>200125</v>
+        <v>30105</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -1457,10 +1670,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B3">
-        <v>200125</v>
+        <v>30105</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -1468,10 +1681,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B4">
-        <v>200125</v>
+        <v>30105</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -1479,10 +1692,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B5">
-        <v>200125</v>
+        <v>30105</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1490,10 +1703,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B6">
-        <v>200125</v>
+        <v>30105</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -1501,10 +1714,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="B7">
-        <v>200125</v>
+        <v>30105</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -1512,10 +1725,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B8">
-        <v>200125</v>
+        <v>30105</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -1523,10 +1736,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B9">
-        <v>200125</v>
+        <v>30105</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -1534,10 +1747,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10">
-        <v>200125</v>
+        <v>30105</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -1545,10 +1758,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="B11">
-        <v>200125</v>
+        <v>30105</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -1556,10 +1769,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="B12">
-        <v>200125</v>
+        <v>30105</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -1567,10 +1780,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="B13">
-        <v>200125</v>
+        <v>30105</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
@@ -1578,10 +1791,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="B14">
-        <v>200125</v>
+        <v>30105</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -1589,10 +1802,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="B15">
-        <v>200125</v>
+        <v>30311</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
@@ -1600,10 +1813,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B16">
-        <v>200125</v>
+        <v>30311</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -1611,10 +1824,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="B17">
-        <v>200125</v>
+        <v>30311</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
@@ -1622,10 +1835,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="B18">
-        <v>200125</v>
+        <v>30311</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
@@ -1633,10 +1846,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B19">
-        <v>200125</v>
+        <v>30307</v>
       </c>
       <c r="C19" t="s">
         <v>19</v>
@@ -1644,10 +1857,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B20">
-        <v>200125</v>
+        <v>30307</v>
       </c>
       <c r="C20" t="s">
         <v>20</v>
@@ -1655,10 +1868,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>214</v>
+        <v>120</v>
       </c>
       <c r="B21">
-        <v>200125</v>
+        <v>30310</v>
       </c>
       <c r="C21" t="s">
         <v>21</v>
@@ -1666,10 +1879,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>397</v>
+        <v>122</v>
       </c>
       <c r="B22">
-        <v>200125</v>
+        <v>30310</v>
       </c>
       <c r="C22" t="s">
         <v>22</v>
@@ -1677,10 +1890,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>413</v>
+        <v>127</v>
       </c>
       <c r="B23">
-        <v>200125</v>
+        <v>30310</v>
       </c>
       <c r="C23" t="s">
         <v>23</v>
@@ -1688,10 +1901,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>460</v>
+        <v>133</v>
       </c>
       <c r="B24">
-        <v>200125</v>
+        <v>30308</v>
       </c>
       <c r="C24" t="s">
         <v>24</v>
@@ -1699,10 +1912,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>471</v>
+        <v>151</v>
       </c>
       <c r="B25">
-        <v>200125</v>
+        <v>30399</v>
       </c>
       <c r="C25" t="s">
         <v>25</v>
@@ -1710,10 +1923,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>472</v>
+        <v>153</v>
       </c>
       <c r="B26">
-        <v>200125</v>
+        <v>30399</v>
       </c>
       <c r="C26" t="s">
         <v>26</v>
@@ -1721,10 +1934,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>473</v>
+        <v>154</v>
       </c>
       <c r="B27">
-        <v>200125</v>
+        <v>30399</v>
       </c>
       <c r="C27" t="s">
         <v>27</v>
@@ -1732,10 +1945,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>474</v>
+        <v>155</v>
       </c>
       <c r="B28">
-        <v>200125</v>
+        <v>30399</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -1743,10 +1956,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>477</v>
+        <v>156</v>
       </c>
       <c r="B29">
-        <v>200125</v>
+        <v>20199</v>
       </c>
       <c r="C29" t="s">
         <v>29</v>
@@ -1754,10 +1967,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>478</v>
+        <v>231</v>
       </c>
       <c r="B30">
-        <v>200125</v>
+        <v>20199</v>
       </c>
       <c r="C30" t="s">
         <v>30</v>
@@ -1765,10 +1978,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>484</v>
+        <v>334</v>
       </c>
       <c r="B31">
-        <v>200125</v>
+        <v>20199</v>
       </c>
       <c r="C31" t="s">
         <v>31</v>
@@ -1776,10 +1989,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>490</v>
+        <v>345</v>
       </c>
       <c r="B32">
-        <v>200125</v>
+        <v>20199</v>
       </c>
       <c r="C32" t="s">
         <v>32</v>
@@ -1787,10 +2000,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>492</v>
+        <v>347</v>
       </c>
       <c r="B33">
-        <v>200125</v>
+        <v>20199</v>
       </c>
       <c r="C33" t="s">
         <v>33</v>
@@ -1798,10 +2011,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>498</v>
+        <v>358</v>
       </c>
       <c r="B34">
-        <v>200125</v>
+        <v>20199</v>
       </c>
       <c r="C34" t="s">
         <v>34</v>
@@ -1809,10 +2022,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>500</v>
+        <v>359</v>
       </c>
       <c r="B35">
-        <v>200125</v>
+        <v>20199</v>
       </c>
       <c r="C35" t="s">
         <v>35</v>
@@ -1820,10 +2033,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>502</v>
+        <v>360</v>
       </c>
       <c r="B36">
-        <v>200125</v>
+        <v>20199</v>
       </c>
       <c r="C36" t="s">
         <v>36</v>
@@ -1831,10 +2044,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>514</v>
+        <v>362</v>
       </c>
       <c r="B37">
-        <v>200125</v>
+        <v>20199</v>
       </c>
       <c r="C37" t="s">
         <v>37</v>
@@ -1842,10 +2055,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>522</v>
+        <v>386</v>
       </c>
       <c r="B38">
-        <v>200125</v>
+        <v>20199</v>
       </c>
       <c r="C38" t="s">
         <v>38</v>
@@ -1853,10 +2066,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>525</v>
+        <v>392</v>
       </c>
       <c r="B39">
-        <v>200125</v>
+        <v>20199</v>
       </c>
       <c r="C39" t="s">
         <v>39</v>
@@ -1864,3445 +2077,4809 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>527</v>
+        <v>393</v>
       </c>
       <c r="B40">
-        <v>200125</v>
+        <v>20399</v>
       </c>
       <c r="C40" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>531</v>
+        <v>429</v>
       </c>
       <c r="B41">
-        <v>200125</v>
+        <v>20399</v>
       </c>
       <c r="C41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>539</v>
+        <v>437</v>
       </c>
       <c r="B42">
-        <v>200125</v>
+        <v>20399</v>
       </c>
       <c r="C42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>549</v>
+        <v>441</v>
       </c>
       <c r="B43">
-        <v>200125</v>
+        <v>20399</v>
       </c>
       <c r="C43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>557</v>
+        <v>442</v>
       </c>
       <c r="B44">
-        <v>200125</v>
+        <v>20399</v>
       </c>
       <c r="C44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>558</v>
+        <v>443</v>
       </c>
       <c r="B45">
-        <v>200125</v>
+        <v>20399</v>
       </c>
       <c r="C45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>565</v>
+        <v>460</v>
       </c>
       <c r="B46">
-        <v>200125</v>
+        <v>20399</v>
       </c>
       <c r="C46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>571</v>
+        <v>467</v>
       </c>
       <c r="B47">
-        <v>200125</v>
+        <v>20399</v>
       </c>
       <c r="C47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>574</v>
+        <v>470</v>
       </c>
       <c r="B48">
-        <v>200125</v>
+        <v>20399</v>
       </c>
       <c r="C48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>583</v>
+        <v>489</v>
       </c>
       <c r="B49">
-        <v>200125</v>
+        <v>20399</v>
       </c>
       <c r="C49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>584</v>
+        <v>541</v>
       </c>
       <c r="B50">
-        <v>200125</v>
+        <v>20399</v>
       </c>
       <c r="C50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>588</v>
+        <v>542</v>
       </c>
       <c r="B51">
-        <v>200125</v>
+        <v>20399</v>
       </c>
       <c r="C51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>593</v>
+        <v>545</v>
       </c>
       <c r="B52">
-        <v>200125</v>
+        <v>20399</v>
       </c>
       <c r="C52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>599</v>
+        <v>555</v>
       </c>
       <c r="B53">
-        <v>200125</v>
+        <v>20399</v>
       </c>
       <c r="C53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>606</v>
+        <v>556</v>
       </c>
       <c r="B54">
-        <v>200125</v>
+        <v>20399</v>
       </c>
       <c r="C54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>614</v>
+        <v>564</v>
       </c>
       <c r="B55">
-        <v>200125</v>
+        <v>20399</v>
       </c>
       <c r="C55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>616</v>
+        <v>567</v>
       </c>
       <c r="B56">
-        <v>200125</v>
+        <v>20399</v>
       </c>
       <c r="C56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>685</v>
+        <v>569</v>
       </c>
       <c r="B57">
-        <v>200125</v>
+        <v>20399</v>
       </c>
       <c r="C57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>689</v>
+        <v>571</v>
       </c>
       <c r="B58">
-        <v>200125</v>
+        <v>20399</v>
       </c>
       <c r="C58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>690</v>
+        <v>575</v>
       </c>
       <c r="B59">
-        <v>200125</v>
+        <v>20399</v>
       </c>
       <c r="C59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>691</v>
+        <v>579</v>
       </c>
       <c r="B60">
-        <v>200125</v>
+        <v>20399</v>
       </c>
       <c r="C60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>697</v>
+        <v>580</v>
       </c>
       <c r="B61">
-        <v>200125</v>
+        <v>20399</v>
       </c>
       <c r="C61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>699</v>
+        <v>582</v>
       </c>
       <c r="B62">
-        <v>200125</v>
+        <v>20399</v>
       </c>
       <c r="C62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>702</v>
+        <v>584</v>
       </c>
       <c r="B63">
-        <v>200125</v>
+        <v>20399</v>
       </c>
       <c r="C63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>712</v>
+        <v>587</v>
       </c>
       <c r="B64">
-        <v>200125</v>
+        <v>20399</v>
       </c>
       <c r="C64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>721</v>
+        <v>588</v>
       </c>
       <c r="B65">
-        <v>200125</v>
+        <v>20399</v>
       </c>
       <c r="C65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>724</v>
+        <v>593</v>
       </c>
       <c r="B66">
-        <v>200125</v>
+        <v>20399</v>
       </c>
       <c r="C66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>726</v>
+        <v>594</v>
       </c>
       <c r="B67">
-        <v>200125</v>
+        <v>20399</v>
       </c>
       <c r="C67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>741</v>
+        <v>596</v>
       </c>
       <c r="B68">
-        <v>200125</v>
+        <v>20399</v>
       </c>
       <c r="C68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>749</v>
+        <v>601</v>
       </c>
       <c r="B69">
-        <v>200201</v>
+        <v>20399</v>
       </c>
       <c r="C69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>751</v>
+        <v>613</v>
       </c>
       <c r="B70">
-        <v>200201</v>
+        <v>20399</v>
       </c>
       <c r="C70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>861</v>
+        <v>621</v>
       </c>
       <c r="B71">
-        <v>200201</v>
+        <v>20399</v>
       </c>
       <c r="C71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>895</v>
+        <v>627</v>
       </c>
       <c r="B72">
-        <v>200201</v>
+        <v>20399</v>
       </c>
       <c r="C72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>912</v>
+        <v>638</v>
       </c>
       <c r="B73">
-        <v>200201</v>
+        <v>20399</v>
       </c>
       <c r="C73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>917</v>
+        <v>644</v>
       </c>
       <c r="B74">
-        <v>200201</v>
+        <v>20399</v>
       </c>
       <c r="C74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>919</v>
+        <v>653</v>
       </c>
       <c r="B75">
-        <v>200201</v>
+        <v>20399</v>
       </c>
       <c r="C75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>920</v>
+        <v>654</v>
       </c>
       <c r="B76">
-        <v>200201</v>
+        <v>20399</v>
       </c>
       <c r="C76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>932</v>
+        <v>666</v>
       </c>
       <c r="B77">
-        <v>200201</v>
+        <v>20399</v>
       </c>
       <c r="C77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>965</v>
+        <v>667</v>
       </c>
       <c r="B78">
-        <v>200201</v>
+        <v>20399</v>
       </c>
       <c r="C78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>1232</v>
+        <v>676</v>
       </c>
       <c r="B79">
-        <v>200201</v>
+        <v>20399</v>
       </c>
       <c r="C79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>2351</v>
+        <v>678</v>
       </c>
       <c r="B80">
-        <v>200201</v>
+        <v>20399</v>
       </c>
       <c r="C80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>2381</v>
+        <v>682</v>
       </c>
       <c r="B81">
-        <v>200201</v>
+        <v>20399</v>
       </c>
       <c r="C81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>2398</v>
+        <v>683</v>
       </c>
       <c r="B82">
-        <v>200201</v>
+        <v>20399</v>
       </c>
       <c r="C82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>2426</v>
+        <v>686</v>
       </c>
       <c r="B83">
-        <v>200201</v>
+        <v>20399</v>
       </c>
       <c r="C83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>2432</v>
+        <v>688</v>
       </c>
       <c r="B84">
-        <v>200201</v>
+        <v>20399</v>
       </c>
       <c r="C84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>2436</v>
+        <v>693</v>
       </c>
       <c r="B85">
-        <v>200201</v>
+        <v>20399</v>
       </c>
       <c r="C85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>2555</v>
+        <v>699</v>
       </c>
       <c r="B86">
-        <v>200201</v>
+        <v>20399</v>
       </c>
       <c r="C86" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>2572</v>
+        <v>701</v>
       </c>
       <c r="B87">
-        <v>200201</v>
+        <v>20399</v>
       </c>
       <c r="C87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>2681</v>
+        <v>704</v>
       </c>
       <c r="B88">
-        <v>200201</v>
+        <v>20399</v>
       </c>
       <c r="C88" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>3392</v>
+        <v>705</v>
       </c>
       <c r="B89">
-        <v>200201</v>
+        <v>20399</v>
       </c>
       <c r="C89" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>3522</v>
+        <v>709</v>
       </c>
       <c r="B90">
-        <v>200201</v>
+        <v>20399</v>
       </c>
       <c r="C90" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>4023</v>
+        <v>711</v>
       </c>
       <c r="B91">
-        <v>200201</v>
+        <v>20399</v>
       </c>
       <c r="C91" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>4950</v>
+        <v>712</v>
       </c>
       <c r="B92">
-        <v>200201</v>
+        <v>20399</v>
       </c>
       <c r="C92" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>4967</v>
+        <v>715</v>
       </c>
       <c r="B93">
-        <v>200201</v>
+        <v>20399</v>
       </c>
       <c r="C93" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>4980</v>
+        <v>723</v>
       </c>
       <c r="B94">
-        <v>200201</v>
+        <v>20399</v>
       </c>
       <c r="C94" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>5002</v>
+        <v>737</v>
       </c>
       <c r="B95">
-        <v>200201</v>
+        <v>20399</v>
       </c>
       <c r="C95" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>5097</v>
+        <v>744</v>
       </c>
       <c r="B96">
-        <v>200201</v>
+        <v>20399</v>
       </c>
       <c r="C96" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>5098</v>
+        <v>745</v>
       </c>
       <c r="B97">
-        <v>200201</v>
+        <v>20399</v>
       </c>
       <c r="C97" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>5100</v>
+        <v>758</v>
       </c>
       <c r="B98">
-        <v>200201</v>
+        <v>20399</v>
       </c>
       <c r="C98" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>5101</v>
+        <v>760</v>
       </c>
       <c r="B99">
-        <v>200201</v>
+        <v>20399</v>
       </c>
       <c r="C99" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>5103</v>
+        <v>761</v>
       </c>
       <c r="B100">
-        <v>200201</v>
+        <v>20399</v>
       </c>
       <c r="C100" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>5120</v>
+        <v>767</v>
       </c>
       <c r="B101">
-        <v>200201</v>
+        <v>20399</v>
       </c>
       <c r="C101" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>5125</v>
+        <v>771</v>
       </c>
       <c r="B102">
-        <v>200201</v>
+        <v>20399</v>
       </c>
       <c r="C102" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>5128</v>
+        <v>774</v>
       </c>
       <c r="B103">
-        <v>200201</v>
+        <v>20399</v>
       </c>
       <c r="C103" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>5130</v>
+        <v>776</v>
       </c>
       <c r="B104">
-        <v>200201</v>
+        <v>20399</v>
       </c>
       <c r="C104" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>5132</v>
+        <v>777</v>
       </c>
       <c r="B105">
-        <v>200201</v>
+        <v>20399</v>
       </c>
       <c r="C105" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>5206</v>
+        <v>793</v>
       </c>
       <c r="B106">
-        <v>200201</v>
+        <v>20204</v>
       </c>
       <c r="C106" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1">
-        <v>5279</v>
+        <v>798</v>
       </c>
       <c r="B107">
-        <v>200201</v>
+        <v>20204</v>
       </c>
       <c r="C107" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1">
-        <v>5346</v>
+        <v>803</v>
       </c>
       <c r="B108">
-        <v>200201</v>
+        <v>20204</v>
       </c>
       <c r="C108" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1">
-        <v>5377</v>
+        <v>804</v>
       </c>
       <c r="B109">
-        <v>200201</v>
+        <v>20204</v>
       </c>
       <c r="C109" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1">
-        <v>5454</v>
+        <v>1612</v>
       </c>
       <c r="B110">
-        <v>200201</v>
+        <v>20204</v>
       </c>
       <c r="C110" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1">
-        <v>5514</v>
+        <v>1619</v>
       </c>
       <c r="B111">
-        <v>200201</v>
+        <v>20204</v>
       </c>
       <c r="C111" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>5590</v>
+        <v>1622</v>
       </c>
       <c r="B112">
-        <v>200201</v>
+        <v>20204</v>
       </c>
       <c r="C112" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>5693</v>
+        <v>1623</v>
       </c>
       <c r="B113">
-        <v>200201</v>
+        <v>20204</v>
       </c>
       <c r="C113" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>5707</v>
+        <v>1624</v>
       </c>
       <c r="B114">
-        <v>200201</v>
+        <v>20204</v>
       </c>
       <c r="C114" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>5728</v>
+        <v>1625</v>
       </c>
       <c r="B115">
-        <v>200201</v>
+        <v>20204</v>
       </c>
       <c r="C115" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>5737</v>
+        <v>1627</v>
       </c>
       <c r="B116">
-        <v>200201</v>
+        <v>20204</v>
       </c>
       <c r="C116" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>5742</v>
+        <v>1628</v>
       </c>
       <c r="B117">
-        <v>200201</v>
+        <v>20501</v>
       </c>
       <c r="C117" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>5752</v>
+        <v>1645</v>
       </c>
       <c r="B118">
-        <v>200201</v>
+        <v>20501</v>
       </c>
       <c r="C118" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>5753</v>
+        <v>1653</v>
       </c>
       <c r="B119">
-        <v>200201</v>
+        <v>20501</v>
       </c>
       <c r="C119" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
-        <v>5762</v>
+        <v>1660</v>
       </c>
       <c r="B120">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C120" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>5775</v>
+        <v>1667</v>
       </c>
       <c r="B121">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C121" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1">
-        <v>5813</v>
+        <v>1668</v>
       </c>
       <c r="B122">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C122" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1">
-        <v>5827</v>
+        <v>1680</v>
       </c>
       <c r="B123">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C123" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1">
-        <v>5864</v>
+        <v>1681</v>
       </c>
       <c r="B124">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C124" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1">
-        <v>5865</v>
+        <v>1707</v>
       </c>
       <c r="B125">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C125" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1">
-        <v>5874</v>
+        <v>1723</v>
       </c>
       <c r="B126">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C126" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1">
-        <v>5891</v>
+        <v>1751</v>
       </c>
       <c r="B127">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C127" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1">
-        <v>5904</v>
+        <v>1757</v>
       </c>
       <c r="B128">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C128" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1">
-        <v>5936</v>
+        <v>1772</v>
       </c>
       <c r="B129">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C129" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1">
-        <v>5938</v>
+        <v>1786</v>
       </c>
       <c r="B130">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C130" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1">
-        <v>5941</v>
+        <v>1787</v>
       </c>
       <c r="B131">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C131" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1">
-        <v>5942</v>
+        <v>1828</v>
       </c>
       <c r="B132">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C132" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1">
-        <v>5948</v>
+        <v>1844</v>
       </c>
       <c r="B133">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C133" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1">
-        <v>5954</v>
+        <v>1865</v>
       </c>
       <c r="B134">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C134" t="s">
-        <v>134</v>
+        <v>48</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1">
-        <v>7231</v>
+        <v>1937</v>
       </c>
       <c r="B135">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C135" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1">
-        <v>7258</v>
+        <v>2045</v>
       </c>
       <c r="B136">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C136" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1">
-        <v>7280</v>
+        <v>2046</v>
       </c>
       <c r="B137">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C137" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1">
-        <v>7282</v>
+        <v>2049</v>
       </c>
       <c r="B138">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C138" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1">
-        <v>7294</v>
+        <v>2052</v>
       </c>
       <c r="B139">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C139" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1">
-        <v>7347</v>
+        <v>2054</v>
       </c>
       <c r="B140">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C140" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1">
-        <v>7353</v>
+        <v>2056</v>
       </c>
       <c r="B141">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C141" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1">
-        <v>7607</v>
+        <v>2075</v>
       </c>
       <c r="B142">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C142" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1">
-        <v>7763</v>
+        <v>2148</v>
       </c>
       <c r="B143">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C143" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1">
-        <v>7783</v>
+        <v>2149</v>
       </c>
       <c r="B144">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C144" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1">
-        <v>7790</v>
+        <v>2150</v>
       </c>
       <c r="B145">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C145" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1">
-        <v>8176</v>
+        <v>2151</v>
       </c>
       <c r="B146">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C146" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1">
-        <v>8200</v>
+        <v>2152</v>
       </c>
       <c r="B147">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C147" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1">
-        <v>8209</v>
+        <v>2166</v>
       </c>
       <c r="B148">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C148" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1">
-        <v>8213</v>
+        <v>2179</v>
       </c>
       <c r="B149">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C149" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1">
-        <v>8215</v>
+        <v>2180</v>
       </c>
       <c r="B150">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C150" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1">
-        <v>8219</v>
+        <v>2183</v>
       </c>
       <c r="B151">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C151" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1">
-        <v>8220</v>
+        <v>2186</v>
       </c>
       <c r="B152">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C152" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1">
-        <v>8224</v>
+        <v>2188</v>
       </c>
       <c r="B153">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C153" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1">
-        <v>8228</v>
+        <v>2189</v>
       </c>
       <c r="B154">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C154" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1">
-        <v>8242</v>
+        <v>2198</v>
       </c>
       <c r="B155">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C155" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1">
-        <v>8341</v>
+        <v>2199</v>
       </c>
       <c r="B156">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C156" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1">
-        <v>8379</v>
+        <v>2201</v>
       </c>
       <c r="B157">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C157" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1">
-        <v>8437</v>
+        <v>2202</v>
       </c>
       <c r="B158">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C158" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1">
-        <v>8456</v>
+        <v>2204</v>
       </c>
       <c r="B159">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C159" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1">
-        <v>8476</v>
+        <v>2209</v>
       </c>
       <c r="B160">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C160" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1">
-        <v>8517</v>
+        <v>2210</v>
       </c>
       <c r="B161">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C161" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1">
-        <v>8531</v>
+        <v>2223</v>
       </c>
       <c r="B162">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C162" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1">
-        <v>8564</v>
+        <v>2224</v>
       </c>
       <c r="B163">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C163" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1">
-        <v>8609</v>
+        <v>2238</v>
       </c>
       <c r="B164">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C164" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1">
-        <v>8642</v>
+        <v>2245</v>
       </c>
       <c r="B165">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C165" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1">
-        <v>8746</v>
+        <v>2246</v>
       </c>
       <c r="B166">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C166" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1">
-        <v>8763</v>
+        <v>2248</v>
       </c>
       <c r="B167">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C167" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1">
-        <v>8764</v>
+        <v>2249</v>
       </c>
       <c r="B168">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C168" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1">
-        <v>8781</v>
+        <v>2255</v>
       </c>
       <c r="B169">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C169" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1">
-        <v>8782</v>
+        <v>2258</v>
       </c>
       <c r="B170">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C170" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="1">
-        <v>8800</v>
+        <v>2261</v>
       </c>
       <c r="B171">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C171" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="1">
-        <v>8802</v>
+        <v>2265</v>
       </c>
       <c r="B172">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C172" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="1">
-        <v>8812</v>
+        <v>2266</v>
       </c>
       <c r="B173">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C173" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="1">
-        <v>8819</v>
+        <v>2267</v>
       </c>
       <c r="B174">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C174" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="1">
-        <v>8831</v>
+        <v>2270</v>
       </c>
       <c r="B175">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C175" t="s">
-        <v>175</v>
+        <v>117</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="1">
-        <v>8843</v>
+        <v>2278</v>
       </c>
       <c r="B176">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C176" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="1">
-        <v>8850</v>
+        <v>2279</v>
       </c>
       <c r="B177">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C177" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="1">
-        <v>8881</v>
+        <v>2287</v>
       </c>
       <c r="B178">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C178" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="1">
-        <v>8882</v>
+        <v>2292</v>
       </c>
       <c r="B179">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C179" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="1">
-        <v>8883</v>
+        <v>2295</v>
       </c>
       <c r="B180">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C180" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="1">
-        <v>8892</v>
+        <v>2296</v>
       </c>
       <c r="B181">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C181" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="1">
-        <v>8942</v>
+        <v>2302</v>
       </c>
       <c r="B182">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C182" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="1">
-        <v>8955</v>
+        <v>2303</v>
       </c>
       <c r="B183">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C183" t="s">
-        <v>183</v>
+        <v>78</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="1">
-        <v>8987</v>
+        <v>2306</v>
       </c>
       <c r="B184">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C184" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="1">
-        <v>8990</v>
+        <v>2308</v>
       </c>
       <c r="B185">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C185" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="1">
-        <v>8993</v>
+        <v>2312</v>
       </c>
       <c r="B186">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C186" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="1">
-        <v>8996</v>
+        <v>2316</v>
       </c>
       <c r="B187">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C187" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="1">
-        <v>8999</v>
+        <v>2317</v>
       </c>
       <c r="B188">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C188" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="1">
-        <v>9002</v>
+        <v>2318</v>
       </c>
       <c r="B189">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C189" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="1">
-        <v>9005</v>
+        <v>2322</v>
       </c>
       <c r="B190">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C190" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="1">
-        <v>9008</v>
+        <v>2323</v>
       </c>
       <c r="B191">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C191" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="1">
-        <v>9009</v>
+        <v>2325</v>
       </c>
       <c r="B192">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C192" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="1">
-        <v>9011</v>
+        <v>2326</v>
       </c>
       <c r="B193">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C193" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="1">
-        <v>9014</v>
+        <v>2327</v>
       </c>
       <c r="B194">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C194" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="1">
-        <v>9016</v>
+        <v>2328</v>
       </c>
       <c r="B195">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C195" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="1">
-        <v>9022</v>
+        <v>2330</v>
       </c>
       <c r="B196">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C196" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="1">
-        <v>9031</v>
+        <v>2333</v>
       </c>
       <c r="B197">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C197" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="1">
-        <v>9104</v>
+        <v>2334</v>
       </c>
       <c r="B198">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C198" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="1">
-        <v>9108</v>
+        <v>2338</v>
       </c>
       <c r="B199">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C199" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="1">
-        <v>9127</v>
+        <v>2340</v>
       </c>
       <c r="B200">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C200" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="1">
-        <v>9177</v>
+        <v>2343</v>
       </c>
       <c r="B201">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C201" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="1">
-        <v>9212</v>
+        <v>2348</v>
       </c>
       <c r="B202">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C202" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="1">
-        <v>9214</v>
+        <v>2353</v>
       </c>
       <c r="B203">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C203" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="1">
-        <v>9279</v>
+        <v>2356</v>
       </c>
       <c r="B204">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C204" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="1">
-        <v>9306</v>
+        <v>2360</v>
       </c>
       <c r="B205">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C205" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="1">
-        <v>9331</v>
+        <v>2362</v>
       </c>
       <c r="B206">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C206" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="1">
-        <v>9389</v>
+        <v>2364</v>
       </c>
       <c r="B207">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C207" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="1">
-        <v>9391</v>
+        <v>2373</v>
       </c>
       <c r="B208">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C208" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="1">
-        <v>9399</v>
+        <v>2374</v>
       </c>
       <c r="B209">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C209" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="1">
-        <v>9462</v>
+        <v>2377</v>
       </c>
       <c r="B210">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C210" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="1">
-        <v>9484</v>
+        <v>2380</v>
       </c>
       <c r="B211">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C211" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="1">
-        <v>9490</v>
+        <v>2386</v>
       </c>
       <c r="B212">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C212" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="1">
-        <v>9512</v>
+        <v>2387</v>
       </c>
       <c r="B213">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C213" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="1">
-        <v>9541</v>
+        <v>2389</v>
       </c>
       <c r="B214">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C214" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="1">
-        <v>9569</v>
+        <v>2390</v>
       </c>
       <c r="B215">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C215" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="1">
-        <v>9598</v>
+        <v>2394</v>
       </c>
       <c r="B216">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C216" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="1">
-        <v>9614</v>
+        <v>2395</v>
       </c>
       <c r="B217">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C217" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="1">
-        <v>9621</v>
+        <v>2404</v>
       </c>
       <c r="B218">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C218" t="s">
-        <v>218</v>
+        <v>53</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="1">
-        <v>9706</v>
+        <v>2406</v>
       </c>
       <c r="B219">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C219" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="1">
-        <v>9816</v>
+        <v>2407</v>
       </c>
       <c r="B220">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C220" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="1">
-        <v>9846</v>
+        <v>2409</v>
       </c>
       <c r="B221">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C221" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="1">
-        <v>10059</v>
+        <v>2410</v>
       </c>
       <c r="B222">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C222" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="1">
-        <v>10100</v>
+        <v>2418</v>
       </c>
       <c r="B223">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C223" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="1">
-        <v>10202</v>
+        <v>2423</v>
       </c>
       <c r="B224">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C224" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="1">
-        <v>10222</v>
+        <v>2431</v>
       </c>
       <c r="B225">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C225" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="1">
-        <v>10235</v>
+        <v>2434</v>
       </c>
       <c r="B226">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C226" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="1">
-        <v>10324</v>
+        <v>2435</v>
       </c>
       <c r="B227">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C227" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="1">
-        <v>10428</v>
+        <v>2437</v>
       </c>
       <c r="B228">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C228" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="1">
-        <v>10654</v>
+        <v>2438</v>
       </c>
       <c r="B229">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C229" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="1">
-        <v>10890</v>
+        <v>2441</v>
       </c>
       <c r="B230">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C230" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="1">
-        <v>10905</v>
+        <v>2447</v>
       </c>
       <c r="B231">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C231" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="1">
-        <v>10935</v>
+        <v>2448</v>
       </c>
       <c r="B232">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C232" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="1">
-        <v>11037</v>
+        <v>2453</v>
       </c>
       <c r="B233">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C233" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="1">
-        <v>11067</v>
+        <v>2455</v>
       </c>
       <c r="B234">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C234" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="1">
-        <v>11082</v>
+        <v>2457</v>
       </c>
       <c r="B235">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C235" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="1">
-        <v>11084</v>
+        <v>2459</v>
       </c>
       <c r="B236">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C236" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="1">
-        <v>11110</v>
+        <v>2463</v>
       </c>
       <c r="B237">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C237" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="1">
-        <v>11117</v>
+        <v>2465</v>
       </c>
       <c r="B238">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C238" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="1">
-        <v>11145</v>
+        <v>2467</v>
       </c>
       <c r="B239">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C239" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="1">
-        <v>11181</v>
+        <v>2472</v>
       </c>
       <c r="B240">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C240" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="1">
-        <v>11197</v>
+        <v>2477</v>
       </c>
       <c r="B241">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C241" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="1">
-        <v>11340</v>
+        <v>2482</v>
       </c>
       <c r="B242">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C242" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="1">
-        <v>11477</v>
+        <v>2483</v>
       </c>
       <c r="B243">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C243" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="1">
-        <v>11541</v>
+        <v>2485</v>
       </c>
       <c r="B244">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C244" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="1">
-        <v>11562</v>
+        <v>2486</v>
       </c>
       <c r="B245">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C245" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="1">
-        <v>11702</v>
+        <v>2488</v>
       </c>
       <c r="B246">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C246" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="1">
-        <v>11706</v>
+        <v>2489</v>
       </c>
       <c r="B247">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C247" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="1">
-        <v>11721</v>
+        <v>2516</v>
       </c>
       <c r="B248">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C248" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="1">
-        <v>11723</v>
+        <v>2518</v>
       </c>
       <c r="B249">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C249" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="1">
-        <v>11726</v>
+        <v>2535</v>
       </c>
       <c r="B250">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C250" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="1">
-        <v>11728</v>
+        <v>2537</v>
       </c>
       <c r="B251">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C251" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="1">
-        <v>11730</v>
+        <v>2539</v>
       </c>
       <c r="B252">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C252" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="1">
-        <v>11743</v>
+        <v>2547</v>
       </c>
       <c r="B253">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C253" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="1">
-        <v>11748</v>
+        <v>2552</v>
       </c>
       <c r="B254">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C254" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="1">
-        <v>11760</v>
+        <v>2554</v>
       </c>
       <c r="B255">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C255" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="1">
-        <v>11769</v>
+        <v>2557</v>
       </c>
       <c r="B256">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C256" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="1">
-        <v>11771</v>
+        <v>2566</v>
       </c>
       <c r="B257">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C257" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="1">
-        <v>11784</v>
+        <v>2574</v>
       </c>
       <c r="B258">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C258" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="1">
-        <v>11785</v>
+        <v>2575</v>
       </c>
       <c r="B259">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C259" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="1">
-        <v>11870</v>
+        <v>2578</v>
       </c>
       <c r="B260">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C260" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="1">
-        <v>11881</v>
+        <v>2579</v>
       </c>
       <c r="B261">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C261" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="1">
-        <v>11951</v>
+        <v>2580</v>
       </c>
       <c r="B262">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C262" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="1">
-        <v>12118</v>
+        <v>2588</v>
       </c>
       <c r="B263">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C263" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="1">
-        <v>12121</v>
+        <v>2596</v>
       </c>
       <c r="B264">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C264" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="1">
-        <v>12130</v>
+        <v>2598</v>
       </c>
       <c r="B265">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C265" t="s">
-        <v>265</v>
+        <v>95</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="1">
-        <v>12136</v>
+        <v>2625</v>
       </c>
       <c r="B266">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C266" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="1">
-        <v>12174</v>
+        <v>2628</v>
       </c>
       <c r="B267">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C267" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="1">
-        <v>12209</v>
+        <v>2631</v>
       </c>
       <c r="B268">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C268" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="1">
-        <v>12245</v>
+        <v>2635</v>
       </c>
       <c r="B269">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C269" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="1">
-        <v>12248</v>
+        <v>2636</v>
       </c>
       <c r="B270">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C270" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="1">
-        <v>12332</v>
+        <v>2637</v>
       </c>
       <c r="B271">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C271" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="1">
-        <v>12345</v>
+        <v>2641</v>
       </c>
       <c r="B272">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C272" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="1">
-        <v>12396</v>
+        <v>2643</v>
       </c>
       <c r="B273">
-        <v>200201</v>
+        <v>20304</v>
       </c>
       <c r="C273" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="1">
-        <v>12405</v>
+        <v>2651</v>
       </c>
       <c r="B274">
-        <v>200201</v>
+        <v>20103</v>
       </c>
       <c r="C274" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="1">
-        <v>12445</v>
+        <v>2693</v>
       </c>
       <c r="B275">
-        <v>200201</v>
+        <v>20103</v>
       </c>
       <c r="C275" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="1">
-        <v>12457</v>
+        <v>2711</v>
       </c>
       <c r="B276">
-        <v>200201</v>
+        <v>20103</v>
       </c>
       <c r="C276" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="1">
-        <v>12492</v>
+        <v>2712</v>
       </c>
       <c r="B277">
-        <v>200201</v>
+        <v>20103</v>
       </c>
       <c r="C277" t="s">
-        <v>277</v>
+        <v>203</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="1">
-        <v>12604</v>
+        <v>2717</v>
       </c>
       <c r="B278">
-        <v>200201</v>
+        <v>20103</v>
       </c>
       <c r="C278" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="1">
-        <v>12697</v>
+        <v>2721</v>
       </c>
       <c r="B279">
-        <v>200201</v>
+        <v>20103</v>
       </c>
       <c r="C279" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="1">
-        <v>12698</v>
+        <v>2746</v>
       </c>
       <c r="B280">
-        <v>200201</v>
+        <v>20103</v>
       </c>
       <c r="C280" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="1">
-        <v>12704</v>
+        <v>2776</v>
       </c>
       <c r="B281">
-        <v>200201</v>
+        <v>20103</v>
       </c>
       <c r="C281" t="s">
-        <v>281</v>
+        <v>29</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="1">
-        <v>12896</v>
+        <v>2786</v>
       </c>
       <c r="B282">
-        <v>200201</v>
+        <v>20103</v>
       </c>
       <c r="C282" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="1">
-        <v>12902</v>
+        <v>2827</v>
       </c>
       <c r="B283">
-        <v>200201</v>
+        <v>20103</v>
       </c>
       <c r="C283" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="1">
-        <v>12916</v>
+        <v>2878</v>
       </c>
       <c r="B284">
-        <v>200201</v>
+        <v>20103</v>
       </c>
       <c r="C284" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="1">
-        <v>12921</v>
+        <v>2887</v>
       </c>
       <c r="B285">
-        <v>200201</v>
+        <v>20103</v>
       </c>
       <c r="C285" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="1">
-        <v>12930</v>
+        <v>2888</v>
       </c>
       <c r="B286">
-        <v>200201</v>
+        <v>20103</v>
       </c>
       <c r="C286" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="1">
-        <v>13074</v>
+        <v>2891</v>
       </c>
       <c r="B287">
-        <v>200201</v>
+        <v>20103</v>
       </c>
       <c r="C287" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="1">
-        <v>13085</v>
+        <v>2900</v>
       </c>
       <c r="B288">
-        <v>200201</v>
+        <v>20103</v>
       </c>
       <c r="C288" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="1">
-        <v>13124</v>
+        <v>2920</v>
       </c>
       <c r="B289">
-        <v>200201</v>
+        <v>20103</v>
       </c>
       <c r="C289" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="1">
-        <v>13160</v>
+        <v>2933</v>
       </c>
       <c r="B290">
-        <v>200201</v>
+        <v>20103</v>
       </c>
       <c r="C290" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="1">
-        <v>13164</v>
+        <v>2935</v>
       </c>
       <c r="B291">
-        <v>200201</v>
+        <v>20103</v>
       </c>
       <c r="C291" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="1">
-        <v>13185</v>
+        <v>2937</v>
       </c>
       <c r="B292">
-        <v>200201</v>
+        <v>20103</v>
       </c>
       <c r="C292" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="1">
-        <v>13224</v>
+        <v>2939</v>
       </c>
       <c r="B293">
-        <v>200201</v>
+        <v>20103</v>
       </c>
       <c r="C293" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="1">
-        <v>13240</v>
+        <v>2942</v>
       </c>
       <c r="B294">
-        <v>200201</v>
+        <v>20103</v>
       </c>
       <c r="C294" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="1">
-        <v>13251</v>
+        <v>2950</v>
       </c>
       <c r="B295">
-        <v>200201</v>
+        <v>20103</v>
       </c>
       <c r="C295" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="1">
-        <v>13368</v>
+        <v>2956</v>
       </c>
       <c r="B296">
-        <v>200201</v>
+        <v>20103</v>
       </c>
       <c r="C296" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="1">
-        <v>13380</v>
+        <v>2964</v>
       </c>
       <c r="B297">
-        <v>200201</v>
+        <v>20103</v>
       </c>
       <c r="C297" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="1">
-        <v>13388</v>
+        <v>2965</v>
       </c>
       <c r="B298">
-        <v>200201</v>
+        <v>20103</v>
       </c>
       <c r="C298" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="1">
-        <v>13555</v>
+        <v>2982</v>
       </c>
       <c r="B299">
-        <v>200201</v>
+        <v>20103</v>
       </c>
       <c r="C299" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="1">
-        <v>13557</v>
+        <v>2984</v>
       </c>
       <c r="B300">
-        <v>200201</v>
+        <v>20103</v>
       </c>
       <c r="C300" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="1">
-        <v>13563</v>
+        <v>2991</v>
       </c>
       <c r="B301">
-        <v>200201</v>
+        <v>20103</v>
       </c>
       <c r="C301" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="1">
-        <v>13571</v>
+        <v>2992</v>
       </c>
       <c r="B302">
-        <v>200201</v>
+        <v>20103</v>
       </c>
       <c r="C302" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="1">
-        <v>13579</v>
+        <v>3003</v>
       </c>
       <c r="B303">
-        <v>200201</v>
+        <v>20103</v>
       </c>
       <c r="C303" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="1">
-        <v>13584</v>
+        <v>3010</v>
       </c>
       <c r="B304">
-        <v>200201</v>
+        <v>20103</v>
       </c>
       <c r="C304" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="1">
-        <v>13593</v>
+        <v>3031</v>
       </c>
       <c r="B305">
-        <v>200201</v>
+        <v>20103</v>
       </c>
       <c r="C305" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="1">
-        <v>13631</v>
+        <v>3032</v>
       </c>
       <c r="B306">
-        <v>200201</v>
+        <v>20103</v>
       </c>
       <c r="C306" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="1">
-        <v>13716</v>
+        <v>3035</v>
       </c>
       <c r="B307">
-        <v>200201</v>
+        <v>20103</v>
       </c>
       <c r="C307" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="1">
-        <v>13725</v>
+        <v>3036</v>
       </c>
       <c r="B308">
-        <v>200201</v>
+        <v>20103</v>
       </c>
       <c r="C308" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="1">
-        <v>13794</v>
+        <v>3040</v>
       </c>
       <c r="B309">
-        <v>200201</v>
+        <v>20103</v>
       </c>
       <c r="C309" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="1">
-        <v>13797</v>
+        <v>3056</v>
       </c>
       <c r="B310">
-        <v>200201</v>
+        <v>20103</v>
       </c>
       <c r="C310" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" s="1">
-        <v>13806</v>
+        <v>3057</v>
       </c>
       <c r="B311">
-        <v>200201</v>
+        <v>20103</v>
       </c>
       <c r="C311" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" s="1">
-        <v>13846</v>
+        <v>3062</v>
       </c>
       <c r="B312">
-        <v>200201</v>
+        <v>20103</v>
       </c>
       <c r="C312" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="1">
-        <v>13857</v>
+        <v>3067</v>
       </c>
       <c r="B313">
-        <v>200201</v>
+        <v>20103</v>
       </c>
       <c r="C313" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="1">
-        <v>13920</v>
+        <v>3071</v>
       </c>
       <c r="B314">
-        <v>200201</v>
+        <v>20103</v>
       </c>
       <c r="C314" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="1">
-        <v>13939</v>
+        <v>3075</v>
       </c>
       <c r="B315">
-        <v>200201</v>
+        <v>20103</v>
       </c>
       <c r="C315" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="1">
-        <v>13951</v>
+        <v>3083</v>
       </c>
       <c r="B316">
-        <v>200201</v>
+        <v>20103</v>
       </c>
       <c r="C316" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" s="1">
-        <v>13972</v>
+        <v>3084</v>
       </c>
       <c r="B317">
-        <v>200201</v>
+        <v>20103</v>
       </c>
       <c r="C317" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="1">
-        <v>13976</v>
+        <v>3120</v>
       </c>
       <c r="B318">
-        <v>200201</v>
+        <v>20103</v>
       </c>
       <c r="C318" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="1">
-        <v>14192</v>
+        <v>3126</v>
       </c>
       <c r="B319">
-        <v>200201</v>
+        <v>20103</v>
       </c>
       <c r="C319" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="1">
-        <v>14388</v>
+        <v>3133</v>
       </c>
       <c r="B320">
-        <v>200201</v>
+        <v>20103</v>
       </c>
       <c r="C320" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="1">
-        <v>14398</v>
+        <v>3134</v>
       </c>
       <c r="B321">
-        <v>200201</v>
+        <v>20103</v>
       </c>
       <c r="C321" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="1">
-        <v>14440</v>
+        <v>3135</v>
       </c>
       <c r="B322">
-        <v>200201</v>
+        <v>20104</v>
       </c>
       <c r="C322" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="1">
-        <v>14458</v>
+        <v>3141</v>
       </c>
       <c r="B323">
-        <v>200201</v>
+        <v>20104</v>
       </c>
       <c r="C323" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="1">
-        <v>14526</v>
+        <v>3147</v>
       </c>
       <c r="B324">
-        <v>200201</v>
+        <v>20104</v>
       </c>
       <c r="C324" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="1">
-        <v>14640</v>
+        <v>3148</v>
       </c>
       <c r="B325">
-        <v>200201</v>
+        <v>20104</v>
       </c>
       <c r="C325" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="1">
-        <v>14658</v>
+        <v>3150</v>
       </c>
       <c r="B326">
-        <v>200201</v>
+        <v>20104</v>
       </c>
       <c r="C326" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="1">
-        <v>14670</v>
+        <v>3151</v>
       </c>
       <c r="B327">
-        <v>200201</v>
+        <v>20104</v>
       </c>
       <c r="C327" t="s">
-        <v>327</v>
+        <v>25</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="1">
-        <v>14702</v>
+        <v>3152</v>
       </c>
       <c r="B328">
-        <v>200201</v>
+        <v>20104</v>
       </c>
       <c r="C328" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" s="1">
-        <v>14732</v>
+        <v>3162</v>
       </c>
       <c r="B329">
-        <v>200201</v>
+        <v>20104</v>
       </c>
       <c r="C329" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="1">
-        <v>14946</v>
+        <v>3168</v>
       </c>
       <c r="B330">
-        <v>200201</v>
+        <v>20106</v>
       </c>
       <c r="C330" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="1">
-        <v>14974</v>
+        <v>3176</v>
       </c>
       <c r="B331">
-        <v>200201</v>
+        <v>20106</v>
       </c>
       <c r="C331" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="1">
-        <v>14980</v>
+        <v>3177</v>
       </c>
       <c r="B332">
-        <v>200201</v>
+        <v>20106</v>
       </c>
       <c r="C332" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="1">
-        <v>15030</v>
+        <v>3182</v>
       </c>
       <c r="B333">
-        <v>200201</v>
+        <v>20106</v>
       </c>
       <c r="C333" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="1">
-        <v>15083</v>
+        <v>3188</v>
       </c>
       <c r="B334">
-        <v>200201</v>
+        <v>20106</v>
       </c>
       <c r="C334" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="1">
-        <v>15085</v>
+        <v>3189</v>
       </c>
       <c r="B335">
-        <v>200201</v>
+        <v>20106</v>
       </c>
       <c r="C335" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="1">
-        <v>15320</v>
+        <v>3190</v>
       </c>
       <c r="B336">
-        <v>200201</v>
+        <v>20203</v>
       </c>
       <c r="C336" t="s">
-        <v>336</v>
+        <v>115</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="1">
-        <v>15344</v>
+        <v>3193</v>
       </c>
       <c r="B337">
-        <v>200201</v>
+        <v>20203</v>
       </c>
       <c r="C337" t="s">
-        <v>337</v>
+        <v>53</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" s="1">
-        <v>15388</v>
+        <v>3212</v>
       </c>
       <c r="B338">
-        <v>200201</v>
+        <v>20203</v>
       </c>
       <c r="C338" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="1">
-        <v>15487</v>
+        <v>3213</v>
       </c>
       <c r="B339">
-        <v>200201</v>
+        <v>20203</v>
       </c>
       <c r="C339" t="s">
-        <v>339</v>
+        <v>44</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="1">
-        <v>15549</v>
+        <v>3226</v>
       </c>
       <c r="B340">
-        <v>200201</v>
+        <v>20203</v>
       </c>
       <c r="C340" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="1">
-        <v>15550</v>
+        <v>3245</v>
       </c>
       <c r="B341">
-        <v>200201</v>
+        <v>20203</v>
       </c>
       <c r="C341" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="1">
-        <v>15595</v>
+        <v>3248</v>
       </c>
       <c r="B342">
-        <v>200201</v>
+        <v>20203</v>
       </c>
       <c r="C342" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="1">
-        <v>15596</v>
+        <v>3255</v>
       </c>
       <c r="B343">
-        <v>200201</v>
+        <v>20203</v>
       </c>
       <c r="C343" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="1">
-        <v>15604</v>
+        <v>3256</v>
       </c>
       <c r="B344">
-        <v>200201</v>
+        <v>20203</v>
       </c>
       <c r="C344" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="1">
-        <v>15616</v>
+        <v>3259</v>
       </c>
       <c r="B345">
-        <v>200201</v>
+        <v>20203</v>
       </c>
       <c r="C345" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="1">
-        <v>15617</v>
+        <v>3260</v>
       </c>
       <c r="B346">
-        <v>200201</v>
+        <v>20203</v>
       </c>
       <c r="C346" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="1">
-        <v>15620</v>
+        <v>3262</v>
       </c>
       <c r="B347">
-        <v>200201</v>
+        <v>20203</v>
       </c>
       <c r="C347" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="1">
-        <v>15650</v>
+        <v>3263</v>
       </c>
       <c r="B348">
-        <v>200201</v>
+        <v>20203</v>
       </c>
       <c r="C348" t="s">
-        <v>348</v>
+        <v>117</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="1">
-        <v>15689</v>
+        <v>3264</v>
       </c>
       <c r="B349">
-        <v>200201</v>
+        <v>20203</v>
       </c>
       <c r="C349" t="s">
-        <v>349</v>
+        <v>194</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" s="1">
-        <v>15704</v>
+        <v>3266</v>
       </c>
       <c r="B350">
-        <v>200201</v>
+        <v>20203</v>
       </c>
       <c r="C350" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="1">
-        <v>15705</v>
+        <v>3269</v>
       </c>
       <c r="B351">
-        <v>200201</v>
+        <v>20203</v>
       </c>
       <c r="C351" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="1">
-        <v>15729</v>
+        <v>3270</v>
       </c>
       <c r="B352">
-        <v>200201</v>
+        <v>20203</v>
       </c>
       <c r="C352" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" s="1">
+        <v>3277</v>
+      </c>
+      <c r="B353">
+        <v>20203</v>
+      </c>
+      <c r="C353" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" s="1">
+        <v>3278</v>
+      </c>
+      <c r="B354">
+        <v>20203</v>
+      </c>
+      <c r="C354" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" s="1">
+        <v>3289</v>
+      </c>
+      <c r="B355">
+        <v>20203</v>
+      </c>
+      <c r="C355" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" s="1">
+        <v>3338</v>
+      </c>
+      <c r="B356">
+        <v>20203</v>
+      </c>
+      <c r="C356" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" s="1">
+        <v>3346</v>
+      </c>
+      <c r="B357">
+        <v>20502</v>
+      </c>
+      <c r="C357" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" s="1">
+        <v>3350</v>
+      </c>
+      <c r="B358">
+        <v>20502</v>
+      </c>
+      <c r="C358" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" s="1">
+        <v>3363</v>
+      </c>
+      <c r="B359">
+        <v>20502</v>
+      </c>
+      <c r="C359" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" s="1">
+        <v>3373</v>
+      </c>
+      <c r="B360">
+        <v>20502</v>
+      </c>
+      <c r="C360" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" s="1">
+        <v>3474</v>
+      </c>
+      <c r="B361">
+        <v>20502</v>
+      </c>
+      <c r="C361" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" s="1">
+        <v>3485</v>
+      </c>
+      <c r="B362">
+        <v>20599</v>
+      </c>
+      <c r="C362" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" s="1">
+        <v>3490</v>
+      </c>
+      <c r="B363">
+        <v>20599</v>
+      </c>
+      <c r="C363" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" s="1">
+        <v>3491</v>
+      </c>
+      <c r="B364">
+        <v>20305</v>
+      </c>
+      <c r="C364" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" s="1">
+        <v>3525</v>
+      </c>
+      <c r="B365">
+        <v>20305</v>
+      </c>
+      <c r="C365" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" s="1">
+        <v>3751</v>
+      </c>
+      <c r="B366">
+        <v>20305</v>
+      </c>
+      <c r="C366" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" s="1">
+        <v>3754</v>
+      </c>
+      <c r="B367">
+        <v>20305</v>
+      </c>
+      <c r="C367" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" s="1">
+        <v>3755</v>
+      </c>
+      <c r="B368">
+        <v>20305</v>
+      </c>
+      <c r="C368" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" s="1">
+        <v>3756</v>
+      </c>
+      <c r="B369">
+        <v>20305</v>
+      </c>
+      <c r="C369" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" s="1">
+        <v>3760</v>
+      </c>
+      <c r="B370">
+        <v>20305</v>
+      </c>
+      <c r="C370" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" s="1">
+        <v>3767</v>
+      </c>
+      <c r="B371">
+        <v>20305</v>
+      </c>
+      <c r="C371" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" s="1">
+        <v>3768</v>
+      </c>
+      <c r="B372">
+        <v>20305</v>
+      </c>
+      <c r="C372" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" s="1">
+        <v>3773</v>
+      </c>
+      <c r="B373">
+        <v>20305</v>
+      </c>
+      <c r="C373" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" s="1">
+        <v>3776</v>
+      </c>
+      <c r="B374">
+        <v>20305</v>
+      </c>
+      <c r="C374" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" s="1">
+        <v>3780</v>
+      </c>
+      <c r="B375">
+        <v>20305</v>
+      </c>
+      <c r="C375" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" s="1">
+        <v>3784</v>
+      </c>
+      <c r="B376">
+        <v>20305</v>
+      </c>
+      <c r="C376" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" s="1">
+        <v>3787</v>
+      </c>
+      <c r="B377">
+        <v>20305</v>
+      </c>
+      <c r="C377" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" s="1">
+        <v>3788</v>
+      </c>
+      <c r="B378">
+        <v>20499</v>
+      </c>
+      <c r="C378" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" s="1">
+        <v>3790</v>
+      </c>
+      <c r="B379">
+        <v>20499</v>
+      </c>
+      <c r="C379" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" s="1">
+        <v>3792</v>
+      </c>
+      <c r="B380">
+        <v>20499</v>
+      </c>
+      <c r="C380" t="s">
         <v>352</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" s="1">
+        <v>3798</v>
+      </c>
+      <c r="B381">
+        <v>20499</v>
+      </c>
+      <c r="C381" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" s="1">
+        <v>3799</v>
+      </c>
+      <c r="B382">
+        <v>20301</v>
+      </c>
+      <c r="C382" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" s="1">
+        <v>3810</v>
+      </c>
+      <c r="B383">
+        <v>20301</v>
+      </c>
+      <c r="C383" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" s="1">
+        <v>3812</v>
+      </c>
+      <c r="B384">
+        <v>20301</v>
+      </c>
+      <c r="C384" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" s="1">
+        <v>3818</v>
+      </c>
+      <c r="B385">
+        <v>20301</v>
+      </c>
+      <c r="C385" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" s="1">
+        <v>3819</v>
+      </c>
+      <c r="B386">
+        <v>20301</v>
+      </c>
+      <c r="C386" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" s="1">
+        <v>3821</v>
+      </c>
+      <c r="B387">
+        <v>20301</v>
+      </c>
+      <c r="C387" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" s="1">
+        <v>3823</v>
+      </c>
+      <c r="B388">
+        <v>20301</v>
+      </c>
+      <c r="C388" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389" s="1">
+        <v>3827</v>
+      </c>
+      <c r="B389">
+        <v>20301</v>
+      </c>
+      <c r="C389" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" s="1">
+        <v>3828</v>
+      </c>
+      <c r="B390">
+        <v>20301</v>
+      </c>
+      <c r="C390" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" s="1">
+        <v>3829</v>
+      </c>
+      <c r="B391">
+        <v>20301</v>
+      </c>
+      <c r="C391" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" s="1">
+        <v>3830</v>
+      </c>
+      <c r="B392">
+        <v>20301</v>
+      </c>
+      <c r="C392" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" s="1">
+        <v>3831</v>
+      </c>
+      <c r="B393">
+        <v>20301</v>
+      </c>
+      <c r="C393" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" s="1">
+        <v>3832</v>
+      </c>
+      <c r="B394">
+        <v>20301</v>
+      </c>
+      <c r="C394" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" s="1">
+        <v>3833</v>
+      </c>
+      <c r="B395">
+        <v>20301</v>
+      </c>
+      <c r="C395" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" s="1">
+        <v>3835</v>
+      </c>
+      <c r="B396">
+        <v>20301</v>
+      </c>
+      <c r="C396" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" s="1">
+        <v>3838</v>
+      </c>
+      <c r="B397">
+        <v>20301</v>
+      </c>
+      <c r="C397" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" s="1">
+        <v>3840</v>
+      </c>
+      <c r="B398">
+        <v>20301</v>
+      </c>
+      <c r="C398" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" s="1">
+        <v>3843</v>
+      </c>
+      <c r="B399">
+        <v>20301</v>
+      </c>
+      <c r="C399" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" s="1">
+        <v>3844</v>
+      </c>
+      <c r="B400">
+        <v>20301</v>
+      </c>
+      <c r="C400" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401" s="1">
+        <v>3845</v>
+      </c>
+      <c r="B401">
+        <v>20705</v>
+      </c>
+      <c r="C401" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402" s="1">
+        <v>3846</v>
+      </c>
+      <c r="B402">
+        <v>20705</v>
+      </c>
+      <c r="C402" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403" s="1">
+        <v>3854</v>
+      </c>
+      <c r="B403">
+        <v>20704</v>
+      </c>
+      <c r="C403" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404" s="1">
+        <v>3880</v>
+      </c>
+      <c r="B404">
+        <v>20704</v>
+      </c>
+      <c r="C404" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405" s="1">
+        <v>3893</v>
+      </c>
+      <c r="B405">
+        <v>20704</v>
+      </c>
+      <c r="C405" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406" s="1">
+        <v>3902</v>
+      </c>
+      <c r="B406">
+        <v>20704</v>
+      </c>
+      <c r="C406" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407" s="1">
+        <v>3903</v>
+      </c>
+      <c r="B407">
+        <v>20704</v>
+      </c>
+      <c r="C407" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408" s="1">
+        <v>3904</v>
+      </c>
+      <c r="B408">
+        <v>20704</v>
+      </c>
+      <c r="C408" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="A409" s="1">
+        <v>3909</v>
+      </c>
+      <c r="B409">
+        <v>20704</v>
+      </c>
+      <c r="C409" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410" s="1">
+        <v>3915</v>
+      </c>
+      <c r="B410">
+        <v>20704</v>
+      </c>
+      <c r="C410" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411" s="1">
+        <v>3916</v>
+      </c>
+      <c r="B411">
+        <v>20704</v>
+      </c>
+      <c r="C411" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412" s="1">
+        <v>3917</v>
+      </c>
+      <c r="B412">
+        <v>20704</v>
+      </c>
+      <c r="C412" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413" s="1">
+        <v>3919</v>
+      </c>
+      <c r="B413">
+        <v>20704</v>
+      </c>
+      <c r="C413" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414" s="1">
+        <v>3938</v>
+      </c>
+      <c r="B414">
+        <v>20704</v>
+      </c>
+      <c r="C414" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415" s="1">
+        <v>3943</v>
+      </c>
+      <c r="B415">
+        <v>20704</v>
+      </c>
+      <c r="C415" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416" s="1">
+        <v>3963</v>
+      </c>
+      <c r="B416">
+        <v>20704</v>
+      </c>
+      <c r="C416" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417" s="1">
+        <v>3964</v>
+      </c>
+      <c r="B417">
+        <v>20704</v>
+      </c>
+      <c r="C417" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418" s="1">
+        <v>3965</v>
+      </c>
+      <c r="B418">
+        <v>20704</v>
+      </c>
+      <c r="C418" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419" s="1">
+        <v>3968</v>
+      </c>
+      <c r="B419">
+        <v>20704</v>
+      </c>
+      <c r="C419" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
+      <c r="A420" s="1">
+        <v>3972</v>
+      </c>
+      <c r="B420">
+        <v>20704</v>
+      </c>
+      <c r="C420" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="A421" s="1">
+        <v>3973</v>
+      </c>
+      <c r="B421">
+        <v>20601</v>
+      </c>
+      <c r="C421" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="A422" s="1">
+        <v>3974</v>
+      </c>
+      <c r="B422">
+        <v>20601</v>
+      </c>
+      <c r="C422" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="A423" s="1">
+        <v>4020</v>
+      </c>
+      <c r="B423">
+        <v>20601</v>
+      </c>
+      <c r="C423" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424" s="1">
+        <v>4034</v>
+      </c>
+      <c r="B424">
+        <v>20202</v>
+      </c>
+      <c r="C424" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425" s="1">
+        <v>4038</v>
+      </c>
+      <c r="B425">
+        <v>20202</v>
+      </c>
+      <c r="C425" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="A426" s="1">
+        <v>4041</v>
+      </c>
+      <c r="B426">
+        <v>20107</v>
+      </c>
+      <c r="C426" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="A427" s="1">
+        <v>4042</v>
+      </c>
+      <c r="B427">
+        <v>20107</v>
+      </c>
+      <c r="C427" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="A428" s="1">
+        <v>4053</v>
+      </c>
+      <c r="B428">
+        <v>20107</v>
+      </c>
+      <c r="C428" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429" s="1">
+        <v>4054</v>
+      </c>
+      <c r="B429">
+        <v>20107</v>
+      </c>
+      <c r="C429" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="A430" s="1">
+        <v>4055</v>
+      </c>
+      <c r="B430">
+        <v>20107</v>
+      </c>
+      <c r="C430" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431" s="1">
+        <v>4078</v>
+      </c>
+      <c r="B431">
+        <v>20101</v>
+      </c>
+      <c r="C431" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432" s="1">
+        <v>4079</v>
+      </c>
+      <c r="B432">
+        <v>20108</v>
+      </c>
+      <c r="C432" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="A433" s="1">
+        <v>4116</v>
+      </c>
+      <c r="B433">
+        <v>20108</v>
+      </c>
+      <c r="C433" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="A434" s="1">
+        <v>4118</v>
+      </c>
+      <c r="B434">
+        <v>20108</v>
+      </c>
+      <c r="C434" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435" s="1">
+        <v>4121</v>
+      </c>
+      <c r="B435">
+        <v>20108</v>
+      </c>
+      <c r="C435" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436" s="1">
+        <v>4156</v>
+      </c>
+      <c r="B436">
+        <v>20108</v>
+      </c>
+      <c r="C436" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437" s="1">
+        <v>4162</v>
+      </c>
+      <c r="B437">
+        <v>20108</v>
+      </c>
+      <c r="C437" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="A438" s="1">
+        <v>4193</v>
+      </c>
+      <c r="B438">
+        <v>20108</v>
+      </c>
+      <c r="C438" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="A439" s="1">
+        <v>4215</v>
+      </c>
+      <c r="B439">
+        <v>20108</v>
+      </c>
+      <c r="C439" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="A440" s="1">
+        <v>4219</v>
+      </c>
+      <c r="B440">
+        <v>20108</v>
+      </c>
+      <c r="C440" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="A441" s="1">
+        <v>4220</v>
+      </c>
+      <c r="B441">
+        <v>20108</v>
+      </c>
+      <c r="C441" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="A442" s="1">
+        <v>4254</v>
+      </c>
+      <c r="B442">
+        <v>20108</v>
+      </c>
+      <c r="C442" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443" s="1">
+        <v>4265</v>
+      </c>
+      <c r="B443">
+        <v>20108</v>
+      </c>
+      <c r="C443" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444" s="1">
+        <v>4297</v>
+      </c>
+      <c r="B444">
+        <v>20108</v>
+      </c>
+      <c r="C444" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="A445" s="1">
+        <v>4325</v>
+      </c>
+      <c r="B445">
+        <v>20108</v>
+      </c>
+      <c r="C445" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446" s="1">
+        <v>4329</v>
+      </c>
+      <c r="B446">
+        <v>40109</v>
+      </c>
+      <c r="C446" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="A447" s="1">
+        <v>4330</v>
+      </c>
+      <c r="B447">
+        <v>40109</v>
+      </c>
+      <c r="C447" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
+      <c r="A448" s="1">
+        <v>4331</v>
+      </c>
+      <c r="B448">
+        <v>40222</v>
+      </c>
+      <c r="C448" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="A449" s="1">
+        <v>4332</v>
+      </c>
+      <c r="B449">
+        <v>40209</v>
+      </c>
+      <c r="C449" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450" s="1">
+        <v>4337</v>
+      </c>
+      <c r="B450">
+        <v>40209</v>
+      </c>
+      <c r="C450" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3">
+      <c r="A451" s="1">
+        <v>4338</v>
+      </c>
+      <c r="B451">
+        <v>40209</v>
+      </c>
+      <c r="C451" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
+      <c r="A452" s="1">
+        <v>4339</v>
+      </c>
+      <c r="B452">
+        <v>20102</v>
+      </c>
+      <c r="C452" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="A453" s="1">
+        <v>4365</v>
+      </c>
+      <c r="B453">
+        <v>20102</v>
+      </c>
+      <c r="C453" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
+      <c r="A454" s="1">
+        <v>4367</v>
+      </c>
+      <c r="B454">
+        <v>20699</v>
+      </c>
+      <c r="C454" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
+      <c r="A455" s="1">
+        <v>4369</v>
+      </c>
+      <c r="B455">
+        <v>20299</v>
+      </c>
+      <c r="C455" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
+      <c r="A456" s="1">
+        <v>4371</v>
+      </c>
+      <c r="B456">
+        <v>20299</v>
+      </c>
+      <c r="C456" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457" s="1">
+        <v>4374</v>
+      </c>
+      <c r="B457">
+        <v>20299</v>
+      </c>
+      <c r="C457" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458" s="1">
+        <v>4375</v>
+      </c>
+      <c r="B458">
+        <v>20299</v>
+      </c>
+      <c r="C458" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459" s="1">
+        <v>4377</v>
+      </c>
+      <c r="B459">
+        <v>20799</v>
+      </c>
+      <c r="C459" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="A460" s="1">
+        <v>4378</v>
+      </c>
+      <c r="B460">
+        <v>20109</v>
+      </c>
+      <c r="C460" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="A461" s="1">
+        <v>4381</v>
+      </c>
+      <c r="B461">
+        <v>20109</v>
+      </c>
+      <c r="C461" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="A462" s="1">
+        <v>4419</v>
+      </c>
+      <c r="B462">
+        <v>20603</v>
+      </c>
+      <c r="C462" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="A463" s="1">
+        <v>4519</v>
+      </c>
+      <c r="B463">
+        <v>20603</v>
+      </c>
+      <c r="C463" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="A464" s="1">
+        <v>4579</v>
+      </c>
+      <c r="B464">
+        <v>20201</v>
+      </c>
+      <c r="C464" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="A465" s="1">
+        <v>4580</v>
+      </c>
+      <c r="B465">
+        <v>20201</v>
+      </c>
+      <c r="C465" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="A466" s="1">
+        <v>4584</v>
+      </c>
+      <c r="B466">
+        <v>40220</v>
+      </c>
+      <c r="C466" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="A467" s="1">
+        <v>4590</v>
+      </c>
+      <c r="B467">
+        <v>40220</v>
+      </c>
+      <c r="C467" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="A468" s="1">
+        <v>4603</v>
+      </c>
+      <c r="B468">
+        <v>40220</v>
+      </c>
+      <c r="C468" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="A469" s="1">
+        <v>4613</v>
+      </c>
+      <c r="B469">
+        <v>40220</v>
+      </c>
+      <c r="C469" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="A470" s="1">
+        <v>4614</v>
+      </c>
+      <c r="B470">
+        <v>40106</v>
+      </c>
+      <c r="C470" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="A471" s="1">
+        <v>4615</v>
+      </c>
+      <c r="B471">
+        <v>40102</v>
+      </c>
+      <c r="C471" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
+      <c r="A472" s="1">
+        <v>4619</v>
+      </c>
+      <c r="B472">
+        <v>20110</v>
+      </c>
+      <c r="C472" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="A473" s="1">
+        <v>4620</v>
+      </c>
+      <c r="B473">
+        <v>40216</v>
+      </c>
+      <c r="C473" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="A474" s="1">
+        <v>4642</v>
+      </c>
+      <c r="B474">
+        <v>40219</v>
+      </c>
+      <c r="C474" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="A475" s="1">
+        <v>4645</v>
+      </c>
+      <c r="B475">
+        <v>40214</v>
+      </c>
+      <c r="C475" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3">
+      <c r="A476" s="1">
+        <v>4652</v>
+      </c>
+      <c r="B476">
+        <v>20702</v>
+      </c>
+      <c r="C476" t="s">
+        <v>423</v>
       </c>
     </row>
   </sheetData>

--- a/Public_data/Exports_FW_part1/Export_LMA_compositions.xlsx
+++ b/Public_data/Exports_FW_part1/Export_LMA_compositions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="473">
   <si>
     <t>EuralCode</t>
   </si>
@@ -22,6 +22,207 @@
     <t>BenamingAfval</t>
   </si>
   <si>
+    <t>spijsolie en -vetten uit vetvanger</t>
+  </si>
+  <si>
+    <t>spijsolie en -vetten</t>
+  </si>
+  <si>
+    <t>vetafval</t>
+  </si>
+  <si>
+    <t>frituurvet (havi)</t>
+  </si>
+  <si>
+    <t>dierlijke en plantaardige oliën en vetten, gemengd</t>
+  </si>
+  <si>
+    <t>olie,vet en wasemulsie(plantaardige/dierlijke vetproducten</t>
+  </si>
+  <si>
+    <t>frituurvet, route</t>
+  </si>
+  <si>
+    <t>olie- vet en wasemulsies</t>
+  </si>
+  <si>
+    <t>voor consumptie of verwerking ongeschikt materiaal</t>
+  </si>
+  <si>
+    <t>spijsolie en - vetten</t>
+  </si>
+  <si>
+    <t>e25 dierlijke/plantaardige olien/vetten</t>
+  </si>
+  <si>
+    <t>biodieselresidu</t>
+  </si>
+  <si>
+    <t>spijsolien en vetten</t>
+  </si>
+  <si>
+    <t>spijs olie en vetten</t>
+  </si>
+  <si>
+    <t>gebruikt frituurvet uit vetputtem</t>
+  </si>
+  <si>
+    <t>drijflaag</t>
+  </si>
+  <si>
+    <t>vet drijflaag</t>
+  </si>
+  <si>
+    <t>spijsolie en vetten</t>
+  </si>
+  <si>
+    <t>spijsolie- en vetten</t>
+  </si>
+  <si>
+    <t>vet uit vetput</t>
+  </si>
+  <si>
+    <t>onbewerkt frituurvet</t>
+  </si>
+  <si>
+    <t>spijsolie &amp; vetten</t>
+  </si>
+  <si>
+    <t>frituurolie uit vetvanger</t>
+  </si>
+  <si>
+    <t>vetafval/water</t>
+  </si>
+  <si>
+    <t>restant vet uit tankauto na reiniging</t>
+  </si>
+  <si>
+    <t>spoelwater slib en vet</t>
+  </si>
+  <si>
+    <t>vet/put afval</t>
+  </si>
+  <si>
+    <t>spoelwater vet mengsel</t>
+  </si>
+  <si>
+    <t>frituurvet</t>
+  </si>
+  <si>
+    <t>putvetten</t>
+  </si>
+  <si>
+    <t>oud frituurvet</t>
+  </si>
+  <si>
+    <t>spijsolie en vet</t>
+  </si>
+  <si>
+    <t>rioolslib/kolkenvuil</t>
+  </si>
+  <si>
+    <t>used cooking oil</t>
+  </si>
+  <si>
+    <t>gebruikt frituurvet</t>
+  </si>
+  <si>
+    <t>spijsolie / vetten</t>
+  </si>
+  <si>
+    <t>frituurvet de</t>
+  </si>
+  <si>
+    <t>afgekeurde levensmiddelen</t>
+  </si>
+  <si>
+    <t>organisch ba vast vet zeefbandpers</t>
+  </si>
+  <si>
+    <t>organisch ba vast vet harkcontainer</t>
+  </si>
+  <si>
+    <t>spijsolie en -vetten (gescheiden ingezamelde fract</t>
+  </si>
+  <si>
+    <t>spijsolie en -vetten (gescheiden ingezamelde fracties (exclusief 1</t>
+  </si>
+  <si>
+    <t>recovered vegetable oil for technical purposes</t>
+  </si>
+  <si>
+    <t>used cooking oil for technical purposes</t>
+  </si>
+  <si>
+    <t>olie/water/slib</t>
+  </si>
+  <si>
+    <t>eetbare olien en vetten, niet route</t>
+  </si>
+  <si>
+    <t>eetbare olien en vetten</t>
+  </si>
+  <si>
+    <t>plantaardige oliën en vetten</t>
+  </si>
+  <si>
+    <t>afgewerkte olie cat ii</t>
+  </si>
+  <si>
+    <t>eetbare oliën en vetten</t>
+  </si>
+  <si>
+    <t>plantaardige en dierlijke vetten/olie</t>
+  </si>
+  <si>
+    <t>uco</t>
+  </si>
+  <si>
+    <t>plantaardige oliën/vetten - frituurvetten</t>
+  </si>
+  <si>
+    <t>vetafval van afvalverwerker</t>
+  </si>
+  <si>
+    <t>spijolie en -vetten</t>
+  </si>
+  <si>
+    <t>plantaardige afvalvetten</t>
+  </si>
+  <si>
+    <t>345 in vaten vet (techniek)</t>
+  </si>
+  <si>
+    <t>frituurvet, niet route</t>
+  </si>
+  <si>
+    <t>frituurvet iscc-de, niet route</t>
+  </si>
+  <si>
+    <t>001 vaten vet non iscc</t>
+  </si>
+  <si>
+    <t>003 vaten vet iscc eu</t>
+  </si>
+  <si>
+    <t>vet- en oliemengsel</t>
+  </si>
+  <si>
+    <t>plantaardige olien en vetten</t>
+  </si>
+  <si>
+    <t>frituurolie</t>
+  </si>
+  <si>
+    <t>spijolieen en vetten</t>
+  </si>
+  <si>
+    <t>friuurolie</t>
+  </si>
+  <si>
+    <t>olieen en vetten</t>
+  </si>
+  <si>
     <t>niet onder 03 01 04 vallend zaagsel, schaafsel, spaanders, hout, spaanplaat en fineer</t>
   </si>
   <si>
@@ -223,9 +424,6 @@
     <t>afvoer en verwerking afvalvet</t>
   </si>
   <si>
-    <t>plantaardige afvalvetten</t>
-  </si>
-  <si>
     <t>afvoer en verwerking van putve</t>
   </si>
   <si>
@@ -361,15 +559,9 @@
     <t>slib van afvalwaterbehandeling ter plaatse.</t>
   </si>
   <si>
-    <t>voor consumptie of verwerking ongeschikt materiaal</t>
-  </si>
-  <si>
     <t>slib uit zuivelindustrie</t>
   </si>
   <si>
-    <t>afgekeurde levensmiddelen</t>
-  </si>
-  <si>
     <t>gft voedingindustrie (vloeibaar)</t>
   </si>
   <si>
@@ -658,9 +850,6 @@
     <t>afgekeurd groente en fruit (levensmiddelen)</t>
   </si>
   <si>
-    <t>recovered vegetable oil for technical purposes</t>
-  </si>
-  <si>
     <t>gtv tabakswaar</t>
   </si>
   <si>
@@ -757,9 +946,6 @@
     <t>cacaomassa / water</t>
   </si>
   <si>
-    <t>plantaardige oliën/vetten - frituurvetten</t>
-  </si>
-  <si>
     <t>vruchtenconcentraat</t>
   </si>
   <si>
@@ -1219,24 +1405,6 @@
     <t>ontsmet zaad</t>
   </si>
   <si>
-    <t>afval van bewerking en afwerking</t>
-  </si>
-  <si>
-    <t>melamine-ureum/formaline co polymeer</t>
-  </si>
-  <si>
-    <t>scrap</t>
-  </si>
-  <si>
-    <t>afval van composietmaterialen (ge?mpregneerde textiel, elastomeren, plastomeren)</t>
-  </si>
-  <si>
-    <t>afval van composietmaterialen (geimpregneerde textiel, elastomeren, plastomeren)</t>
-  </si>
-  <si>
-    <t>linoleum met pvc</t>
-  </si>
-  <si>
     <t>gft afgekeurd</t>
   </si>
   <si>
@@ -1261,28 +1429,7 @@
     <t>achtergebleven restant sediment in auto</t>
   </si>
   <si>
-    <t>slib van productie van polyprop</t>
-  </si>
-  <si>
-    <t>industrieel slib (ba)</t>
-  </si>
-  <si>
-    <t>zuiveringslib van tapijtindustrie</t>
-  </si>
-  <si>
-    <t>loogafval</t>
-  </si>
-  <si>
     <t>ijzer</t>
-  </si>
-  <si>
-    <t>kleurstoffen en pigmenten die gevaarlijke stoffen bevatten</t>
-  </si>
-  <si>
-    <t>slib van afvalwaterbehandeling ter plaatse dat gevaarlijke stoffen bevat</t>
-  </si>
-  <si>
-    <t>afval van afwerking dat organische oplosmiddelen bevat</t>
   </si>
   <si>
     <t>destillatieresidu</t>
@@ -1643,7 +1790,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C476"/>
+  <dimension ref="A1:C528"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1662,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>30105</v>
+        <v>200125</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -1670,10 +1817,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>30105</v>
+        <v>200125</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -1681,10 +1828,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>30105</v>
+        <v>200125</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -1692,10 +1839,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>30105</v>
+        <v>200125</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1703,10 +1850,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>30105</v>
+        <v>200125</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -1714,10 +1861,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>30105</v>
+        <v>200125</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -1725,10 +1872,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="B8">
-        <v>30105</v>
+        <v>200125</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -1736,10 +1883,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B9">
-        <v>30105</v>
+        <v>200125</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -1747,10 +1894,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B10">
-        <v>30105</v>
+        <v>200125</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -1758,10 +1905,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="B11">
-        <v>30105</v>
+        <v>200125</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -1769,10 +1916,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="B12">
-        <v>30105</v>
+        <v>200125</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -1780,10 +1927,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="B13">
-        <v>30105</v>
+        <v>200125</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
@@ -1791,10 +1938,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B14">
-        <v>30105</v>
+        <v>200125</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -1802,10 +1949,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="B15">
-        <v>30311</v>
+        <v>200125</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
@@ -1813,10 +1960,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="B16">
-        <v>30311</v>
+        <v>200125</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -1824,10 +1971,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="B17">
-        <v>30311</v>
+        <v>200125</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
@@ -1835,10 +1982,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="B18">
-        <v>30311</v>
+        <v>200125</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
@@ -1846,10 +1993,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B19">
-        <v>30307</v>
+        <v>200125</v>
       </c>
       <c r="C19" t="s">
         <v>19</v>
@@ -1857,10 +2004,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B20">
-        <v>30307</v>
+        <v>200125</v>
       </c>
       <c r="C20" t="s">
         <v>20</v>
@@ -1868,10 +2015,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>120</v>
+        <v>214</v>
       </c>
       <c r="B21">
-        <v>30310</v>
+        <v>200125</v>
       </c>
       <c r="C21" t="s">
         <v>21</v>
@@ -1879,10 +2026,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>122</v>
+        <v>397</v>
       </c>
       <c r="B22">
-        <v>30310</v>
+        <v>200125</v>
       </c>
       <c r="C22" t="s">
         <v>22</v>
@@ -1890,10 +2037,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>127</v>
+        <v>413</v>
       </c>
       <c r="B23">
-        <v>30310</v>
+        <v>200125</v>
       </c>
       <c r="C23" t="s">
         <v>23</v>
@@ -1901,10 +2048,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>133</v>
+        <v>460</v>
       </c>
       <c r="B24">
-        <v>30308</v>
+        <v>200125</v>
       </c>
       <c r="C24" t="s">
         <v>24</v>
@@ -1912,10 +2059,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>151</v>
+        <v>471</v>
       </c>
       <c r="B25">
-        <v>30399</v>
+        <v>200125</v>
       </c>
       <c r="C25" t="s">
         <v>25</v>
@@ -1923,10 +2070,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>153</v>
+        <v>472</v>
       </c>
       <c r="B26">
-        <v>30399</v>
+        <v>200125</v>
       </c>
       <c r="C26" t="s">
         <v>26</v>
@@ -1934,10 +2081,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>154</v>
+        <v>473</v>
       </c>
       <c r="B27">
-        <v>30399</v>
+        <v>200125</v>
       </c>
       <c r="C27" t="s">
         <v>27</v>
@@ -1945,10 +2092,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>155</v>
+        <v>474</v>
       </c>
       <c r="B28">
-        <v>30399</v>
+        <v>200125</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -1956,10 +2103,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>156</v>
+        <v>477</v>
       </c>
       <c r="B29">
-        <v>20199</v>
+        <v>200125</v>
       </c>
       <c r="C29" t="s">
         <v>29</v>
@@ -1967,10 +2114,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>231</v>
+        <v>478</v>
       </c>
       <c r="B30">
-        <v>20199</v>
+        <v>200125</v>
       </c>
       <c r="C30" t="s">
         <v>30</v>
@@ -1978,10 +2125,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>334</v>
+        <v>484</v>
       </c>
       <c r="B31">
-        <v>20199</v>
+        <v>200125</v>
       </c>
       <c r="C31" t="s">
         <v>31</v>
@@ -1989,10 +2136,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>345</v>
+        <v>490</v>
       </c>
       <c r="B32">
-        <v>20199</v>
+        <v>200125</v>
       </c>
       <c r="C32" t="s">
         <v>32</v>
@@ -2000,10 +2147,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>347</v>
+        <v>492</v>
       </c>
       <c r="B33">
-        <v>20199</v>
+        <v>200125</v>
       </c>
       <c r="C33" t="s">
         <v>33</v>
@@ -2011,10 +2158,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>358</v>
+        <v>498</v>
       </c>
       <c r="B34">
-        <v>20199</v>
+        <v>200125</v>
       </c>
       <c r="C34" t="s">
         <v>34</v>
@@ -2022,10 +2169,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>359</v>
+        <v>500</v>
       </c>
       <c r="B35">
-        <v>20199</v>
+        <v>200125</v>
       </c>
       <c r="C35" t="s">
         <v>35</v>
@@ -2033,10 +2180,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>360</v>
+        <v>502</v>
       </c>
       <c r="B36">
-        <v>20199</v>
+        <v>200125</v>
       </c>
       <c r="C36" t="s">
         <v>36</v>
@@ -2044,10 +2191,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>362</v>
+        <v>514</v>
       </c>
       <c r="B37">
-        <v>20199</v>
+        <v>200125</v>
       </c>
       <c r="C37" t="s">
         <v>37</v>
@@ -2055,10 +2202,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>386</v>
+        <v>522</v>
       </c>
       <c r="B38">
-        <v>20199</v>
+        <v>200125</v>
       </c>
       <c r="C38" t="s">
         <v>38</v>
@@ -2066,10 +2213,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>392</v>
+        <v>525</v>
       </c>
       <c r="B39">
-        <v>20199</v>
+        <v>200125</v>
       </c>
       <c r="C39" t="s">
         <v>39</v>
@@ -2077,758 +2224,758 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>393</v>
+        <v>527</v>
       </c>
       <c r="B40">
-        <v>20399</v>
+        <v>200125</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>429</v>
+        <v>531</v>
       </c>
       <c r="B41">
-        <v>20399</v>
+        <v>200125</v>
       </c>
       <c r="C41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>437</v>
+        <v>539</v>
       </c>
       <c r="B42">
-        <v>20399</v>
+        <v>200125</v>
       </c>
       <c r="C42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>441</v>
+        <v>549</v>
       </c>
       <c r="B43">
-        <v>20399</v>
+        <v>200125</v>
       </c>
       <c r="C43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>442</v>
+        <v>557</v>
       </c>
       <c r="B44">
-        <v>20399</v>
+        <v>200125</v>
       </c>
       <c r="C44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>443</v>
+        <v>558</v>
       </c>
       <c r="B45">
-        <v>20399</v>
+        <v>200125</v>
       </c>
       <c r="C45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>460</v>
+        <v>565</v>
       </c>
       <c r="B46">
-        <v>20399</v>
+        <v>200125</v>
       </c>
       <c r="C46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>467</v>
+        <v>571</v>
       </c>
       <c r="B47">
-        <v>20399</v>
+        <v>200125</v>
       </c>
       <c r="C47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>470</v>
+        <v>574</v>
       </c>
       <c r="B48">
-        <v>20399</v>
+        <v>200125</v>
       </c>
       <c r="C48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>489</v>
+        <v>583</v>
       </c>
       <c r="B49">
-        <v>20399</v>
+        <v>200125</v>
       </c>
       <c r="C49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>541</v>
+        <v>584</v>
       </c>
       <c r="B50">
-        <v>20399</v>
+        <v>200125</v>
       </c>
       <c r="C50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>542</v>
+        <v>588</v>
       </c>
       <c r="B51">
-        <v>20399</v>
+        <v>200125</v>
       </c>
       <c r="C51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>545</v>
+        <v>593</v>
       </c>
       <c r="B52">
-        <v>20399</v>
+        <v>200125</v>
       </c>
       <c r="C52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>555</v>
+        <v>599</v>
       </c>
       <c r="B53">
-        <v>20399</v>
+        <v>200125</v>
       </c>
       <c r="C53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>556</v>
+        <v>606</v>
       </c>
       <c r="B54">
-        <v>20399</v>
+        <v>200125</v>
       </c>
       <c r="C54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>564</v>
+        <v>614</v>
       </c>
       <c r="B55">
-        <v>20399</v>
+        <v>200125</v>
       </c>
       <c r="C55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>567</v>
+        <v>616</v>
       </c>
       <c r="B56">
-        <v>20399</v>
+        <v>200125</v>
       </c>
       <c r="C56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>569</v>
+        <v>685</v>
       </c>
       <c r="B57">
-        <v>20399</v>
+        <v>200125</v>
       </c>
       <c r="C57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>571</v>
+        <v>689</v>
       </c>
       <c r="B58">
-        <v>20399</v>
+        <v>200125</v>
       </c>
       <c r="C58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>575</v>
+        <v>690</v>
       </c>
       <c r="B59">
-        <v>20399</v>
+        <v>200125</v>
       </c>
       <c r="C59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>579</v>
+        <v>691</v>
       </c>
       <c r="B60">
-        <v>20399</v>
+        <v>200125</v>
       </c>
       <c r="C60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>580</v>
+        <v>697</v>
       </c>
       <c r="B61">
-        <v>20399</v>
+        <v>200125</v>
       </c>
       <c r="C61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>582</v>
+        <v>699</v>
       </c>
       <c r="B62">
-        <v>20399</v>
+        <v>200125</v>
       </c>
       <c r="C62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>584</v>
+        <v>702</v>
       </c>
       <c r="B63">
-        <v>20399</v>
+        <v>200125</v>
       </c>
       <c r="C63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>587</v>
+        <v>712</v>
       </c>
       <c r="B64">
-        <v>20399</v>
+        <v>200125</v>
       </c>
       <c r="C64" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>588</v>
+        <v>721</v>
       </c>
       <c r="B65">
-        <v>20399</v>
+        <v>200125</v>
       </c>
       <c r="C65" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>593</v>
+        <v>724</v>
       </c>
       <c r="B66">
-        <v>20399</v>
+        <v>200125</v>
       </c>
       <c r="C66" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>594</v>
+        <v>726</v>
       </c>
       <c r="B67">
-        <v>20399</v>
+        <v>200125</v>
       </c>
       <c r="C67" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>596</v>
+        <v>741</v>
       </c>
       <c r="B68">
-        <v>20399</v>
+        <v>200125</v>
       </c>
       <c r="C68" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>601</v>
+        <v>749</v>
       </c>
       <c r="B69">
-        <v>20399</v>
+        <v>30105</v>
       </c>
       <c r="C69" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>613</v>
+        <v>788</v>
       </c>
       <c r="B70">
-        <v>20399</v>
+        <v>30105</v>
       </c>
       <c r="C70" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>621</v>
+        <v>789</v>
       </c>
       <c r="B71">
-        <v>20399</v>
+        <v>30105</v>
       </c>
       <c r="C71" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>627</v>
+        <v>790</v>
       </c>
       <c r="B72">
-        <v>20399</v>
+        <v>30105</v>
       </c>
       <c r="C72" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>638</v>
+        <v>791</v>
       </c>
       <c r="B73">
-        <v>20399</v>
+        <v>30105</v>
       </c>
       <c r="C73" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>644</v>
+        <v>795</v>
       </c>
       <c r="B74">
-        <v>20399</v>
+        <v>30105</v>
       </c>
       <c r="C74" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>653</v>
+        <v>796</v>
       </c>
       <c r="B75">
-        <v>20399</v>
+        <v>30105</v>
       </c>
       <c r="C75" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>654</v>
+        <v>802</v>
       </c>
       <c r="B76">
-        <v>20399</v>
+        <v>30105</v>
       </c>
       <c r="C76" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>666</v>
+        <v>805</v>
       </c>
       <c r="B77">
-        <v>20399</v>
+        <v>30105</v>
       </c>
       <c r="C77" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>667</v>
+        <v>839</v>
       </c>
       <c r="B78">
-        <v>20399</v>
+        <v>30105</v>
       </c>
       <c r="C78" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>676</v>
+        <v>840</v>
       </c>
       <c r="B79">
-        <v>20399</v>
+        <v>30105</v>
       </c>
       <c r="C79" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>678</v>
+        <v>841</v>
       </c>
       <c r="B80">
-        <v>20399</v>
+        <v>30105</v>
       </c>
       <c r="C80" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>682</v>
+        <v>842</v>
       </c>
       <c r="B81">
-        <v>20399</v>
+        <v>30105</v>
       </c>
       <c r="C81" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>683</v>
+        <v>847</v>
       </c>
       <c r="B82">
-        <v>20399</v>
+        <v>30311</v>
       </c>
       <c r="C82" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>686</v>
+        <v>848</v>
       </c>
       <c r="B83">
-        <v>20399</v>
+        <v>30311</v>
       </c>
       <c r="C83" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>688</v>
+        <v>850</v>
       </c>
       <c r="B84">
-        <v>20399</v>
+        <v>30311</v>
       </c>
       <c r="C84" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>693</v>
+        <v>856</v>
       </c>
       <c r="B85">
-        <v>20399</v>
+        <v>30311</v>
       </c>
       <c r="C85" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>699</v>
+        <v>857</v>
       </c>
       <c r="B86">
-        <v>20399</v>
+        <v>30307</v>
       </c>
       <c r="C86" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>701</v>
+        <v>859</v>
       </c>
       <c r="B87">
-        <v>20399</v>
+        <v>30307</v>
       </c>
       <c r="C87" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>704</v>
+        <v>869</v>
       </c>
       <c r="B88">
-        <v>20399</v>
+        <v>30310</v>
       </c>
       <c r="C88" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>705</v>
+        <v>871</v>
       </c>
       <c r="B89">
-        <v>20399</v>
+        <v>30310</v>
       </c>
       <c r="C89" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>709</v>
+        <v>876</v>
       </c>
       <c r="B90">
-        <v>20399</v>
+        <v>30310</v>
       </c>
       <c r="C90" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>711</v>
+        <v>882</v>
       </c>
       <c r="B91">
-        <v>20399</v>
+        <v>30308</v>
       </c>
       <c r="C91" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>712</v>
+        <v>900</v>
       </c>
       <c r="B92">
-        <v>20399</v>
+        <v>30399</v>
       </c>
       <c r="C92" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>715</v>
+        <v>902</v>
       </c>
       <c r="B93">
-        <v>20399</v>
+        <v>30399</v>
       </c>
       <c r="C93" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>723</v>
+        <v>903</v>
       </c>
       <c r="B94">
-        <v>20399</v>
+        <v>30399</v>
       </c>
       <c r="C94" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>737</v>
+        <v>904</v>
       </c>
       <c r="B95">
-        <v>20399</v>
+        <v>30399</v>
       </c>
       <c r="C95" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>744</v>
+        <v>905</v>
       </c>
       <c r="B96">
-        <v>20399</v>
+        <v>20199</v>
       </c>
       <c r="C96" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>745</v>
+        <v>980</v>
       </c>
       <c r="B97">
-        <v>20399</v>
+        <v>20199</v>
       </c>
       <c r="C97" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>758</v>
+        <v>1083</v>
       </c>
       <c r="B98">
-        <v>20399</v>
+        <v>20199</v>
       </c>
       <c r="C98" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>760</v>
+        <v>1094</v>
       </c>
       <c r="B99">
-        <v>20399</v>
+        <v>20199</v>
       </c>
       <c r="C99" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>761</v>
+        <v>1096</v>
       </c>
       <c r="B100">
-        <v>20399</v>
+        <v>20199</v>
       </c>
       <c r="C100" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>767</v>
+        <v>1107</v>
       </c>
       <c r="B101">
-        <v>20399</v>
+        <v>20199</v>
       </c>
       <c r="C101" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>771</v>
+        <v>1108</v>
       </c>
       <c r="B102">
-        <v>20399</v>
+        <v>20199</v>
       </c>
       <c r="C102" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>774</v>
+        <v>1109</v>
       </c>
       <c r="B103">
-        <v>20399</v>
+        <v>20199</v>
       </c>
       <c r="C103" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>776</v>
+        <v>1111</v>
       </c>
       <c r="B104">
-        <v>20399</v>
+        <v>20199</v>
       </c>
       <c r="C104" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>777</v>
+        <v>1135</v>
       </c>
       <c r="B105">
-        <v>20399</v>
+        <v>20199</v>
       </c>
       <c r="C105" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>793</v>
+        <v>1141</v>
       </c>
       <c r="B106">
-        <v>20204</v>
+        <v>20199</v>
       </c>
       <c r="C106" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1">
-        <v>798</v>
+        <v>1142</v>
       </c>
       <c r="B107">
-        <v>20204</v>
+        <v>20399</v>
       </c>
       <c r="C107" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1">
-        <v>803</v>
+        <v>1178</v>
       </c>
       <c r="B108">
-        <v>20204</v>
+        <v>20399</v>
       </c>
       <c r="C108" t="s">
         <v>107</v>
@@ -2836,10 +2983,10 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1">
-        <v>804</v>
+        <v>1186</v>
       </c>
       <c r="B109">
-        <v>20204</v>
+        <v>20399</v>
       </c>
       <c r="C109" t="s">
         <v>108</v>
@@ -2847,10 +2994,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1">
-        <v>1612</v>
+        <v>1190</v>
       </c>
       <c r="B110">
-        <v>20204</v>
+        <v>20399</v>
       </c>
       <c r="C110" t="s">
         <v>109</v>
@@ -2858,10 +3005,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1">
-        <v>1619</v>
+        <v>1191</v>
       </c>
       <c r="B111">
-        <v>20204</v>
+        <v>20399</v>
       </c>
       <c r="C111" t="s">
         <v>110</v>
@@ -2869,10 +3016,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>1622</v>
+        <v>1192</v>
       </c>
       <c r="B112">
-        <v>20204</v>
+        <v>20399</v>
       </c>
       <c r="C112" t="s">
         <v>111</v>
@@ -2880,10 +3027,10 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>1623</v>
+        <v>1209</v>
       </c>
       <c r="B113">
-        <v>20204</v>
+        <v>20399</v>
       </c>
       <c r="C113" t="s">
         <v>112</v>
@@ -2891,10 +3038,10 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>1624</v>
+        <v>1216</v>
       </c>
       <c r="B114">
-        <v>20204</v>
+        <v>20399</v>
       </c>
       <c r="C114" t="s">
         <v>113</v>
@@ -2902,10 +3049,10 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>1625</v>
+        <v>1219</v>
       </c>
       <c r="B115">
-        <v>20204</v>
+        <v>20399</v>
       </c>
       <c r="C115" t="s">
         <v>114</v>
@@ -2913,964 +3060,964 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>1627</v>
+        <v>1238</v>
       </c>
       <c r="B116">
-        <v>20204</v>
+        <v>20399</v>
       </c>
       <c r="C116" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>1628</v>
+        <v>1290</v>
       </c>
       <c r="B117">
-        <v>20501</v>
+        <v>20399</v>
       </c>
       <c r="C117" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>1645</v>
+        <v>1291</v>
       </c>
       <c r="B118">
-        <v>20501</v>
+        <v>20399</v>
       </c>
       <c r="C118" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>1653</v>
+        <v>1294</v>
       </c>
       <c r="B119">
-        <v>20501</v>
+        <v>20399</v>
       </c>
       <c r="C119" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
-        <v>1660</v>
+        <v>1304</v>
       </c>
       <c r="B120">
-        <v>20304</v>
+        <v>20399</v>
       </c>
       <c r="C120" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>1667</v>
+        <v>1305</v>
       </c>
       <c r="B121">
-        <v>20304</v>
+        <v>20399</v>
       </c>
       <c r="C121" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1">
-        <v>1668</v>
+        <v>1313</v>
       </c>
       <c r="B122">
-        <v>20304</v>
+        <v>20399</v>
       </c>
       <c r="C122" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1">
-        <v>1680</v>
+        <v>1316</v>
       </c>
       <c r="B123">
-        <v>20304</v>
+        <v>20399</v>
       </c>
       <c r="C123" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1">
-        <v>1681</v>
+        <v>1318</v>
       </c>
       <c r="B124">
-        <v>20304</v>
+        <v>20399</v>
       </c>
       <c r="C124" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1">
-        <v>1707</v>
+        <v>1320</v>
       </c>
       <c r="B125">
-        <v>20304</v>
+        <v>20399</v>
       </c>
       <c r="C125" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1">
-        <v>1723</v>
+        <v>1324</v>
       </c>
       <c r="B126">
-        <v>20304</v>
+        <v>20399</v>
       </c>
       <c r="C126" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1">
-        <v>1751</v>
+        <v>1328</v>
       </c>
       <c r="B127">
-        <v>20304</v>
+        <v>20399</v>
       </c>
       <c r="C127" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1">
-        <v>1757</v>
+        <v>1329</v>
       </c>
       <c r="B128">
-        <v>20304</v>
+        <v>20399</v>
       </c>
       <c r="C128" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1">
-        <v>1772</v>
+        <v>1331</v>
       </c>
       <c r="B129">
-        <v>20304</v>
+        <v>20399</v>
       </c>
       <c r="C129" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1">
-        <v>1786</v>
+        <v>1333</v>
       </c>
       <c r="B130">
-        <v>20304</v>
+        <v>20399</v>
       </c>
       <c r="C130" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1">
-        <v>1787</v>
+        <v>1336</v>
       </c>
       <c r="B131">
-        <v>20304</v>
+        <v>20399</v>
       </c>
       <c r="C131" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1">
-        <v>1828</v>
+        <v>1337</v>
       </c>
       <c r="B132">
-        <v>20304</v>
+        <v>20399</v>
       </c>
       <c r="C132" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1">
-        <v>1844</v>
+        <v>1342</v>
       </c>
       <c r="B133">
-        <v>20304</v>
+        <v>20399</v>
       </c>
       <c r="C133" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1">
-        <v>1865</v>
+        <v>1343</v>
       </c>
       <c r="B134">
-        <v>20304</v>
+        <v>20399</v>
       </c>
       <c r="C134" t="s">
-        <v>48</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1">
-        <v>1937</v>
+        <v>1345</v>
       </c>
       <c r="B135">
-        <v>20304</v>
+        <v>20399</v>
       </c>
       <c r="C135" t="s">
-        <v>57</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1">
-        <v>2045</v>
+        <v>1350</v>
       </c>
       <c r="B136">
-        <v>20304</v>
+        <v>20399</v>
       </c>
       <c r="C136" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1">
-        <v>2046</v>
+        <v>1362</v>
       </c>
       <c r="B137">
-        <v>20304</v>
+        <v>20399</v>
       </c>
       <c r="C137" t="s">
-        <v>132</v>
+        <v>57</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1">
-        <v>2049</v>
+        <v>1370</v>
       </c>
       <c r="B138">
-        <v>20304</v>
+        <v>20399</v>
       </c>
       <c r="C138" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1">
-        <v>2052</v>
+        <v>1376</v>
       </c>
       <c r="B139">
-        <v>20304</v>
+        <v>20399</v>
       </c>
       <c r="C139" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1">
-        <v>2054</v>
+        <v>1387</v>
       </c>
       <c r="B140">
-        <v>20304</v>
+        <v>20399</v>
       </c>
       <c r="C140" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1">
-        <v>2056</v>
+        <v>1393</v>
       </c>
       <c r="B141">
-        <v>20304</v>
+        <v>20399</v>
       </c>
       <c r="C141" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1">
-        <v>2075</v>
+        <v>1402</v>
       </c>
       <c r="B142">
-        <v>20304</v>
+        <v>20399</v>
       </c>
       <c r="C142" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1">
-        <v>2148</v>
+        <v>1403</v>
       </c>
       <c r="B143">
-        <v>20304</v>
+        <v>20399</v>
       </c>
       <c r="C143" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1">
-        <v>2149</v>
+        <v>1415</v>
       </c>
       <c r="B144">
-        <v>20304</v>
+        <v>20399</v>
       </c>
       <c r="C144" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1">
-        <v>2150</v>
+        <v>1416</v>
       </c>
       <c r="B145">
-        <v>20304</v>
+        <v>20399</v>
       </c>
       <c r="C145" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1">
-        <v>2151</v>
+        <v>1425</v>
       </c>
       <c r="B146">
-        <v>20304</v>
+        <v>20399</v>
       </c>
       <c r="C146" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1">
-        <v>2152</v>
+        <v>1427</v>
       </c>
       <c r="B147">
-        <v>20304</v>
+        <v>20399</v>
       </c>
       <c r="C147" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1">
-        <v>2166</v>
+        <v>1431</v>
       </c>
       <c r="B148">
-        <v>20304</v>
+        <v>20399</v>
       </c>
       <c r="C148" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1">
-        <v>2179</v>
+        <v>1432</v>
       </c>
       <c r="B149">
-        <v>20304</v>
+        <v>20399</v>
       </c>
       <c r="C149" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1">
-        <v>2180</v>
+        <v>1435</v>
       </c>
       <c r="B150">
-        <v>20304</v>
+        <v>20399</v>
       </c>
       <c r="C150" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1">
-        <v>2183</v>
+        <v>1437</v>
       </c>
       <c r="B151">
-        <v>20304</v>
+        <v>20399</v>
       </c>
       <c r="C151" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1">
-        <v>2186</v>
+        <v>1442</v>
       </c>
       <c r="B152">
-        <v>20304</v>
+        <v>20399</v>
       </c>
       <c r="C152" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1">
-        <v>2188</v>
+        <v>1448</v>
       </c>
       <c r="B153">
-        <v>20304</v>
+        <v>20399</v>
       </c>
       <c r="C153" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1">
-        <v>2189</v>
+        <v>1450</v>
       </c>
       <c r="B154">
-        <v>20304</v>
+        <v>20399</v>
       </c>
       <c r="C154" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1">
-        <v>2198</v>
+        <v>1453</v>
       </c>
       <c r="B155">
-        <v>20304</v>
+        <v>20399</v>
       </c>
       <c r="C155" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1">
-        <v>2199</v>
+        <v>1454</v>
       </c>
       <c r="B156">
-        <v>20304</v>
+        <v>20399</v>
       </c>
       <c r="C156" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1">
-        <v>2201</v>
+        <v>1458</v>
       </c>
       <c r="B157">
-        <v>20304</v>
+        <v>20399</v>
       </c>
       <c r="C157" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1">
-        <v>2202</v>
+        <v>1460</v>
       </c>
       <c r="B158">
-        <v>20304</v>
+        <v>20399</v>
       </c>
       <c r="C158" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1">
-        <v>2204</v>
+        <v>1461</v>
       </c>
       <c r="B159">
-        <v>20304</v>
+        <v>20399</v>
       </c>
       <c r="C159" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1">
-        <v>2209</v>
+        <v>1464</v>
       </c>
       <c r="B160">
-        <v>20304</v>
+        <v>20399</v>
       </c>
       <c r="C160" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1">
-        <v>2210</v>
+        <v>1472</v>
       </c>
       <c r="B161">
-        <v>20304</v>
+        <v>20399</v>
       </c>
       <c r="C161" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1">
-        <v>2223</v>
+        <v>1486</v>
       </c>
       <c r="B162">
-        <v>20304</v>
+        <v>20399</v>
       </c>
       <c r="C162" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1">
-        <v>2224</v>
+        <v>1493</v>
       </c>
       <c r="B163">
-        <v>20304</v>
+        <v>20399</v>
       </c>
       <c r="C163" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1">
-        <v>2238</v>
+        <v>1494</v>
       </c>
       <c r="B164">
-        <v>20304</v>
+        <v>20399</v>
       </c>
       <c r="C164" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1">
-        <v>2245</v>
+        <v>1507</v>
       </c>
       <c r="B165">
-        <v>20304</v>
+        <v>20399</v>
       </c>
       <c r="C165" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1">
-        <v>2246</v>
+        <v>1509</v>
       </c>
       <c r="B166">
-        <v>20304</v>
+        <v>20399</v>
       </c>
       <c r="C166" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1">
-        <v>2248</v>
+        <v>1510</v>
       </c>
       <c r="B167">
-        <v>20304</v>
+        <v>20399</v>
       </c>
       <c r="C167" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1">
-        <v>2249</v>
+        <v>1516</v>
       </c>
       <c r="B168">
-        <v>20304</v>
+        <v>20399</v>
       </c>
       <c r="C168" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1">
-        <v>2255</v>
+        <v>1520</v>
       </c>
       <c r="B169">
-        <v>20304</v>
+        <v>20399</v>
       </c>
       <c r="C169" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1">
-        <v>2258</v>
+        <v>1523</v>
       </c>
       <c r="B170">
-        <v>20304</v>
+        <v>20399</v>
       </c>
       <c r="C170" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="1">
-        <v>2261</v>
+        <v>1525</v>
       </c>
       <c r="B171">
-        <v>20304</v>
+        <v>20399</v>
       </c>
       <c r="C171" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="1">
-        <v>2265</v>
+        <v>1526</v>
       </c>
       <c r="B172">
-        <v>20304</v>
+        <v>20399</v>
       </c>
       <c r="C172" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="1">
-        <v>2266</v>
+        <v>1542</v>
       </c>
       <c r="B173">
-        <v>20304</v>
+        <v>20204</v>
       </c>
       <c r="C173" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="1">
-        <v>2267</v>
+        <v>1547</v>
       </c>
       <c r="B174">
-        <v>20304</v>
+        <v>20204</v>
       </c>
       <c r="C174" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="1">
-        <v>2270</v>
+        <v>1552</v>
       </c>
       <c r="B175">
-        <v>20304</v>
+        <v>20204</v>
       </c>
       <c r="C175" t="s">
-        <v>117</v>
+        <v>173</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="1">
-        <v>2278</v>
+        <v>1553</v>
       </c>
       <c r="B176">
-        <v>20304</v>
+        <v>20204</v>
       </c>
       <c r="C176" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="1">
-        <v>2279</v>
+        <v>2361</v>
       </c>
       <c r="B177">
-        <v>20304</v>
+        <v>20204</v>
       </c>
       <c r="C177" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="1">
-        <v>2287</v>
+        <v>2368</v>
       </c>
       <c r="B178">
-        <v>20304</v>
+        <v>20204</v>
       </c>
       <c r="C178" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="1">
-        <v>2292</v>
+        <v>2371</v>
       </c>
       <c r="B179">
-        <v>20304</v>
+        <v>20204</v>
       </c>
       <c r="C179" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="1">
-        <v>2295</v>
+        <v>2372</v>
       </c>
       <c r="B180">
-        <v>20304</v>
+        <v>20204</v>
       </c>
       <c r="C180" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="1">
-        <v>2296</v>
+        <v>2373</v>
       </c>
       <c r="B181">
-        <v>20304</v>
+        <v>20204</v>
       </c>
       <c r="C181" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="1">
-        <v>2302</v>
+        <v>2374</v>
       </c>
       <c r="B182">
-        <v>20304</v>
+        <v>20204</v>
       </c>
       <c r="C182" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="1">
-        <v>2303</v>
+        <v>2376</v>
       </c>
       <c r="B183">
-        <v>20304</v>
+        <v>20204</v>
       </c>
       <c r="C183" t="s">
-        <v>78</v>
+        <v>165</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="1">
-        <v>2306</v>
+        <v>2377</v>
       </c>
       <c r="B184">
-        <v>20304</v>
+        <v>20501</v>
       </c>
       <c r="C184" t="s">
-        <v>177</v>
+        <v>10</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="1">
-        <v>2308</v>
+        <v>2394</v>
       </c>
       <c r="B185">
-        <v>20304</v>
+        <v>20501</v>
       </c>
       <c r="C185" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="1">
-        <v>2312</v>
+        <v>2402</v>
       </c>
       <c r="B186">
-        <v>20304</v>
+        <v>20501</v>
       </c>
       <c r="C186" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="1">
-        <v>2316</v>
+        <v>2409</v>
       </c>
       <c r="B187">
         <v>20304</v>
       </c>
       <c r="C187" t="s">
-        <v>179</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="1">
-        <v>2317</v>
+        <v>2416</v>
       </c>
       <c r="B188">
         <v>20304</v>
       </c>
       <c r="C188" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="1">
-        <v>2318</v>
+        <v>2417</v>
       </c>
       <c r="B189">
         <v>20304</v>
       </c>
       <c r="C189" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="1">
-        <v>2322</v>
+        <v>2429</v>
       </c>
       <c r="B190">
         <v>20304</v>
       </c>
       <c r="C190" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="1">
-        <v>2323</v>
+        <v>2430</v>
       </c>
       <c r="B191">
         <v>20304</v>
       </c>
       <c r="C191" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="1">
-        <v>2325</v>
+        <v>2456</v>
       </c>
       <c r="B192">
         <v>20304</v>
       </c>
       <c r="C192" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="1">
-        <v>2326</v>
+        <v>2472</v>
       </c>
       <c r="B193">
         <v>20304</v>
       </c>
       <c r="C193" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="1">
-        <v>2327</v>
+        <v>2500</v>
       </c>
       <c r="B194">
         <v>20304</v>
       </c>
       <c r="C194" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="1">
-        <v>2328</v>
+        <v>2506</v>
       </c>
       <c r="B195">
         <v>20304</v>
       </c>
       <c r="C195" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="1">
-        <v>2330</v>
+        <v>2521</v>
       </c>
       <c r="B196">
         <v>20304</v>
       </c>
       <c r="C196" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="1">
-        <v>2333</v>
+        <v>2535</v>
       </c>
       <c r="B197">
         <v>20304</v>
       </c>
       <c r="C197" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="1">
-        <v>2334</v>
+        <v>2536</v>
       </c>
       <c r="B198">
         <v>20304</v>
       </c>
       <c r="C198" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="1">
-        <v>2338</v>
+        <v>2577</v>
       </c>
       <c r="B199">
         <v>20304</v>
       </c>
       <c r="C199" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="1">
-        <v>2340</v>
+        <v>2593</v>
       </c>
       <c r="B200">
         <v>20304</v>
       </c>
       <c r="C200" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="1">
-        <v>2343</v>
+        <v>2614</v>
       </c>
       <c r="B201">
         <v>20304</v>
       </c>
       <c r="C201" t="s">
-        <v>193</v>
+        <v>115</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="1">
-        <v>2348</v>
+        <v>2686</v>
       </c>
       <c r="B202">
         <v>20304</v>
       </c>
       <c r="C202" t="s">
-        <v>194</v>
+        <v>124</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="1">
-        <v>2353</v>
+        <v>2794</v>
       </c>
       <c r="B203">
         <v>20304</v>
@@ -3881,7 +4028,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="1">
-        <v>2356</v>
+        <v>2795</v>
       </c>
       <c r="B204">
         <v>20304</v>
@@ -3892,7 +4039,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="1">
-        <v>2360</v>
+        <v>2798</v>
       </c>
       <c r="B205">
         <v>20304</v>
@@ -3903,7 +4050,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="1">
-        <v>2362</v>
+        <v>2801</v>
       </c>
       <c r="B206">
         <v>20304</v>
@@ -3914,7 +4061,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="1">
-        <v>2364</v>
+        <v>2803</v>
       </c>
       <c r="B207">
         <v>20304</v>
@@ -3925,7 +4072,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="1">
-        <v>2373</v>
+        <v>2805</v>
       </c>
       <c r="B208">
         <v>20304</v>
@@ -3936,7 +4083,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="1">
-        <v>2374</v>
+        <v>2824</v>
       </c>
       <c r="B209">
         <v>20304</v>
@@ -3947,7 +4094,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="1">
-        <v>2377</v>
+        <v>2897</v>
       </c>
       <c r="B210">
         <v>20304</v>
@@ -3958,7 +4105,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="1">
-        <v>2380</v>
+        <v>2898</v>
       </c>
       <c r="B211">
         <v>20304</v>
@@ -3969,7 +4116,7 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="1">
-        <v>2386</v>
+        <v>2899</v>
       </c>
       <c r="B212">
         <v>20304</v>
@@ -3980,7 +4127,7 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="1">
-        <v>2387</v>
+        <v>2900</v>
       </c>
       <c r="B213">
         <v>20304</v>
@@ -3991,7 +4138,7 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="1">
-        <v>2389</v>
+        <v>2901</v>
       </c>
       <c r="B214">
         <v>20304</v>
@@ -4002,7 +4149,7 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="1">
-        <v>2390</v>
+        <v>2915</v>
       </c>
       <c r="B215">
         <v>20304</v>
@@ -4013,7 +4160,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="1">
-        <v>2394</v>
+        <v>2928</v>
       </c>
       <c r="B216">
         <v>20304</v>
@@ -4024,7 +4171,7 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="1">
-        <v>2395</v>
+        <v>2929</v>
       </c>
       <c r="B217">
         <v>20304</v>
@@ -4035,282 +4182,282 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="1">
-        <v>2404</v>
+        <v>2932</v>
       </c>
       <c r="B218">
         <v>20304</v>
       </c>
       <c r="C218" t="s">
-        <v>53</v>
+        <v>210</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="1">
-        <v>2406</v>
+        <v>2935</v>
       </c>
       <c r="B219">
         <v>20304</v>
       </c>
       <c r="C219" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="1">
-        <v>2407</v>
+        <v>2937</v>
       </c>
       <c r="B220">
         <v>20304</v>
       </c>
       <c r="C220" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="1">
-        <v>2409</v>
+        <v>2938</v>
       </c>
       <c r="B221">
         <v>20304</v>
       </c>
       <c r="C221" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="1">
-        <v>2410</v>
+        <v>2947</v>
       </c>
       <c r="B222">
         <v>20304</v>
       </c>
       <c r="C222" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="1">
-        <v>2418</v>
+        <v>2948</v>
       </c>
       <c r="B223">
         <v>20304</v>
       </c>
       <c r="C223" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="1">
-        <v>2423</v>
+        <v>2950</v>
       </c>
       <c r="B224">
         <v>20304</v>
       </c>
       <c r="C224" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="1">
-        <v>2431</v>
+        <v>2951</v>
       </c>
       <c r="B225">
         <v>20304</v>
       </c>
       <c r="C225" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="1">
-        <v>2434</v>
+        <v>2953</v>
       </c>
       <c r="B226">
         <v>20304</v>
       </c>
       <c r="C226" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="1">
-        <v>2435</v>
+        <v>2958</v>
       </c>
       <c r="B227">
         <v>20304</v>
       </c>
       <c r="C227" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="1">
-        <v>2437</v>
+        <v>2959</v>
       </c>
       <c r="B228">
         <v>20304</v>
       </c>
       <c r="C228" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="1">
-        <v>2438</v>
+        <v>2972</v>
       </c>
       <c r="B229">
         <v>20304</v>
       </c>
       <c r="C229" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="1">
-        <v>2441</v>
+        <v>2973</v>
       </c>
       <c r="B230">
         <v>20304</v>
       </c>
       <c r="C230" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="1">
-        <v>2447</v>
+        <v>2987</v>
       </c>
       <c r="B231">
         <v>20304</v>
       </c>
       <c r="C231" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="1">
-        <v>2448</v>
+        <v>2994</v>
       </c>
       <c r="B232">
         <v>20304</v>
       </c>
       <c r="C232" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="1">
-        <v>2453</v>
+        <v>2995</v>
       </c>
       <c r="B233">
         <v>20304</v>
       </c>
       <c r="C233" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="1">
-        <v>2455</v>
+        <v>2997</v>
       </c>
       <c r="B234">
         <v>20304</v>
       </c>
       <c r="C234" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="1">
-        <v>2457</v>
+        <v>2998</v>
       </c>
       <c r="B235">
         <v>20304</v>
       </c>
       <c r="C235" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="1">
-        <v>2459</v>
+        <v>3004</v>
       </c>
       <c r="B236">
         <v>20304</v>
       </c>
       <c r="C236" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="1">
-        <v>2463</v>
+        <v>3007</v>
       </c>
       <c r="B237">
         <v>20304</v>
       </c>
       <c r="C237" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="1">
-        <v>2465</v>
+        <v>3010</v>
       </c>
       <c r="B238">
         <v>20304</v>
       </c>
       <c r="C238" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="1">
-        <v>2467</v>
+        <v>3014</v>
       </c>
       <c r="B239">
         <v>20304</v>
       </c>
       <c r="C239" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="1">
-        <v>2472</v>
+        <v>3015</v>
       </c>
       <c r="B240">
         <v>20304</v>
       </c>
       <c r="C240" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="1">
-        <v>2477</v>
+        <v>3016</v>
       </c>
       <c r="B241">
         <v>20304</v>
       </c>
       <c r="C241" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="1">
-        <v>2482</v>
+        <v>3019</v>
       </c>
       <c r="B242">
         <v>20304</v>
       </c>
       <c r="C242" t="s">
-        <v>233</v>
+        <v>39</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="1">
-        <v>2483</v>
+        <v>3027</v>
       </c>
       <c r="B243">
         <v>20304</v>
@@ -4321,7 +4468,7 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="1">
-        <v>2485</v>
+        <v>3028</v>
       </c>
       <c r="B244">
         <v>20304</v>
@@ -4332,7 +4479,7 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="1">
-        <v>2486</v>
+        <v>3036</v>
       </c>
       <c r="B245">
         <v>20304</v>
@@ -4343,7 +4490,7 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="1">
-        <v>2488</v>
+        <v>3041</v>
       </c>
       <c r="B246">
         <v>20304</v>
@@ -4354,7 +4501,7 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="1">
-        <v>2489</v>
+        <v>3044</v>
       </c>
       <c r="B247">
         <v>20304</v>
@@ -4365,7 +4512,7 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="1">
-        <v>2516</v>
+        <v>3045</v>
       </c>
       <c r="B248">
         <v>20304</v>
@@ -4376,7 +4523,7 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="1">
-        <v>2518</v>
+        <v>3051</v>
       </c>
       <c r="B249">
         <v>20304</v>
@@ -4387,318 +4534,318 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="1">
-        <v>2535</v>
+        <v>3052</v>
       </c>
       <c r="B250">
         <v>20304</v>
       </c>
       <c r="C250" t="s">
-        <v>241</v>
+        <v>144</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="1">
-        <v>2537</v>
+        <v>3055</v>
       </c>
       <c r="B251">
         <v>20304</v>
       </c>
       <c r="C251" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="1">
-        <v>2539</v>
+        <v>3057</v>
       </c>
       <c r="B252">
         <v>20304</v>
       </c>
       <c r="C252" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="1">
-        <v>2547</v>
+        <v>3061</v>
       </c>
       <c r="B253">
         <v>20304</v>
       </c>
       <c r="C253" t="s">
-        <v>244</v>
+        <v>57</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="1">
-        <v>2552</v>
+        <v>3065</v>
       </c>
       <c r="B254">
         <v>20304</v>
       </c>
       <c r="C254" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="1">
-        <v>2554</v>
+        <v>3066</v>
       </c>
       <c r="B255">
         <v>20304</v>
       </c>
       <c r="C255" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="1">
-        <v>2557</v>
+        <v>3067</v>
       </c>
       <c r="B256">
         <v>20304</v>
       </c>
       <c r="C256" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="1">
-        <v>2566</v>
+        <v>3071</v>
       </c>
       <c r="B257">
         <v>20304</v>
       </c>
       <c r="C257" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="1">
-        <v>2574</v>
+        <v>3072</v>
       </c>
       <c r="B258">
         <v>20304</v>
       </c>
       <c r="C258" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="1">
-        <v>2575</v>
+        <v>3074</v>
       </c>
       <c r="B259">
         <v>20304</v>
       </c>
       <c r="C259" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="1">
-        <v>2578</v>
+        <v>3075</v>
       </c>
       <c r="B260">
         <v>20304</v>
       </c>
       <c r="C260" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="1">
-        <v>2579</v>
+        <v>3076</v>
       </c>
       <c r="B261">
         <v>20304</v>
       </c>
       <c r="C261" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="1">
-        <v>2580</v>
+        <v>3077</v>
       </c>
       <c r="B262">
         <v>20304</v>
       </c>
       <c r="C262" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="1">
-        <v>2588</v>
+        <v>3079</v>
       </c>
       <c r="B263">
         <v>20304</v>
       </c>
       <c r="C263" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="1">
-        <v>2596</v>
+        <v>3082</v>
       </c>
       <c r="B264">
         <v>20304</v>
       </c>
       <c r="C264" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="1">
-        <v>2598</v>
+        <v>3083</v>
       </c>
       <c r="B265">
         <v>20304</v>
       </c>
       <c r="C265" t="s">
-        <v>95</v>
+        <v>254</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="1">
-        <v>2625</v>
+        <v>3087</v>
       </c>
       <c r="B266">
         <v>20304</v>
       </c>
       <c r="C266" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="1">
-        <v>2628</v>
+        <v>3089</v>
       </c>
       <c r="B267">
         <v>20304</v>
       </c>
       <c r="C267" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="1">
-        <v>2631</v>
+        <v>3092</v>
       </c>
       <c r="B268">
         <v>20304</v>
       </c>
       <c r="C268" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="1">
-        <v>2635</v>
+        <v>3097</v>
       </c>
       <c r="B269">
         <v>20304</v>
       </c>
       <c r="C269" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="1">
-        <v>2636</v>
+        <v>3102</v>
       </c>
       <c r="B270">
         <v>20304</v>
       </c>
       <c r="C270" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="1">
-        <v>2637</v>
+        <v>3105</v>
       </c>
       <c r="B271">
         <v>20304</v>
       </c>
       <c r="C271" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="1">
-        <v>2641</v>
+        <v>3109</v>
       </c>
       <c r="B272">
         <v>20304</v>
       </c>
       <c r="C272" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="1">
-        <v>2643</v>
+        <v>3111</v>
       </c>
       <c r="B273">
         <v>20304</v>
       </c>
       <c r="C273" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="1">
-        <v>2651</v>
+        <v>3113</v>
       </c>
       <c r="B274">
-        <v>20103</v>
+        <v>20304</v>
       </c>
       <c r="C274" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="1">
-        <v>2693</v>
+        <v>3122</v>
       </c>
       <c r="B275">
-        <v>20103</v>
+        <v>20304</v>
       </c>
       <c r="C275" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="1">
-        <v>2711</v>
+        <v>3123</v>
       </c>
       <c r="B276">
-        <v>20103</v>
+        <v>20304</v>
       </c>
       <c r="C276" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="1">
-        <v>2712</v>
+        <v>3126</v>
       </c>
       <c r="B277">
-        <v>20103</v>
+        <v>20304</v>
       </c>
       <c r="C277" t="s">
-        <v>203</v>
+        <v>266</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="1">
-        <v>2717</v>
+        <v>3129</v>
       </c>
       <c r="B278">
-        <v>20103</v>
+        <v>20304</v>
       </c>
       <c r="C278" t="s">
         <v>267</v>
@@ -4706,10 +4853,10 @@
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="1">
-        <v>2721</v>
+        <v>3135</v>
       </c>
       <c r="B279">
-        <v>20103</v>
+        <v>20304</v>
       </c>
       <c r="C279" t="s">
         <v>268</v>
@@ -4717,10 +4864,10 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="1">
-        <v>2746</v>
+        <v>3136</v>
       </c>
       <c r="B280">
-        <v>20103</v>
+        <v>20304</v>
       </c>
       <c r="C280" t="s">
         <v>269</v>
@@ -4728,65 +4875,65 @@
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="1">
-        <v>2776</v>
+        <v>3138</v>
       </c>
       <c r="B281">
-        <v>20103</v>
+        <v>20304</v>
       </c>
       <c r="C281" t="s">
-        <v>29</v>
+        <v>270</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="1">
-        <v>2786</v>
+        <v>3139</v>
       </c>
       <c r="B282">
-        <v>20103</v>
+        <v>20304</v>
       </c>
       <c r="C282" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="1">
-        <v>2827</v>
+        <v>3143</v>
       </c>
       <c r="B283">
-        <v>20103</v>
+        <v>20304</v>
       </c>
       <c r="C283" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="1">
-        <v>2878</v>
+        <v>3144</v>
       </c>
       <c r="B284">
-        <v>20103</v>
+        <v>20304</v>
       </c>
       <c r="C284" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="1">
-        <v>2887</v>
+        <v>3153</v>
       </c>
       <c r="B285">
-        <v>20103</v>
+        <v>20304</v>
       </c>
       <c r="C285" t="s">
-        <v>273</v>
+        <v>120</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="1">
-        <v>2888</v>
+        <v>3155</v>
       </c>
       <c r="B286">
-        <v>20103</v>
+        <v>20304</v>
       </c>
       <c r="C286" t="s">
         <v>274</v>
@@ -4794,10 +4941,10 @@
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="1">
-        <v>2891</v>
+        <v>3156</v>
       </c>
       <c r="B287">
-        <v>20103</v>
+        <v>20304</v>
       </c>
       <c r="C287" t="s">
         <v>275</v>
@@ -4805,10 +4952,10 @@
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="1">
-        <v>2900</v>
+        <v>3158</v>
       </c>
       <c r="B288">
-        <v>20103</v>
+        <v>20304</v>
       </c>
       <c r="C288" t="s">
         <v>276</v>
@@ -4816,10 +4963,10 @@
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="1">
-        <v>2920</v>
+        <v>3159</v>
       </c>
       <c r="B289">
-        <v>20103</v>
+        <v>20304</v>
       </c>
       <c r="C289" t="s">
         <v>277</v>
@@ -4827,538 +4974,538 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="1">
-        <v>2933</v>
+        <v>3167</v>
       </c>
       <c r="B290">
-        <v>20103</v>
+        <v>20304</v>
       </c>
       <c r="C290" t="s">
-        <v>278</v>
+        <v>44</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="1">
-        <v>2935</v>
+        <v>3172</v>
       </c>
       <c r="B291">
-        <v>20103</v>
+        <v>20304</v>
       </c>
       <c r="C291" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="1">
-        <v>2937</v>
+        <v>3180</v>
       </c>
       <c r="B292">
-        <v>20103</v>
+        <v>20304</v>
       </c>
       <c r="C292" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="1">
-        <v>2939</v>
+        <v>3183</v>
       </c>
       <c r="B293">
-        <v>20103</v>
+        <v>20304</v>
       </c>
       <c r="C293" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="1">
-        <v>2942</v>
+        <v>3184</v>
       </c>
       <c r="B294">
-        <v>20103</v>
+        <v>20304</v>
       </c>
       <c r="C294" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="1">
-        <v>2950</v>
+        <v>3186</v>
       </c>
       <c r="B295">
-        <v>20103</v>
+        <v>20304</v>
       </c>
       <c r="C295" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="1">
-        <v>2956</v>
+        <v>3187</v>
       </c>
       <c r="B296">
-        <v>20103</v>
+        <v>20304</v>
       </c>
       <c r="C296" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="1">
-        <v>2964</v>
+        <v>3190</v>
       </c>
       <c r="B297">
-        <v>20103</v>
+        <v>20304</v>
       </c>
       <c r="C297" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="1">
-        <v>2965</v>
+        <v>3196</v>
       </c>
       <c r="B298">
-        <v>20103</v>
+        <v>20304</v>
       </c>
       <c r="C298" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="1">
-        <v>2982</v>
+        <v>3197</v>
       </c>
       <c r="B299">
-        <v>20103</v>
+        <v>20304</v>
       </c>
       <c r="C299" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="1">
-        <v>2984</v>
+        <v>3202</v>
       </c>
       <c r="B300">
-        <v>20103</v>
+        <v>20304</v>
       </c>
       <c r="C300" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="1">
-        <v>2991</v>
+        <v>3204</v>
       </c>
       <c r="B301">
-        <v>20103</v>
+        <v>20304</v>
       </c>
       <c r="C301" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="1">
-        <v>2992</v>
+        <v>3206</v>
       </c>
       <c r="B302">
-        <v>20103</v>
+        <v>20304</v>
       </c>
       <c r="C302" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="1">
-        <v>3003</v>
+        <v>3208</v>
       </c>
       <c r="B303">
-        <v>20103</v>
+        <v>20304</v>
       </c>
       <c r="C303" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="1">
-        <v>3010</v>
+        <v>3212</v>
       </c>
       <c r="B304">
-        <v>20103</v>
+        <v>20304</v>
       </c>
       <c r="C304" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="1">
-        <v>3031</v>
+        <v>3214</v>
       </c>
       <c r="B305">
-        <v>20103</v>
+        <v>20304</v>
       </c>
       <c r="C305" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="1">
-        <v>3032</v>
+        <v>3216</v>
       </c>
       <c r="B306">
-        <v>20103</v>
+        <v>20304</v>
       </c>
       <c r="C306" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="1">
-        <v>3035</v>
+        <v>3221</v>
       </c>
       <c r="B307">
-        <v>20103</v>
+        <v>20304</v>
       </c>
       <c r="C307" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="1">
-        <v>3036</v>
+        <v>3226</v>
       </c>
       <c r="B308">
-        <v>20103</v>
+        <v>20304</v>
       </c>
       <c r="C308" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="1">
-        <v>3040</v>
+        <v>3231</v>
       </c>
       <c r="B309">
-        <v>20103</v>
+        <v>20304</v>
       </c>
       <c r="C309" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="1">
-        <v>3056</v>
+        <v>3232</v>
       </c>
       <c r="B310">
-        <v>20103</v>
+        <v>20304</v>
       </c>
       <c r="C310" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" s="1">
-        <v>3057</v>
+        <v>3234</v>
       </c>
       <c r="B311">
-        <v>20103</v>
+        <v>20304</v>
       </c>
       <c r="C311" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" s="1">
-        <v>3062</v>
+        <v>3235</v>
       </c>
       <c r="B312">
-        <v>20103</v>
+        <v>20304</v>
       </c>
       <c r="C312" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="1">
-        <v>3067</v>
+        <v>3237</v>
       </c>
       <c r="B313">
-        <v>20103</v>
+        <v>20304</v>
       </c>
       <c r="C313" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="1">
-        <v>3071</v>
+        <v>3238</v>
       </c>
       <c r="B314">
-        <v>20103</v>
+        <v>20304</v>
       </c>
       <c r="C314" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="1">
-        <v>3075</v>
+        <v>3265</v>
       </c>
       <c r="B315">
-        <v>20103</v>
+        <v>20304</v>
       </c>
       <c r="C315" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="1">
-        <v>3083</v>
+        <v>3267</v>
       </c>
       <c r="B316">
-        <v>20103</v>
+        <v>20304</v>
       </c>
       <c r="C316" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" s="1">
-        <v>3084</v>
+        <v>3284</v>
       </c>
       <c r="B317">
-        <v>20103</v>
+        <v>20304</v>
       </c>
       <c r="C317" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="1">
-        <v>3120</v>
+        <v>3286</v>
       </c>
       <c r="B318">
-        <v>20103</v>
+        <v>20304</v>
       </c>
       <c r="C318" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="1">
-        <v>3126</v>
+        <v>3288</v>
       </c>
       <c r="B319">
-        <v>20103</v>
+        <v>20304</v>
       </c>
       <c r="C319" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="1">
-        <v>3133</v>
+        <v>3296</v>
       </c>
       <c r="B320">
-        <v>20103</v>
+        <v>20304</v>
       </c>
       <c r="C320" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="1">
-        <v>3134</v>
+        <v>3301</v>
       </c>
       <c r="B321">
-        <v>20103</v>
+        <v>20304</v>
       </c>
       <c r="C321" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="1">
-        <v>3135</v>
+        <v>3303</v>
       </c>
       <c r="B322">
-        <v>20104</v>
+        <v>20304</v>
       </c>
       <c r="C322" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="1">
-        <v>3141</v>
+        <v>3306</v>
       </c>
       <c r="B323">
-        <v>20104</v>
+        <v>20304</v>
       </c>
       <c r="C323" t="s">
-        <v>311</v>
+        <v>54</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="1">
-        <v>3147</v>
+        <v>3315</v>
       </c>
       <c r="B324">
-        <v>20104</v>
+        <v>20304</v>
       </c>
       <c r="C324" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="1">
-        <v>3148</v>
+        <v>3323</v>
       </c>
       <c r="B325">
-        <v>20104</v>
+        <v>20304</v>
       </c>
       <c r="C325" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="1">
-        <v>3150</v>
+        <v>3324</v>
       </c>
       <c r="B326">
-        <v>20104</v>
+        <v>20304</v>
       </c>
       <c r="C326" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="1">
-        <v>3151</v>
+        <v>3327</v>
       </c>
       <c r="B327">
-        <v>20104</v>
+        <v>20304</v>
       </c>
       <c r="C327" t="s">
-        <v>25</v>
+        <v>313</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="1">
-        <v>3152</v>
+        <v>3328</v>
       </c>
       <c r="B328">
-        <v>20104</v>
+        <v>20304</v>
       </c>
       <c r="C328" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" s="1">
-        <v>3162</v>
+        <v>3329</v>
       </c>
       <c r="B329">
-        <v>20104</v>
+        <v>20304</v>
       </c>
       <c r="C329" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="1">
-        <v>3168</v>
+        <v>3337</v>
       </c>
       <c r="B330">
-        <v>20106</v>
+        <v>20304</v>
       </c>
       <c r="C330" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="1">
-        <v>3176</v>
+        <v>3345</v>
       </c>
       <c r="B331">
-        <v>20106</v>
+        <v>20304</v>
       </c>
       <c r="C331" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="1">
-        <v>3177</v>
+        <v>3347</v>
       </c>
       <c r="B332">
-        <v>20106</v>
+        <v>20304</v>
       </c>
       <c r="C332" t="s">
-        <v>319</v>
+        <v>161</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="1">
-        <v>3182</v>
+        <v>3374</v>
       </c>
       <c r="B333">
-        <v>20106</v>
+        <v>20304</v>
       </c>
       <c r="C333" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="1">
-        <v>3188</v>
+        <v>3377</v>
       </c>
       <c r="B334">
-        <v>20106</v>
+        <v>20304</v>
       </c>
       <c r="C334" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="1">
-        <v>3189</v>
+        <v>3380</v>
       </c>
       <c r="B335">
-        <v>20106</v>
+        <v>20304</v>
       </c>
       <c r="C335" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="1">
-        <v>3190</v>
+        <v>3384</v>
       </c>
       <c r="B336">
-        <v>20203</v>
+        <v>20304</v>
       </c>
       <c r="C336" t="s">
-        <v>115</v>
+        <v>321</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="1">
-        <v>3193</v>
+        <v>3385</v>
       </c>
       <c r="B337">
-        <v>20203</v>
+        <v>20304</v>
       </c>
       <c r="C337" t="s">
-        <v>53</v>
+        <v>322</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" s="1">
-        <v>3212</v>
+        <v>3386</v>
       </c>
       <c r="B338">
-        <v>20203</v>
+        <v>20304</v>
       </c>
       <c r="C338" t="s">
         <v>323</v>
@@ -5366,76 +5513,76 @@
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="1">
-        <v>3213</v>
+        <v>3390</v>
       </c>
       <c r="B339">
-        <v>20203</v>
+        <v>20304</v>
       </c>
       <c r="C339" t="s">
-        <v>44</v>
+        <v>324</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="1">
-        <v>3226</v>
+        <v>3392</v>
       </c>
       <c r="B340">
-        <v>20203</v>
+        <v>20304</v>
       </c>
       <c r="C340" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="1">
-        <v>3245</v>
+        <v>3400</v>
       </c>
       <c r="B341">
-        <v>20203</v>
+        <v>20103</v>
       </c>
       <c r="C341" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="1">
-        <v>3248</v>
+        <v>3442</v>
       </c>
       <c r="B342">
-        <v>20203</v>
+        <v>20103</v>
       </c>
       <c r="C342" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="1">
-        <v>3255</v>
+        <v>3460</v>
       </c>
       <c r="B343">
-        <v>20203</v>
+        <v>20103</v>
       </c>
       <c r="C343" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="1">
-        <v>3256</v>
+        <v>3461</v>
       </c>
       <c r="B344">
-        <v>20203</v>
+        <v>20103</v>
       </c>
       <c r="C344" t="s">
-        <v>328</v>
+        <v>267</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="1">
-        <v>3259</v>
+        <v>3466</v>
       </c>
       <c r="B345">
-        <v>20203</v>
+        <v>20103</v>
       </c>
       <c r="C345" t="s">
         <v>329</v>
@@ -5443,10 +5590,10 @@
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="1">
-        <v>3260</v>
+        <v>3470</v>
       </c>
       <c r="B346">
-        <v>20203</v>
+        <v>20103</v>
       </c>
       <c r="C346" t="s">
         <v>330</v>
@@ -5454,10 +5601,10 @@
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="1">
-        <v>3262</v>
+        <v>3495</v>
       </c>
       <c r="B347">
-        <v>20203</v>
+        <v>20103</v>
       </c>
       <c r="C347" t="s">
         <v>331</v>
@@ -5465,1421 +5612,1993 @@
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="1">
-        <v>3263</v>
+        <v>3525</v>
       </c>
       <c r="B348">
-        <v>20203</v>
+        <v>20103</v>
       </c>
       <c r="C348" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="1">
-        <v>3264</v>
+        <v>3535</v>
       </c>
       <c r="B349">
-        <v>20203</v>
+        <v>20103</v>
       </c>
       <c r="C349" t="s">
-        <v>194</v>
+        <v>332</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" s="1">
-        <v>3266</v>
+        <v>3576</v>
       </c>
       <c r="B350">
-        <v>20203</v>
+        <v>20103</v>
       </c>
       <c r="C350" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="1">
-        <v>3269</v>
+        <v>3627</v>
       </c>
       <c r="B351">
-        <v>20203</v>
+        <v>20103</v>
       </c>
       <c r="C351" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="1">
-        <v>3270</v>
+        <v>3636</v>
       </c>
       <c r="B352">
-        <v>20203</v>
+        <v>20103</v>
       </c>
       <c r="C352" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="1">
-        <v>3277</v>
+        <v>3637</v>
       </c>
       <c r="B353">
-        <v>20203</v>
+        <v>20103</v>
       </c>
       <c r="C353" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" s="1">
-        <v>3278</v>
+        <v>3640</v>
       </c>
       <c r="B354">
-        <v>20203</v>
+        <v>20103</v>
       </c>
       <c r="C354" t="s">
-        <v>240</v>
+        <v>337</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="1">
-        <v>3289</v>
+        <v>3649</v>
       </c>
       <c r="B355">
-        <v>20203</v>
+        <v>20103</v>
       </c>
       <c r="C355" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" s="1">
-        <v>3338</v>
+        <v>3669</v>
       </c>
       <c r="B356">
-        <v>20203</v>
+        <v>20103</v>
       </c>
       <c r="C356" t="s">
-        <v>43</v>
+        <v>339</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" s="1">
-        <v>3346</v>
+        <v>3682</v>
       </c>
       <c r="B357">
-        <v>20502</v>
+        <v>20103</v>
       </c>
       <c r="C357" t="s">
-        <v>105</v>
+        <v>340</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="1">
-        <v>3350</v>
+        <v>3684</v>
       </c>
       <c r="B358">
-        <v>20502</v>
+        <v>20103</v>
       </c>
       <c r="C358" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="1">
-        <v>3363</v>
+        <v>3686</v>
       </c>
       <c r="B359">
-        <v>20502</v>
+        <v>20103</v>
       </c>
       <c r="C359" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="1">
-        <v>3373</v>
+        <v>3688</v>
       </c>
       <c r="B360">
-        <v>20502</v>
+        <v>20103</v>
       </c>
       <c r="C360" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" s="1">
-        <v>3474</v>
+        <v>3691</v>
       </c>
       <c r="B361">
-        <v>20502</v>
+        <v>20103</v>
       </c>
       <c r="C361" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" s="1">
-        <v>3485</v>
+        <v>3699</v>
       </c>
       <c r="B362">
-        <v>20599</v>
+        <v>20103</v>
       </c>
       <c r="C362" t="s">
-        <v>31</v>
+        <v>345</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="1">
-        <v>3490</v>
+        <v>3705</v>
       </c>
       <c r="B363">
-        <v>20599</v>
+        <v>20103</v>
       </c>
       <c r="C363" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="1">
-        <v>3491</v>
+        <v>3713</v>
       </c>
       <c r="B364">
-        <v>20305</v>
+        <v>20103</v>
       </c>
       <c r="C364" t="s">
-        <v>105</v>
+        <v>347</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" s="1">
-        <v>3525</v>
+        <v>3714</v>
       </c>
       <c r="B365">
-        <v>20305</v>
+        <v>20103</v>
       </c>
       <c r="C365" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" s="1">
-        <v>3751</v>
+        <v>3731</v>
       </c>
       <c r="B366">
-        <v>20305</v>
+        <v>20103</v>
       </c>
       <c r="C366" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" s="1">
-        <v>3754</v>
+        <v>3733</v>
       </c>
       <c r="B367">
-        <v>20305</v>
+        <v>20103</v>
       </c>
       <c r="C367" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="1">
-        <v>3755</v>
+        <v>3740</v>
       </c>
       <c r="B368">
-        <v>20305</v>
+        <v>20103</v>
       </c>
       <c r="C368" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" s="1">
-        <v>3756</v>
+        <v>3741</v>
       </c>
       <c r="B369">
-        <v>20305</v>
+        <v>20103</v>
       </c>
       <c r="C369" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" s="1">
-        <v>3760</v>
+        <v>3752</v>
       </c>
       <c r="B370">
-        <v>20305</v>
+        <v>20103</v>
       </c>
       <c r="C370" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="1">
-        <v>3767</v>
+        <v>3759</v>
       </c>
       <c r="B371">
-        <v>20305</v>
+        <v>20103</v>
       </c>
       <c r="C371" t="s">
-        <v>109</v>
+        <v>354</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" s="1">
-        <v>3768</v>
+        <v>3780</v>
       </c>
       <c r="B372">
-        <v>20305</v>
+        <v>20103</v>
       </c>
       <c r="C372" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="1">
-        <v>3773</v>
+        <v>3781</v>
       </c>
       <c r="B373">
-        <v>20305</v>
+        <v>20103</v>
       </c>
       <c r="C373" t="s">
-        <v>106</v>
+        <v>356</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" s="1">
-        <v>3776</v>
+        <v>3784</v>
       </c>
       <c r="B374">
-        <v>20305</v>
+        <v>20103</v>
       </c>
       <c r="C374" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" s="1">
-        <v>3780</v>
+        <v>3785</v>
       </c>
       <c r="B375">
-        <v>20305</v>
+        <v>20103</v>
       </c>
       <c r="C375" t="s">
-        <v>107</v>
+        <v>358</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" s="1">
-        <v>3784</v>
+        <v>3789</v>
       </c>
       <c r="B376">
-        <v>20305</v>
+        <v>20103</v>
       </c>
       <c r="C376" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" s="1">
-        <v>3787</v>
+        <v>3805</v>
       </c>
       <c r="B377">
-        <v>20305</v>
+        <v>20103</v>
       </c>
       <c r="C377" t="s">
-        <v>336</v>
+        <v>360</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" s="1">
-        <v>3788</v>
+        <v>3806</v>
       </c>
       <c r="B378">
-        <v>20499</v>
+        <v>20103</v>
       </c>
       <c r="C378" t="s">
-        <v>31</v>
+        <v>361</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" s="1">
-        <v>3790</v>
+        <v>3811</v>
       </c>
       <c r="B379">
-        <v>20499</v>
+        <v>20103</v>
       </c>
       <c r="C379" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" s="1">
-        <v>3792</v>
+        <v>3816</v>
       </c>
       <c r="B380">
-        <v>20499</v>
+        <v>20103</v>
       </c>
       <c r="C380" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" s="1">
-        <v>3798</v>
+        <v>3820</v>
       </c>
       <c r="B381">
-        <v>20499</v>
+        <v>20103</v>
       </c>
       <c r="C381" t="s">
-        <v>25</v>
+        <v>364</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" s="1">
-        <v>3799</v>
+        <v>3824</v>
       </c>
       <c r="B382">
-        <v>20301</v>
+        <v>20103</v>
       </c>
       <c r="C382" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="1">
-        <v>3810</v>
+        <v>3832</v>
       </c>
       <c r="B383">
-        <v>20301</v>
+        <v>20103</v>
       </c>
       <c r="C383" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" s="1">
-        <v>3812</v>
+        <v>3833</v>
       </c>
       <c r="B384">
-        <v>20301</v>
+        <v>20103</v>
       </c>
       <c r="C384" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="1">
-        <v>3818</v>
+        <v>3869</v>
       </c>
       <c r="B385">
-        <v>20301</v>
+        <v>20103</v>
       </c>
       <c r="C385" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" s="1">
-        <v>3819</v>
+        <v>3875</v>
       </c>
       <c r="B386">
-        <v>20301</v>
+        <v>20103</v>
       </c>
       <c r="C386" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="1">
-        <v>3821</v>
+        <v>3882</v>
       </c>
       <c r="B387">
-        <v>20301</v>
+        <v>20103</v>
       </c>
       <c r="C387" t="s">
-        <v>51</v>
+        <v>370</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" s="1">
-        <v>3823</v>
+        <v>3883</v>
       </c>
       <c r="B388">
-        <v>20301</v>
+        <v>20103</v>
       </c>
       <c r="C388" t="s">
-        <v>83</v>
+        <v>371</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="1">
-        <v>3827</v>
+        <v>3884</v>
       </c>
       <c r="B389">
-        <v>20301</v>
+        <v>20104</v>
       </c>
       <c r="C389" t="s">
-        <v>299</v>
+        <v>372</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="1">
-        <v>3828</v>
+        <v>3890</v>
       </c>
       <c r="B390">
-        <v>20301</v>
+        <v>20104</v>
       </c>
       <c r="C390" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="1">
-        <v>3829</v>
+        <v>3896</v>
       </c>
       <c r="B391">
-        <v>20301</v>
+        <v>20104</v>
       </c>
       <c r="C391" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="1">
-        <v>3830</v>
+        <v>3897</v>
       </c>
       <c r="B392">
-        <v>20301</v>
+        <v>20104</v>
       </c>
       <c r="C392" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="1">
-        <v>3831</v>
+        <v>3899</v>
       </c>
       <c r="B393">
-        <v>20301</v>
+        <v>20104</v>
       </c>
       <c r="C393" t="s">
-        <v>69</v>
+        <v>376</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="1">
-        <v>3832</v>
+        <v>3900</v>
       </c>
       <c r="B394">
-        <v>20301</v>
+        <v>20104</v>
       </c>
       <c r="C394" t="s">
-        <v>361</v>
+        <v>92</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="1">
-        <v>3833</v>
+        <v>3901</v>
       </c>
       <c r="B395">
-        <v>20301</v>
+        <v>20104</v>
       </c>
       <c r="C395" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="1">
-        <v>3835</v>
+        <v>3911</v>
       </c>
       <c r="B396">
-        <v>20301</v>
+        <v>20104</v>
       </c>
       <c r="C396" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="1">
-        <v>3838</v>
+        <v>3917</v>
       </c>
       <c r="B397">
-        <v>20301</v>
+        <v>20106</v>
       </c>
       <c r="C397" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" s="1">
-        <v>3840</v>
+        <v>3925</v>
       </c>
       <c r="B398">
-        <v>20301</v>
+        <v>20106</v>
       </c>
       <c r="C398" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="1">
-        <v>3843</v>
+        <v>3926</v>
       </c>
       <c r="B399">
-        <v>20301</v>
+        <v>20106</v>
       </c>
       <c r="C399" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" s="1">
-        <v>3844</v>
+        <v>3931</v>
       </c>
       <c r="B400">
-        <v>20301</v>
+        <v>20106</v>
       </c>
       <c r="C400" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401" s="1">
-        <v>3845</v>
+        <v>3937</v>
       </c>
       <c r="B401">
-        <v>20705</v>
+        <v>20106</v>
       </c>
       <c r="C401" t="s">
-        <v>105</v>
+        <v>383</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402" s="1">
-        <v>3846</v>
+        <v>3938</v>
       </c>
       <c r="B402">
-        <v>20705</v>
+        <v>20106</v>
       </c>
       <c r="C402" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="1">
-        <v>3854</v>
+        <v>3939</v>
       </c>
       <c r="B403">
-        <v>20704</v>
+        <v>20203</v>
       </c>
       <c r="C403" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404" s="1">
-        <v>3880</v>
+        <v>3942</v>
       </c>
       <c r="B404">
-        <v>20704</v>
+        <v>20203</v>
       </c>
       <c r="C404" t="s">
-        <v>369</v>
+        <v>120</v>
       </c>
     </row>
     <row r="405" spans="1:3">
       <c r="A405" s="1">
-        <v>3893</v>
+        <v>3961</v>
       </c>
       <c r="B405">
-        <v>20704</v>
+        <v>20203</v>
       </c>
       <c r="C405" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="A406" s="1">
-        <v>3902</v>
+        <v>3962</v>
       </c>
       <c r="B406">
-        <v>20704</v>
+        <v>20203</v>
       </c>
       <c r="C406" t="s">
-        <v>371</v>
+        <v>111</v>
       </c>
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="1">
-        <v>3903</v>
+        <v>3975</v>
       </c>
       <c r="B407">
-        <v>20704</v>
+        <v>20203</v>
       </c>
       <c r="C407" t="s">
-        <v>162</v>
+        <v>386</v>
       </c>
     </row>
     <row r="408" spans="1:3">
       <c r="A408" s="1">
-        <v>3904</v>
+        <v>3994</v>
       </c>
       <c r="B408">
-        <v>20704</v>
+        <v>20203</v>
       </c>
       <c r="C408" t="s">
-        <v>163</v>
+        <v>387</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="1">
-        <v>3909</v>
+        <v>3997</v>
       </c>
       <c r="B409">
-        <v>20704</v>
+        <v>20203</v>
       </c>
       <c r="C409" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
     </row>
     <row r="410" spans="1:3">
       <c r="A410" s="1">
-        <v>3915</v>
+        <v>4004</v>
       </c>
       <c r="B410">
-        <v>20704</v>
+        <v>20203</v>
       </c>
       <c r="C410" t="s">
-        <v>160</v>
+        <v>389</v>
       </c>
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="1">
-        <v>3916</v>
+        <v>4005</v>
       </c>
       <c r="B411">
-        <v>20704</v>
+        <v>20203</v>
       </c>
       <c r="C411" t="s">
-        <v>169</v>
+        <v>390</v>
       </c>
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="1">
-        <v>3917</v>
+        <v>4008</v>
       </c>
       <c r="B412">
-        <v>20704</v>
+        <v>20203</v>
       </c>
       <c r="C412" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="1">
-        <v>3919</v>
+        <v>4009</v>
       </c>
       <c r="B413">
-        <v>20704</v>
+        <v>20203</v>
       </c>
       <c r="C413" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="1">
-        <v>3938</v>
+        <v>4011</v>
       </c>
       <c r="B414">
-        <v>20704</v>
+        <v>20203</v>
       </c>
       <c r="C414" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="1">
-        <v>3943</v>
+        <v>4012</v>
       </c>
       <c r="B415">
-        <v>20704</v>
+        <v>20203</v>
       </c>
       <c r="C415" t="s">
-        <v>117</v>
+        <v>39</v>
       </c>
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="1">
-        <v>3963</v>
+        <v>4013</v>
       </c>
       <c r="B416">
-        <v>20704</v>
+        <v>20203</v>
       </c>
       <c r="C416" t="s">
-        <v>376</v>
+        <v>258</v>
       </c>
     </row>
     <row r="417" spans="1:3">
       <c r="A417" s="1">
-        <v>3964</v>
+        <v>4015</v>
       </c>
       <c r="B417">
-        <v>20704</v>
+        <v>20203</v>
       </c>
       <c r="C417" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="1">
-        <v>3965</v>
+        <v>4018</v>
       </c>
       <c r="B418">
-        <v>20704</v>
+        <v>20203</v>
       </c>
       <c r="C418" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="1">
-        <v>3968</v>
+        <v>4019</v>
       </c>
       <c r="B419">
-        <v>20704</v>
+        <v>20203</v>
       </c>
       <c r="C419" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="1">
-        <v>3972</v>
+        <v>4026</v>
       </c>
       <c r="B420">
-        <v>20704</v>
+        <v>20203</v>
       </c>
       <c r="C420" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="1">
-        <v>3973</v>
+        <v>4027</v>
       </c>
       <c r="B421">
-        <v>20601</v>
+        <v>20203</v>
       </c>
       <c r="C421" t="s">
-        <v>115</v>
+        <v>303</v>
       </c>
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="1">
-        <v>3974</v>
+        <v>4038</v>
       </c>
       <c r="B422">
-        <v>20601</v>
+        <v>20203</v>
       </c>
       <c r="C422" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="1">
-        <v>4020</v>
+        <v>4087</v>
       </c>
       <c r="B423">
-        <v>20601</v>
+        <v>20203</v>
       </c>
       <c r="C423" t="s">
-        <v>382</v>
+        <v>110</v>
       </c>
     </row>
     <row r="424" spans="1:3">
       <c r="A424" s="1">
-        <v>4034</v>
+        <v>4095</v>
       </c>
       <c r="B424">
-        <v>20202</v>
+        <v>20502</v>
       </c>
       <c r="C424" t="s">
-        <v>383</v>
+        <v>171</v>
       </c>
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="1">
-        <v>4038</v>
+        <v>4099</v>
       </c>
       <c r="B425">
-        <v>20202</v>
+        <v>20502</v>
       </c>
       <c r="C425" t="s">
-        <v>336</v>
+        <v>399</v>
       </c>
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="1">
-        <v>4041</v>
+        <v>4112</v>
       </c>
       <c r="B426">
-        <v>20107</v>
+        <v>20502</v>
       </c>
       <c r="C426" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="1">
-        <v>4042</v>
+        <v>4122</v>
       </c>
       <c r="B427">
-        <v>20107</v>
+        <v>20502</v>
       </c>
       <c r="C427" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="1">
-        <v>4053</v>
+        <v>4223</v>
       </c>
       <c r="B428">
-        <v>20107</v>
+        <v>20502</v>
       </c>
       <c r="C428" t="s">
-        <v>29</v>
+        <v>402</v>
       </c>
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="1">
-        <v>4054</v>
+        <v>4234</v>
       </c>
       <c r="B429">
-        <v>20107</v>
+        <v>20599</v>
       </c>
       <c r="C429" t="s">
-        <v>385</v>
+        <v>98</v>
       </c>
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="1">
-        <v>4055</v>
+        <v>4239</v>
       </c>
       <c r="B430">
-        <v>20107</v>
+        <v>20599</v>
       </c>
       <c r="C430" t="s">
-        <v>288</v>
+        <v>403</v>
       </c>
     </row>
     <row r="431" spans="1:3">
       <c r="A431" s="1">
-        <v>4078</v>
+        <v>4240</v>
       </c>
       <c r="B431">
-        <v>20101</v>
+        <v>20305</v>
       </c>
       <c r="C431" t="s">
-        <v>386</v>
+        <v>171</v>
       </c>
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="1">
-        <v>4079</v>
+        <v>4274</v>
       </c>
       <c r="B432">
-        <v>20108</v>
+        <v>20305</v>
       </c>
       <c r="C432" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="1">
-        <v>4116</v>
+        <v>4500</v>
       </c>
       <c r="B433">
-        <v>20108</v>
+        <v>20305</v>
       </c>
       <c r="C433" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="1">
-        <v>4118</v>
+        <v>4503</v>
       </c>
       <c r="B434">
-        <v>20108</v>
+        <v>20305</v>
       </c>
       <c r="C434" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="1">
-        <v>4121</v>
+        <v>4504</v>
       </c>
       <c r="B435">
-        <v>20108</v>
+        <v>20305</v>
       </c>
       <c r="C435" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="1">
-        <v>4156</v>
+        <v>4505</v>
       </c>
       <c r="B436">
-        <v>20108</v>
+        <v>20305</v>
       </c>
       <c r="C436" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="1">
-        <v>4162</v>
+        <v>4509</v>
       </c>
       <c r="B437">
-        <v>20108</v>
+        <v>20305</v>
       </c>
       <c r="C437" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="1">
-        <v>4193</v>
+        <v>4516</v>
       </c>
       <c r="B438">
-        <v>20108</v>
+        <v>20305</v>
       </c>
       <c r="C438" t="s">
-        <v>393</v>
+        <v>175</v>
       </c>
     </row>
     <row r="439" spans="1:3">
       <c r="A439" s="1">
-        <v>4215</v>
+        <v>4517</v>
       </c>
       <c r="B439">
-        <v>20108</v>
+        <v>20305</v>
       </c>
       <c r="C439" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="1">
-        <v>4219</v>
+        <v>4522</v>
       </c>
       <c r="B440">
-        <v>20108</v>
+        <v>20305</v>
       </c>
       <c r="C440" t="s">
-        <v>395</v>
+        <v>172</v>
       </c>
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="1">
-        <v>4220</v>
+        <v>4525</v>
       </c>
       <c r="B441">
-        <v>20108</v>
+        <v>20305</v>
       </c>
       <c r="C441" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="1">
-        <v>4254</v>
+        <v>4529</v>
       </c>
       <c r="B442">
-        <v>20108</v>
+        <v>20305</v>
       </c>
       <c r="C442" t="s">
-        <v>397</v>
+        <v>173</v>
       </c>
     </row>
     <row r="443" spans="1:3">
       <c r="A443" s="1">
-        <v>4265</v>
+        <v>4533</v>
       </c>
       <c r="B443">
-        <v>20108</v>
+        <v>20305</v>
       </c>
       <c r="C443" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="1">
-        <v>4297</v>
+        <v>4536</v>
       </c>
       <c r="B444">
-        <v>20108</v>
+        <v>20305</v>
       </c>
       <c r="C444" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="445" spans="1:3">
       <c r="A445" s="1">
-        <v>4325</v>
+        <v>4537</v>
       </c>
       <c r="B445">
-        <v>20108</v>
+        <v>20499</v>
       </c>
       <c r="C445" t="s">
-        <v>400</v>
+        <v>98</v>
       </c>
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="1">
-        <v>4329</v>
+        <v>4539</v>
       </c>
       <c r="B446">
-        <v>40109</v>
+        <v>20499</v>
       </c>
       <c r="C446" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="1">
-        <v>4330</v>
+        <v>4541</v>
       </c>
       <c r="B447">
-        <v>40109</v>
+        <v>20499</v>
       </c>
       <c r="C447" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
     </row>
     <row r="448" spans="1:3">
       <c r="A448" s="1">
-        <v>4331</v>
+        <v>4547</v>
       </c>
       <c r="B448">
-        <v>40222</v>
+        <v>20499</v>
       </c>
       <c r="C448" t="s">
-        <v>403</v>
+        <v>92</v>
       </c>
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="1">
-        <v>4332</v>
+        <v>4548</v>
       </c>
       <c r="B449">
-        <v>40209</v>
+        <v>20301</v>
       </c>
       <c r="C449" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
     </row>
     <row r="450" spans="1:3">
       <c r="A450" s="1">
-        <v>4337</v>
+        <v>4559</v>
       </c>
       <c r="B450">
-        <v>40209</v>
+        <v>20301</v>
       </c>
       <c r="C450" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="1">
-        <v>4338</v>
+        <v>4561</v>
       </c>
       <c r="B451">
-        <v>40209</v>
+        <v>20301</v>
       </c>
       <c r="C451" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
     </row>
     <row r="452" spans="1:3">
       <c r="A452" s="1">
-        <v>4339</v>
+        <v>4567</v>
       </c>
       <c r="B452">
-        <v>20102</v>
+        <v>20301</v>
       </c>
       <c r="C452" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
     </row>
     <row r="453" spans="1:3">
       <c r="A453" s="1">
-        <v>4365</v>
+        <v>4568</v>
       </c>
       <c r="B453">
-        <v>20102</v>
+        <v>20301</v>
       </c>
       <c r="C453" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
     </row>
     <row r="454" spans="1:3">
       <c r="A454" s="1">
-        <v>4367</v>
+        <v>4570</v>
       </c>
       <c r="B454">
-        <v>20699</v>
+        <v>20301</v>
       </c>
       <c r="C454" t="s">
-        <v>408</v>
+        <v>118</v>
       </c>
     </row>
     <row r="455" spans="1:3">
       <c r="A455" s="1">
-        <v>4369</v>
+        <v>4572</v>
       </c>
       <c r="B455">
-        <v>20299</v>
+        <v>20301</v>
       </c>
       <c r="C455" t="s">
-        <v>31</v>
+        <v>149</v>
       </c>
     </row>
     <row r="456" spans="1:3">
       <c r="A456" s="1">
-        <v>4371</v>
+        <v>4576</v>
       </c>
       <c r="B456">
-        <v>20299</v>
+        <v>20301</v>
       </c>
       <c r="C456" t="s">
-        <v>76</v>
+        <v>361</v>
       </c>
     </row>
     <row r="457" spans="1:3">
       <c r="A457" s="1">
-        <v>4374</v>
+        <v>4577</v>
       </c>
       <c r="B457">
-        <v>20299</v>
+        <v>20301</v>
       </c>
       <c r="C457" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
     </row>
     <row r="458" spans="1:3">
       <c r="A458" s="1">
-        <v>4375</v>
+        <v>4578</v>
       </c>
       <c r="B458">
-        <v>20299</v>
+        <v>20301</v>
       </c>
       <c r="C458" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
     </row>
     <row r="459" spans="1:3">
       <c r="A459" s="1">
-        <v>4377</v>
+        <v>4579</v>
       </c>
       <c r="B459">
-        <v>20799</v>
+        <v>20301</v>
       </c>
       <c r="C459" t="s">
-        <v>138</v>
+        <v>422</v>
       </c>
     </row>
     <row r="460" spans="1:3">
       <c r="A460" s="1">
-        <v>4378</v>
+        <v>4580</v>
       </c>
       <c r="B460">
-        <v>20109</v>
+        <v>20301</v>
       </c>
       <c r="C460" t="s">
-        <v>411</v>
+        <v>57</v>
       </c>
     </row>
     <row r="461" spans="1:3">
       <c r="A461" s="1">
-        <v>4381</v>
+        <v>4581</v>
       </c>
       <c r="B461">
-        <v>20109</v>
+        <v>20301</v>
       </c>
       <c r="C461" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
     </row>
     <row r="462" spans="1:3">
       <c r="A462" s="1">
-        <v>4419</v>
+        <v>4582</v>
       </c>
       <c r="B462">
-        <v>20603</v>
+        <v>20301</v>
       </c>
       <c r="C462" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
     </row>
     <row r="463" spans="1:3">
       <c r="A463" s="1">
-        <v>4519</v>
+        <v>4584</v>
       </c>
       <c r="B463">
-        <v>20603</v>
+        <v>20301</v>
       </c>
       <c r="C463" t="s">
-        <v>105</v>
+        <v>425</v>
       </c>
     </row>
     <row r="464" spans="1:3">
       <c r="A464" s="1">
-        <v>4579</v>
+        <v>4587</v>
       </c>
       <c r="B464">
-        <v>20201</v>
+        <v>20301</v>
       </c>
       <c r="C464" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
     </row>
     <row r="465" spans="1:3">
       <c r="A465" s="1">
-        <v>4580</v>
+        <v>4589</v>
       </c>
       <c r="B465">
-        <v>20201</v>
+        <v>20301</v>
       </c>
       <c r="C465" t="s">
-        <v>106</v>
+        <v>427</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466" s="1">
-        <v>4584</v>
+        <v>4592</v>
       </c>
       <c r="B466">
-        <v>40220</v>
+        <v>20301</v>
       </c>
       <c r="C466" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
     </row>
     <row r="467" spans="1:3">
       <c r="A467" s="1">
-        <v>4590</v>
+        <v>4593</v>
       </c>
       <c r="B467">
-        <v>40220</v>
+        <v>20301</v>
       </c>
       <c r="C467" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
     </row>
     <row r="468" spans="1:3">
       <c r="A468" s="1">
-        <v>4603</v>
+        <v>4594</v>
       </c>
       <c r="B468">
-        <v>40220</v>
+        <v>20705</v>
       </c>
       <c r="C468" t="s">
-        <v>417</v>
+        <v>171</v>
       </c>
     </row>
     <row r="469" spans="1:3">
       <c r="A469" s="1">
-        <v>4613</v>
+        <v>4595</v>
       </c>
       <c r="B469">
-        <v>40220</v>
+        <v>20705</v>
       </c>
       <c r="C469" t="s">
-        <v>106</v>
+        <v>430</v>
       </c>
     </row>
     <row r="470" spans="1:3">
       <c r="A470" s="1">
-        <v>4614</v>
+        <v>4603</v>
       </c>
       <c r="B470">
-        <v>40106</v>
+        <v>20704</v>
       </c>
       <c r="C470" t="s">
-        <v>416</v>
+        <v>10</v>
       </c>
     </row>
     <row r="471" spans="1:3">
       <c r="A471" s="1">
-        <v>4615</v>
+        <v>4629</v>
       </c>
       <c r="B471">
-        <v>40102</v>
+        <v>20704</v>
       </c>
       <c r="C471" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
     </row>
     <row r="472" spans="1:3">
       <c r="A472" s="1">
-        <v>4619</v>
+        <v>4642</v>
       </c>
       <c r="B472">
-        <v>20110</v>
+        <v>20704</v>
       </c>
       <c r="C472" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
     </row>
     <row r="473" spans="1:3">
       <c r="A473" s="1">
-        <v>4620</v>
+        <v>4651</v>
       </c>
       <c r="B473">
-        <v>40216</v>
+        <v>20704</v>
       </c>
       <c r="C473" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
     </row>
     <row r="474" spans="1:3">
       <c r="A474" s="1">
-        <v>4642</v>
+        <v>4652</v>
       </c>
       <c r="B474">
-        <v>40219</v>
+        <v>20704</v>
       </c>
       <c r="C474" t="s">
-        <v>421</v>
+        <v>226</v>
       </c>
     </row>
     <row r="475" spans="1:3">
       <c r="A475" s="1">
-        <v>4645</v>
+        <v>4653</v>
       </c>
       <c r="B475">
-        <v>40214</v>
+        <v>20704</v>
       </c>
       <c r="C475" t="s">
-        <v>422</v>
+        <v>227</v>
       </c>
     </row>
     <row r="476" spans="1:3">
       <c r="A476" s="1">
-        <v>4652</v>
+        <v>4658</v>
       </c>
       <c r="B476">
+        <v>20704</v>
+      </c>
+      <c r="C476" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="A477" s="1">
+        <v>4664</v>
+      </c>
+      <c r="B477">
+        <v>20704</v>
+      </c>
+      <c r="C477" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
+      <c r="A478" s="1">
+        <v>4665</v>
+      </c>
+      <c r="B478">
+        <v>20704</v>
+      </c>
+      <c r="C478" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
+      <c r="A479" s="1">
+        <v>4666</v>
+      </c>
+      <c r="B479">
+        <v>20704</v>
+      </c>
+      <c r="C479" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
+      <c r="A480" s="1">
+        <v>4668</v>
+      </c>
+      <c r="B480">
+        <v>20704</v>
+      </c>
+      <c r="C480" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3">
+      <c r="A481" s="1">
+        <v>4687</v>
+      </c>
+      <c r="B481">
+        <v>20704</v>
+      </c>
+      <c r="C481" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
+      <c r="A482" s="1">
+        <v>4692</v>
+      </c>
+      <c r="B482">
+        <v>20704</v>
+      </c>
+      <c r="C482" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
+      <c r="A483" s="1">
+        <v>4712</v>
+      </c>
+      <c r="B483">
+        <v>20704</v>
+      </c>
+      <c r="C483" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3">
+      <c r="A484" s="1">
+        <v>4713</v>
+      </c>
+      <c r="B484">
+        <v>20704</v>
+      </c>
+      <c r="C484" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3">
+      <c r="A485" s="1">
+        <v>4714</v>
+      </c>
+      <c r="B485">
+        <v>20704</v>
+      </c>
+      <c r="C485" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
+      <c r="A486" s="1">
+        <v>4717</v>
+      </c>
+      <c r="B486">
+        <v>20704</v>
+      </c>
+      <c r="C486" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3">
+      <c r="A487" s="1">
+        <v>4721</v>
+      </c>
+      <c r="B487">
+        <v>20704</v>
+      </c>
+      <c r="C487" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3">
+      <c r="A488" s="1">
+        <v>4722</v>
+      </c>
+      <c r="B488">
+        <v>20601</v>
+      </c>
+      <c r="C488" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
+      <c r="A489" s="1">
+        <v>4723</v>
+      </c>
+      <c r="B489">
+        <v>20601</v>
+      </c>
+      <c r="C489" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
+      <c r="A490" s="1">
+        <v>4769</v>
+      </c>
+      <c r="B490">
+        <v>20601</v>
+      </c>
+      <c r="C490" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
+      <c r="A491" s="1">
+        <v>4783</v>
+      </c>
+      <c r="B491">
+        <v>20202</v>
+      </c>
+      <c r="C491" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
+      <c r="A492" s="1">
+        <v>4787</v>
+      </c>
+      <c r="B492">
+        <v>20202</v>
+      </c>
+      <c r="C492" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3">
+      <c r="A493" s="1">
+        <v>4790</v>
+      </c>
+      <c r="B493">
+        <v>20107</v>
+      </c>
+      <c r="C493" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3">
+      <c r="A494" s="1">
+        <v>4791</v>
+      </c>
+      <c r="B494">
+        <v>20107</v>
+      </c>
+      <c r="C494" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3">
+      <c r="A495" s="1">
+        <v>4802</v>
+      </c>
+      <c r="B495">
+        <v>20107</v>
+      </c>
+      <c r="C495" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3">
+      <c r="A496" s="1">
+        <v>4803</v>
+      </c>
+      <c r="B496">
+        <v>20107</v>
+      </c>
+      <c r="C496" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="A497" s="1">
+        <v>4804</v>
+      </c>
+      <c r="B497">
+        <v>20107</v>
+      </c>
+      <c r="C497" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3">
+      <c r="A498" s="1">
+        <v>4827</v>
+      </c>
+      <c r="B498">
+        <v>20101</v>
+      </c>
+      <c r="C498" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3">
+      <c r="A499" s="1">
+        <v>4828</v>
+      </c>
+      <c r="B499">
+        <v>20108</v>
+      </c>
+      <c r="C499" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3">
+      <c r="A500" s="1">
+        <v>4865</v>
+      </c>
+      <c r="B500">
+        <v>20108</v>
+      </c>
+      <c r="C500" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3">
+      <c r="A501" s="1">
+        <v>4867</v>
+      </c>
+      <c r="B501">
+        <v>20108</v>
+      </c>
+      <c r="C501" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3">
+      <c r="A502" s="1">
+        <v>4870</v>
+      </c>
+      <c r="B502">
+        <v>20108</v>
+      </c>
+      <c r="C502" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3">
+      <c r="A503" s="1">
+        <v>4905</v>
+      </c>
+      <c r="B503">
+        <v>20108</v>
+      </c>
+      <c r="C503" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3">
+      <c r="A504" s="1">
+        <v>4911</v>
+      </c>
+      <c r="B504">
+        <v>20108</v>
+      </c>
+      <c r="C504" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3">
+      <c r="A505" s="1">
+        <v>4942</v>
+      </c>
+      <c r="B505">
+        <v>20108</v>
+      </c>
+      <c r="C505" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3">
+      <c r="A506" s="1">
+        <v>4964</v>
+      </c>
+      <c r="B506">
+        <v>20108</v>
+      </c>
+      <c r="C506" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3">
+      <c r="A507" s="1">
+        <v>4968</v>
+      </c>
+      <c r="B507">
+        <v>20108</v>
+      </c>
+      <c r="C507" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3">
+      <c r="A508" s="1">
+        <v>4969</v>
+      </c>
+      <c r="B508">
+        <v>20108</v>
+      </c>
+      <c r="C508" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3">
+      <c r="A509" s="1">
+        <v>5003</v>
+      </c>
+      <c r="B509">
+        <v>20108</v>
+      </c>
+      <c r="C509" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3">
+      <c r="A510" s="1">
+        <v>5014</v>
+      </c>
+      <c r="B510">
+        <v>20108</v>
+      </c>
+      <c r="C510" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3">
+      <c r="A511" s="1">
+        <v>5046</v>
+      </c>
+      <c r="B511">
+        <v>20108</v>
+      </c>
+      <c r="C511" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3">
+      <c r="A512" s="1">
+        <v>5074</v>
+      </c>
+      <c r="B512">
+        <v>20108</v>
+      </c>
+      <c r="C512" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3">
+      <c r="A513" s="1">
+        <v>5078</v>
+      </c>
+      <c r="B513">
+        <v>20102</v>
+      </c>
+      <c r="C513" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3">
+      <c r="A514" s="1">
+        <v>5104</v>
+      </c>
+      <c r="B514">
+        <v>20102</v>
+      </c>
+      <c r="C514" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3">
+      <c r="A515" s="1">
+        <v>5106</v>
+      </c>
+      <c r="B515">
+        <v>20699</v>
+      </c>
+      <c r="C515" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3">
+      <c r="A516" s="1">
+        <v>5108</v>
+      </c>
+      <c r="B516">
+        <v>20299</v>
+      </c>
+      <c r="C516" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3">
+      <c r="A517" s="1">
+        <v>5110</v>
+      </c>
+      <c r="B517">
+        <v>20299</v>
+      </c>
+      <c r="C517" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3">
+      <c r="A518" s="1">
+        <v>5113</v>
+      </c>
+      <c r="B518">
+        <v>20299</v>
+      </c>
+      <c r="C518" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3">
+      <c r="A519" s="1">
+        <v>5114</v>
+      </c>
+      <c r="B519">
+        <v>20299</v>
+      </c>
+      <c r="C519" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3">
+      <c r="A520" s="1">
+        <v>5116</v>
+      </c>
+      <c r="B520">
+        <v>20799</v>
+      </c>
+      <c r="C520" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3">
+      <c r="A521" s="1">
+        <v>5117</v>
+      </c>
+      <c r="B521">
+        <v>20109</v>
+      </c>
+      <c r="C521" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3">
+      <c r="A522" s="1">
+        <v>5120</v>
+      </c>
+      <c r="B522">
+        <v>20109</v>
+      </c>
+      <c r="C522" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3">
+      <c r="A523" s="1">
+        <v>5158</v>
+      </c>
+      <c r="B523">
+        <v>20603</v>
+      </c>
+      <c r="C523" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3">
+      <c r="A524" s="1">
+        <v>5258</v>
+      </c>
+      <c r="B524">
+        <v>20603</v>
+      </c>
+      <c r="C524" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3">
+      <c r="A525" s="1">
+        <v>5318</v>
+      </c>
+      <c r="B525">
+        <v>20201</v>
+      </c>
+      <c r="C525" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3">
+      <c r="A526" s="1">
+        <v>5319</v>
+      </c>
+      <c r="B526">
+        <v>20201</v>
+      </c>
+      <c r="C526" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3">
+      <c r="A527" s="1">
+        <v>5323</v>
+      </c>
+      <c r="B527">
+        <v>20110</v>
+      </c>
+      <c r="C527" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3">
+      <c r="A528" s="1">
+        <v>5324</v>
+      </c>
+      <c r="B528">
         <v>20702</v>
       </c>
-      <c r="C476" t="s">
-        <v>423</v>
+      <c r="C528" t="s">
+        <v>472</v>
       </c>
     </row>
   </sheetData>
